--- a/Afry modell.xlsx
+++ b/Afry modell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9910B42-5CCA-B54F-B986-EED1D11EC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34DDEA-039A-3F4F-9431-64DE983C8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24260" yWindow="500" windowWidth="26880" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="23680" yWindow="500" windowWidth="26880" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -1201,10 +1201,10 @@
   <dimension ref="A1:DN74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Z4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="AM31" sqref="AM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1433,40 +1433,40 @@
         <v>28518</v>
       </c>
       <c r="AD4" s="12">
-        <f>AC4*1.1</f>
-        <v>31369.800000000003</v>
+        <f>AC4*1.05</f>
+        <v>29943.9</v>
       </c>
       <c r="AE4" s="12">
-        <f t="shared" ref="AE4:AL4" si="0">AD4*1.1</f>
-        <v>34506.780000000006</v>
+        <f>AD4*1.075</f>
+        <v>32189.692500000001</v>
       </c>
       <c r="AF4" s="12">
-        <f t="shared" si="0"/>
-        <v>37957.458000000013</v>
+        <f t="shared" ref="AF4:AL4" si="0">AE4*1.075</f>
+        <v>34603.919437500001</v>
       </c>
       <c r="AG4" s="12">
         <f t="shared" si="0"/>
-        <v>41753.203800000018</v>
+        <v>37199.213395312501</v>
       </c>
       <c r="AH4" s="12">
         <f t="shared" si="0"/>
-        <v>45928.524180000022</v>
+        <v>39989.154399960935</v>
       </c>
       <c r="AI4" s="12">
         <f t="shared" si="0"/>
-        <v>50521.376598000032</v>
+        <v>42988.340979958004</v>
       </c>
       <c r="AJ4" s="12">
         <f t="shared" si="0"/>
-        <v>55573.514257800038</v>
+        <v>46212.466553454855</v>
       </c>
       <c r="AK4" s="12">
         <f t="shared" si="0"/>
-        <v>61130.865683580043</v>
+        <v>49678.40154496397</v>
       </c>
       <c r="AL4" s="12">
         <f t="shared" si="0"/>
-        <v>67243.952251938055</v>
+        <v>53404.281660836263</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -1547,40 +1547,40 @@
         <v>-5986.05</v>
       </c>
       <c r="AD5" s="14">
-        <f>AC5*1.1</f>
-        <v>-6584.6550000000007</v>
+        <f>AC5*1.05</f>
+        <v>-6285.3525000000009</v>
       </c>
       <c r="AE5" s="14">
-        <f t="shared" ref="AE5:AL5" si="1">AD5*1.1</f>
-        <v>-7243.1205000000009</v>
+        <f>AD5*1.075</f>
+        <v>-6756.7539375000006</v>
       </c>
       <c r="AF5" s="14">
-        <f t="shared" si="1"/>
-        <v>-7967.4325500000014</v>
+        <f t="shared" ref="AF5:AL5" si="1">AE5*1.075</f>
+        <v>-7263.5104828125004</v>
       </c>
       <c r="AG5" s="14">
         <f t="shared" si="1"/>
-        <v>-8764.1758050000026</v>
+        <v>-7808.273769023438</v>
       </c>
       <c r="AH5" s="14">
         <f t="shared" si="1"/>
-        <v>-9640.5933855000039</v>
+        <v>-8393.8943017001948</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="1"/>
-        <v>-10604.652724050005</v>
+        <v>-9023.4363743277081</v>
       </c>
       <c r="AJ5" s="14">
         <f t="shared" si="1"/>
-        <v>-11665.117996455007</v>
+        <v>-9700.1941024022854</v>
       </c>
       <c r="AK5" s="14">
         <f t="shared" si="1"/>
-        <v>-12831.629796100508</v>
+        <v>-10427.708660082457</v>
       </c>
       <c r="AL5" s="14">
         <f t="shared" si="1"/>
-        <v>-14114.792775710559</v>
+        <v>-11209.786809588641</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -1658,44 +1658,44 @@
         <v>-2337</v>
       </c>
       <c r="AC6" s="14">
-        <f t="shared" ref="AC6:AC8" si="2">AB6*1.05</f>
+        <f t="shared" ref="AC6:AD8" si="2">AB6*1.05</f>
         <v>-2453.85</v>
       </c>
       <c r="AD6" s="14">
-        <f t="shared" ref="AD6:AL8" si="3">AC6*1.1</f>
-        <v>-2699.2350000000001</v>
+        <f t="shared" si="2"/>
+        <v>-2576.5425</v>
       </c>
       <c r="AE6" s="14">
-        <f t="shared" si="3"/>
-        <v>-2969.1585000000005</v>
+        <f t="shared" ref="AE6:AL8" si="3">AD6*1.075</f>
+        <v>-2769.7831874999997</v>
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="3"/>
-        <v>-3266.0743500000008</v>
+        <v>-2977.5169265624995</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="3"/>
-        <v>-3592.6817850000011</v>
+        <v>-3200.830696054687</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="3"/>
-        <v>-3951.9499635000016</v>
+        <v>-3440.8929982587883</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="3"/>
-        <v>-4347.1449598500021</v>
+        <v>-3698.9599731281974</v>
       </c>
       <c r="AJ6" s="14">
         <f t="shared" si="3"/>
-        <v>-4781.8594558350023</v>
+        <v>-3976.3819711128122</v>
       </c>
       <c r="AK6" s="14">
         <f t="shared" si="3"/>
-        <v>-5260.0454014185034</v>
+        <v>-4274.6106189462726</v>
       </c>
       <c r="AL6" s="14">
         <f t="shared" si="3"/>
-        <v>-5786.0499415603545</v>
+        <v>-4595.2064153672427</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -1777,40 +1777,40 @@
         <v>-17293.900000000001</v>
       </c>
       <c r="AD7" s="14">
-        <f t="shared" si="3"/>
-        <v>-19023.290000000005</v>
+        <f t="shared" ref="AD7:AL8" si="4">AC7*1.05</f>
+        <v>-18158.595000000001</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="3"/>
-        <v>-20925.619000000006</v>
+        <v>-19520.489625000002</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" si="3"/>
-        <v>-23018.18090000001</v>
+        <v>-20984.526346875002</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" si="3"/>
-        <v>-25319.998990000015</v>
+        <v>-22558.365822890624</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" si="3"/>
-        <v>-27851.998889000017</v>
+        <v>-24250.243259607421</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="3"/>
-        <v>-30637.198777900019</v>
+        <v>-26069.011504077978</v>
       </c>
       <c r="AJ7" s="14">
         <f t="shared" si="3"/>
-        <v>-33700.918655690024</v>
+        <v>-28024.187366883827</v>
       </c>
       <c r="AK7" s="14">
         <f t="shared" si="3"/>
-        <v>-37071.010521259028</v>
+        <v>-30126.001419400112</v>
       </c>
       <c r="AL7" s="14">
         <f t="shared" si="3"/>
-        <v>-40778.111573384936</v>
+        <v>-32385.451525855118</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -1897,40 +1897,40 @@
         <v>35.700000000000003</v>
       </c>
       <c r="AD8" s="14">
-        <f t="shared" si="3"/>
-        <v>39.270000000000003</v>
+        <f t="shared" si="4"/>
+        <v>37.485000000000007</v>
       </c>
       <c r="AE8" s="14">
         <f t="shared" si="3"/>
-        <v>43.19700000000001</v>
+        <v>40.296375000000005</v>
       </c>
       <c r="AF8" s="14">
         <f t="shared" si="3"/>
-        <v>47.516700000000014</v>
+        <v>43.318603125000003</v>
       </c>
       <c r="AG8" s="14">
         <f t="shared" si="3"/>
-        <v>52.268370000000019</v>
+        <v>46.567498359375001</v>
       </c>
       <c r="AH8" s="14">
         <f t="shared" si="3"/>
-        <v>57.495207000000022</v>
+        <v>50.060060736328126</v>
       </c>
       <c r="AI8" s="14">
         <f t="shared" si="3"/>
-        <v>63.244727700000027</v>
+        <v>53.814565291552732</v>
       </c>
       <c r="AJ8" s="14">
         <f t="shared" si="3"/>
-        <v>69.569200470000041</v>
+        <v>57.850657688419183</v>
       </c>
       <c r="AK8" s="14">
         <f t="shared" si="3"/>
-        <v>76.526120517000052</v>
+        <v>62.189457015050621</v>
       </c>
       <c r="AL8" s="14">
         <f t="shared" si="3"/>
-        <v>84.17873256870007</v>
+        <v>66.853666291179408</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -1977,19 +1977,19 @@
         <v>732</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:O9" si="4">SUM(L4:L8)</f>
+        <f t="shared" ref="L9:O9" si="5">SUM(L4:L8)</f>
         <v>757</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>744</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>765</v>
       </c>
       <c r="P9" s="13">
@@ -2025,48 +2025,48 @@
         <v>2841</v>
       </c>
       <c r="AB9" s="13">
-        <f t="shared" ref="AB9:AL9" si="5">SUM(AB4:AB8)</f>
+        <f t="shared" ref="AB9:AL9" si="6">SUM(AB4:AB8)</f>
         <v>2841</v>
       </c>
       <c r="AC9" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2819.9000000000005</v>
       </c>
       <c r="AD9" s="12">
-        <f t="shared" si="5"/>
-        <v>3101.889999999999</v>
+        <f t="shared" si="6"/>
+        <v>2960.895</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="5"/>
-        <v>3412.0789999999979</v>
+        <f t="shared" si="6"/>
+        <v>3182.9621249999964</v>
       </c>
       <c r="AF9" s="12">
-        <f t="shared" si="5"/>
-        <v>3753.2869000000028</v>
+        <f t="shared" si="6"/>
+        <v>3421.6842843749978</v>
       </c>
       <c r="AG9" s="12">
-        <f t="shared" si="5"/>
-        <v>4128.6155899999958</v>
+        <f t="shared" si="6"/>
+        <v>3678.3106057031259</v>
       </c>
       <c r="AH9" s="12">
-        <f t="shared" si="5"/>
-        <v>4541.4771489999985</v>
+        <f t="shared" si="6"/>
+        <v>3954.1839011308598</v>
       </c>
       <c r="AI9" s="12">
-        <f t="shared" si="5"/>
-        <v>4995.6248639000014</v>
+        <f t="shared" si="6"/>
+        <v>4250.7476937156762</v>
       </c>
       <c r="AJ9" s="12">
-        <f t="shared" si="5"/>
-        <v>5495.1873502900025</v>
+        <f t="shared" si="6"/>
+        <v>4569.5537707443527</v>
       </c>
       <c r="AK9" s="12">
-        <f t="shared" si="5"/>
-        <v>6044.7060853190023</v>
+        <f t="shared" si="6"/>
+        <v>4912.27030355018</v>
       </c>
       <c r="AL9" s="12">
-        <f t="shared" si="5"/>
-        <v>6649.1766938509063</v>
+        <f t="shared" si="6"/>
+        <v>5280.6905763164468</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -2204,19 +2204,19 @@
         <v>557</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ref="L11:O11" si="6">SUM(L9:L10)</f>
+        <f t="shared" ref="L11:O11" si="7">SUM(L9:L10)</f>
         <v>582</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>573</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>586</v>
       </c>
       <c r="P11" s="13">
@@ -2251,48 +2251,48 @@
         <v>2104</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" ref="AB11:AL11" si="7">SUM(AB9:AB10)</f>
+        <f t="shared" ref="AB11:AL11" si="8">SUM(AB9:AB10)</f>
         <v>2091</v>
       </c>
       <c r="AC11" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2319.9000000000005</v>
       </c>
       <c r="AD11" s="12">
-        <f t="shared" si="7"/>
-        <v>2601.889999999999</v>
+        <f t="shared" si="8"/>
+        <v>2460.895</v>
       </c>
       <c r="AE11" s="12">
-        <f t="shared" si="7"/>
-        <v>2912.0789999999979</v>
+        <f t="shared" si="8"/>
+        <v>2682.9621249999964</v>
       </c>
       <c r="AF11" s="12">
-        <f t="shared" si="7"/>
-        <v>3253.2869000000028</v>
+        <f t="shared" si="8"/>
+        <v>2921.6842843749978</v>
       </c>
       <c r="AG11" s="12">
-        <f t="shared" si="7"/>
-        <v>3628.6155899999958</v>
+        <f t="shared" si="8"/>
+        <v>3178.3106057031259</v>
       </c>
       <c r="AH11" s="12">
-        <f t="shared" si="7"/>
-        <v>4041.4771489999985</v>
+        <f t="shared" si="8"/>
+        <v>3454.1839011308598</v>
       </c>
       <c r="AI11" s="12">
-        <f t="shared" si="7"/>
-        <v>4495.6248639000014</v>
+        <f t="shared" si="8"/>
+        <v>3750.7476937156762</v>
       </c>
       <c r="AJ11" s="12">
-        <f t="shared" si="7"/>
-        <v>4995.1873502900025</v>
+        <f t="shared" si="8"/>
+        <v>4069.5537707443527</v>
       </c>
       <c r="AK11" s="12">
-        <f t="shared" si="7"/>
-        <v>5544.7060853190023</v>
+        <f t="shared" si="8"/>
+        <v>4412.27030355018</v>
       </c>
       <c r="AL11" s="12">
-        <f t="shared" si="7"/>
-        <v>6149.1766938509063</v>
+        <f t="shared" si="8"/>
+        <v>4780.6905763164468</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -2371,35 +2371,35 @@
         <v>-173.25</v>
       </c>
       <c r="AE12" s="14">
-        <f t="shared" ref="AE12:AL12" si="8">AD12*1.1</f>
+        <f t="shared" ref="AE12:AL12" si="9">AD12*1.1</f>
         <v>-190.57500000000002</v>
       </c>
       <c r="AF12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-209.63250000000002</v>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-230.59575000000004</v>
       </c>
       <c r="AH12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-253.65532500000006</v>
       </c>
       <c r="AI12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-279.02085750000009</v>
       </c>
       <c r="AJ12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-306.92294325000012</v>
       </c>
       <c r="AK12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-337.61523757500015</v>
       </c>
       <c r="AL12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-371.37676133250022</v>
       </c>
     </row>
@@ -2440,19 +2440,19 @@
         <v>516</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:O13" si="9">SUM(L11:L12)</f>
+        <f t="shared" ref="L13:O13" si="10">SUM(L11:L12)</f>
         <v>541</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>542</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>544</v>
       </c>
       <c r="P13" s="13">
@@ -2489,48 +2489,48 @@
         <v>1940</v>
       </c>
       <c r="AB13" s="13">
-        <f t="shared" ref="AB13:AL13" si="10">SUM(AB11:AB12)</f>
+        <f t="shared" ref="AB13:AL13" si="11">SUM(AB11:AB12)</f>
         <v>1941</v>
       </c>
       <c r="AC13" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2162.4000000000005</v>
       </c>
       <c r="AD13" s="12">
-        <f t="shared" si="10"/>
-        <v>2428.639999999999</v>
+        <f t="shared" si="11"/>
+        <v>2287.645</v>
       </c>
       <c r="AE13" s="12">
-        <f t="shared" si="10"/>
-        <v>2721.5039999999981</v>
+        <f t="shared" si="11"/>
+        <v>2492.3871249999966</v>
       </c>
       <c r="AF13" s="12">
-        <f t="shared" si="10"/>
-        <v>3043.6544000000026</v>
+        <f t="shared" si="11"/>
+        <v>2712.0517843749976</v>
       </c>
       <c r="AG13" s="12">
-        <f t="shared" si="10"/>
-        <v>3398.0198399999958</v>
+        <f t="shared" si="11"/>
+        <v>2947.714855703126</v>
       </c>
       <c r="AH13" s="12">
-        <f t="shared" si="10"/>
-        <v>3787.8218239999983</v>
+        <f t="shared" si="11"/>
+        <v>3200.5285761308596</v>
       </c>
       <c r="AI13" s="12">
-        <f t="shared" si="10"/>
-        <v>4216.6040064000017</v>
+        <f t="shared" si="11"/>
+        <v>3471.726836215676</v>
       </c>
       <c r="AJ13" s="12">
-        <f t="shared" si="10"/>
-        <v>4688.264407040002</v>
+        <f t="shared" si="11"/>
+        <v>3762.6308274943526</v>
       </c>
       <c r="AK13" s="12">
-        <f t="shared" si="10"/>
-        <v>5207.0908477440025</v>
+        <f t="shared" si="11"/>
+        <v>4074.6550659751797</v>
       </c>
       <c r="AL13" s="12">
-        <f t="shared" si="10"/>
-        <v>5777.7999325184064</v>
+        <f t="shared" si="11"/>
+        <v>4409.3138149839469</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -2609,35 +2609,35 @@
         <v>-115.50000000000001</v>
       </c>
       <c r="AE14" s="14">
-        <f t="shared" ref="AE14:AL14" si="11">AD14*1.1</f>
+        <f t="shared" ref="AE14:AL14" si="12">AD14*1.1</f>
         <v>-127.05000000000003</v>
       </c>
       <c r="AF14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-139.75500000000005</v>
       </c>
       <c r="AG14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-153.73050000000006</v>
       </c>
       <c r="AH14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-169.10355000000007</v>
       </c>
       <c r="AI14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-186.01390500000008</v>
       </c>
       <c r="AJ14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-204.61529550000012</v>
       </c>
       <c r="AK14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-225.07682505000014</v>
       </c>
       <c r="AL14" s="14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-247.58450755500019</v>
       </c>
     </row>
@@ -2678,19 +2678,19 @@
         <v>447</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" ref="L15:O15" si="12">SUM(L13:L14)</f>
+        <f t="shared" ref="L15:O15" si="13">SUM(L13:L14)</f>
         <v>472</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>474</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>204</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>488</v>
       </c>
       <c r="P15" s="15">
@@ -2725,48 +2725,48 @@
         <v>1635</v>
       </c>
       <c r="AB15" s="15">
-        <f t="shared" ref="AB15:AL15" si="13">SUM(AB13:AB14)</f>
+        <f t="shared" ref="AB15:AL15" si="14">SUM(AB13:AB14)</f>
         <v>1841</v>
       </c>
       <c r="AC15" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2057.4000000000005</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="13"/>
-        <v>2313.139999999999</v>
+        <f t="shared" si="14"/>
+        <v>2172.145</v>
       </c>
       <c r="AE15" s="14">
-        <f t="shared" si="13"/>
-        <v>2594.4539999999979</v>
+        <f t="shared" si="14"/>
+        <v>2365.3371249999964</v>
       </c>
       <c r="AF15" s="14">
-        <f t="shared" si="13"/>
-        <v>2903.8994000000025</v>
+        <f t="shared" si="14"/>
+        <v>2572.2967843749975</v>
       </c>
       <c r="AG15" s="14">
-        <f t="shared" si="13"/>
-        <v>3244.2893399999957</v>
+        <f t="shared" si="14"/>
+        <v>2793.9843557031259</v>
       </c>
       <c r="AH15" s="14">
-        <f t="shared" si="13"/>
-        <v>3618.718273999998</v>
+        <f t="shared" si="14"/>
+        <v>3031.4250261308594</v>
       </c>
       <c r="AI15" s="14">
-        <f t="shared" si="13"/>
-        <v>4030.5901014000015</v>
+        <f t="shared" si="14"/>
+        <v>3285.7129312156758</v>
       </c>
       <c r="AJ15" s="14">
-        <f t="shared" si="13"/>
-        <v>4483.6491115400022</v>
+        <f t="shared" si="14"/>
+        <v>3558.0155319943524</v>
       </c>
       <c r="AK15" s="14">
-        <f t="shared" si="13"/>
-        <v>4982.0140226940021</v>
+        <f t="shared" si="14"/>
+        <v>3849.5782409251797</v>
       </c>
       <c r="AL15" s="14">
-        <f t="shared" si="13"/>
-        <v>5530.2154249634059</v>
+        <f t="shared" si="14"/>
+        <v>4161.7293074289464</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -2838,44 +2838,44 @@
         <v>-405.02</v>
       </c>
       <c r="AC16" s="28">
-        <f t="shared" ref="AC16:AM16" si="14">AC15*-0.22</f>
+        <f t="shared" ref="AC16:AM16" si="15">AC15*-0.22</f>
         <v>-452.6280000000001</v>
       </c>
       <c r="AD16" s="28">
-        <f t="shared" si="14"/>
-        <v>-508.89079999999979</v>
+        <f t="shared" si="15"/>
+        <v>-477.87189999999998</v>
       </c>
       <c r="AE16" s="28">
-        <f t="shared" si="14"/>
-        <v>-570.77987999999959</v>
+        <f t="shared" si="15"/>
+        <v>-520.3741674999992</v>
       </c>
       <c r="AF16" s="28">
-        <f t="shared" si="14"/>
-        <v>-638.85786800000051</v>
+        <f t="shared" si="15"/>
+        <v>-565.90529256249943</v>
       </c>
       <c r="AG16" s="28">
-        <f t="shared" si="14"/>
-        <v>-713.74365479999904</v>
+        <f t="shared" si="15"/>
+        <v>-614.67655825468773</v>
       </c>
       <c r="AH16" s="28">
-        <f t="shared" si="14"/>
-        <v>-796.11802027999954</v>
+        <f t="shared" si="15"/>
+        <v>-666.91350574878902</v>
       </c>
       <c r="AI16" s="28">
-        <f t="shared" si="14"/>
-        <v>-886.72982230800028</v>
+        <f t="shared" si="15"/>
+        <v>-722.85684486744867</v>
       </c>
       <c r="AJ16" s="28">
-        <f t="shared" si="14"/>
-        <v>-986.40280453880052</v>
+        <f t="shared" si="15"/>
+        <v>-782.76341703875755</v>
       </c>
       <c r="AK16" s="28">
-        <f t="shared" si="14"/>
-        <v>-1096.0430849926804</v>
+        <f t="shared" si="15"/>
+        <v>-846.90721300353948</v>
       </c>
       <c r="AL16" s="28">
-        <f t="shared" si="14"/>
-        <v>-1216.6473934919493</v>
+        <f t="shared" si="15"/>
+        <v>-915.58044763436817</v>
       </c>
       <c r="AM16" s="28"/>
     </row>
@@ -2916,19 +2916,19 @@
         <v>330</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ref="L17:O17" si="15">SUM(L15:L16)</f>
+        <f t="shared" ref="L17:O17" si="16">SUM(L15:L16)</f>
         <v>355</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>378</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>354</v>
       </c>
       <c r="P17" s="13">
@@ -2965,368 +2965,368 @@
         <v>1234</v>
       </c>
       <c r="AB17" s="13">
-        <f t="shared" ref="AB17:AL17" si="16">SUM(AB15:AB16)</f>
+        <f t="shared" ref="AB17:AL17" si="17">SUM(AB15:AB16)</f>
         <v>1435.98</v>
       </c>
       <c r="AC17" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1604.7720000000004</v>
       </c>
       <c r="AD17" s="12">
-        <f t="shared" si="16"/>
-        <v>1804.2491999999993</v>
+        <f t="shared" si="17"/>
+        <v>1694.2730999999999</v>
       </c>
       <c r="AE17" s="12">
-        <f t="shared" si="16"/>
-        <v>2023.6741199999983</v>
+        <f t="shared" si="17"/>
+        <v>1844.9629574999972</v>
       </c>
       <c r="AF17" s="12">
-        <f t="shared" si="16"/>
-        <v>2265.041532000002</v>
+        <f t="shared" si="17"/>
+        <v>2006.3914918124981</v>
       </c>
       <c r="AG17" s="12">
-        <f t="shared" si="16"/>
-        <v>2530.5456851999966</v>
+        <f t="shared" si="17"/>
+        <v>2179.3077974484381</v>
       </c>
       <c r="AH17" s="12">
-        <f t="shared" si="16"/>
-        <v>2822.6002537199984</v>
+        <f t="shared" si="17"/>
+        <v>2364.5115203820706</v>
       </c>
       <c r="AI17" s="12">
-        <f t="shared" si="16"/>
-        <v>3143.8602790920013</v>
+        <f t="shared" si="17"/>
+        <v>2562.8560863482271</v>
       </c>
       <c r="AJ17" s="12">
-        <f t="shared" si="16"/>
-        <v>3497.2463070012018</v>
+        <f t="shared" si="17"/>
+        <v>2775.2521149555951</v>
       </c>
       <c r="AK17" s="12">
-        <f t="shared" si="16"/>
-        <v>3885.9709377013214</v>
+        <f t="shared" si="17"/>
+        <v>3002.6710279216404</v>
       </c>
       <c r="AL17" s="12">
-        <f t="shared" si="16"/>
-        <v>4313.5680314714564</v>
+        <f t="shared" si="17"/>
+        <v>3246.1488597945781</v>
       </c>
       <c r="AM17" s="12">
         <f>AL17*(1+$AO$21)</f>
-        <v>4270.4323511567418</v>
+        <v>3213.6873711966323</v>
       </c>
       <c r="AN17" s="12">
-        <f t="shared" ref="AN17:CY17" si="17">AM17*(1+$AO$21)</f>
-        <v>4227.7280276451747</v>
+        <f t="shared" ref="AN17:CY17" si="18">AM17*(1+$AO$21)</f>
+        <v>3181.5504974846658</v>
       </c>
       <c r="AO17" s="12">
-        <f t="shared" si="17"/>
-        <v>4185.4507473687227</v>
+        <f t="shared" si="18"/>
+        <v>3149.7349925098192</v>
       </c>
       <c r="AP17" s="12">
-        <f t="shared" si="17"/>
-        <v>4143.5962398950351</v>
+        <f t="shared" si="18"/>
+        <v>3118.237642584721</v>
       </c>
       <c r="AQ17" s="12">
-        <f t="shared" si="17"/>
-        <v>4102.1602774960847</v>
+        <f t="shared" si="18"/>
+        <v>3087.0552661588736</v>
       </c>
       <c r="AR17" s="12">
-        <f t="shared" si="17"/>
-        <v>4061.1386747211241</v>
+        <f t="shared" si="18"/>
+        <v>3056.184713497285</v>
       </c>
       <c r="AS17" s="12">
-        <f t="shared" si="17"/>
-        <v>4020.5272879739127</v>
+        <f t="shared" si="18"/>
+        <v>3025.6228663623119</v>
       </c>
       <c r="AT17" s="12">
-        <f t="shared" si="17"/>
-        <v>3980.3220150941734</v>
+        <f t="shared" si="18"/>
+        <v>2995.3666376986889</v>
       </c>
       <c r="AU17" s="12">
-        <f t="shared" si="17"/>
-        <v>3940.5187949432316</v>
+        <f t="shared" si="18"/>
+        <v>2965.4129713217021</v>
       </c>
       <c r="AV17" s="12">
-        <f t="shared" si="17"/>
-        <v>3901.1136069937993</v>
+        <f t="shared" si="18"/>
+        <v>2935.758841608485</v>
       </c>
       <c r="AW17" s="12">
-        <f t="shared" si="17"/>
-        <v>3862.1024709238613</v>
+        <f t="shared" si="18"/>
+        <v>2906.4012531924</v>
       </c>
       <c r="AX17" s="12">
-        <f t="shared" si="17"/>
-        <v>3823.4814462146228</v>
+        <f t="shared" si="18"/>
+        <v>2877.3372406604758</v>
       </c>
       <c r="AY17" s="12">
-        <f t="shared" si="17"/>
-        <v>3785.2466317524763</v>
+        <f t="shared" si="18"/>
+        <v>2848.5638682538711</v>
       </c>
       <c r="AZ17" s="12">
-        <f t="shared" si="17"/>
-        <v>3747.3941654349514</v>
+        <f t="shared" si="18"/>
+        <v>2820.0782295713325</v>
       </c>
       <c r="BA17" s="12">
-        <f t="shared" si="17"/>
-        <v>3709.9202237806021</v>
+        <f t="shared" si="18"/>
+        <v>2791.877447275619</v>
       </c>
       <c r="BB17" s="12">
-        <f t="shared" si="17"/>
-        <v>3672.8210215427962</v>
+        <f t="shared" si="18"/>
+        <v>2763.958672802863</v>
       </c>
       <c r="BC17" s="12">
-        <f t="shared" si="17"/>
-        <v>3636.0928113273681</v>
+        <f t="shared" si="18"/>
+        <v>2736.3190860748346</v>
       </c>
       <c r="BD17" s="12">
-        <f t="shared" si="17"/>
-        <v>3599.7318832140945</v>
+        <f t="shared" si="18"/>
+        <v>2708.955895214086</v>
       </c>
       <c r="BE17" s="12">
-        <f t="shared" si="17"/>
-        <v>3563.7345643819535</v>
+        <f t="shared" si="18"/>
+        <v>2681.866336261945</v>
       </c>
       <c r="BF17" s="12">
-        <f t="shared" si="17"/>
-        <v>3528.097218738134</v>
+        <f t="shared" si="18"/>
+        <v>2655.0476728993253</v>
       </c>
       <c r="BG17" s="12">
-        <f t="shared" si="17"/>
-        <v>3492.8162465507526</v>
+        <f t="shared" si="18"/>
+        <v>2628.4971961703322</v>
       </c>
       <c r="BH17" s="12">
-        <f t="shared" si="17"/>
-        <v>3457.8880840852448</v>
+        <f t="shared" si="18"/>
+        <v>2602.2122242086289</v>
       </c>
       <c r="BI17" s="12">
-        <f t="shared" si="17"/>
-        <v>3423.3092032443924</v>
+        <f t="shared" si="18"/>
+        <v>2576.1901019665424</v>
       </c>
       <c r="BJ17" s="12">
-        <f t="shared" si="17"/>
-        <v>3389.0761112119485</v>
+        <f t="shared" si="18"/>
+        <v>2550.428200946877</v>
       </c>
       <c r="BK17" s="12">
-        <f t="shared" si="17"/>
-        <v>3355.1853500998291</v>
+        <f t="shared" si="18"/>
+        <v>2524.9239189374084</v>
       </c>
       <c r="BL17" s="12">
-        <f t="shared" si="17"/>
-        <v>3321.6334965988308</v>
+        <f t="shared" si="18"/>
+        <v>2499.6746797480341</v>
       </c>
       <c r="BM17" s="12">
-        <f t="shared" si="17"/>
-        <v>3288.4171616328426</v>
+        <f t="shared" si="18"/>
+        <v>2474.6779329505539</v>
       </c>
       <c r="BN17" s="12">
-        <f t="shared" si="17"/>
-        <v>3255.5329900165143</v>
+        <f t="shared" si="18"/>
+        <v>2449.9311536210485</v>
       </c>
       <c r="BO17" s="12">
-        <f t="shared" si="17"/>
-        <v>3222.9776601163489</v>
+        <f t="shared" si="18"/>
+        <v>2425.4318420848381</v>
       </c>
       <c r="BP17" s="12">
-        <f t="shared" si="17"/>
-        <v>3190.7478835151855</v>
+        <f t="shared" si="18"/>
+        <v>2401.1775236639896</v>
       </c>
       <c r="BQ17" s="12">
-        <f t="shared" si="17"/>
-        <v>3158.8404046800338</v>
+        <f t="shared" si="18"/>
+        <v>2377.1657484273496</v>
       </c>
       <c r="BR17" s="12">
-        <f t="shared" si="17"/>
-        <v>3127.2520006332334</v>
+        <f t="shared" si="18"/>
+        <v>2353.3940909430762</v>
       </c>
       <c r="BS17" s="12">
-        <f t="shared" si="17"/>
-        <v>3095.979480626901</v>
+        <f t="shared" si="18"/>
+        <v>2329.8601500336454</v>
       </c>
       <c r="BT17" s="12">
-        <f t="shared" si="17"/>
-        <v>3065.0196858206318</v>
+        <f t="shared" si="18"/>
+        <v>2306.5615485333087</v>
       </c>
       <c r="BU17" s="12">
-        <f t="shared" si="17"/>
-        <v>3034.3694889624253</v>
+        <f t="shared" si="18"/>
+        <v>2283.4959330479755</v>
       </c>
       <c r="BV17" s="12">
-        <f t="shared" si="17"/>
-        <v>3004.0257940728011</v>
+        <f t="shared" si="18"/>
+        <v>2260.6609737174958</v>
       </c>
       <c r="BW17" s="12">
-        <f t="shared" si="17"/>
-        <v>2973.9855361320729</v>
+        <f t="shared" si="18"/>
+        <v>2238.0543639803209</v>
       </c>
       <c r="BX17" s="12">
-        <f t="shared" si="17"/>
-        <v>2944.2456807707522</v>
+        <f t="shared" si="18"/>
+        <v>2215.6738203405175</v>
       </c>
       <c r="BY17" s="12">
-        <f t="shared" si="17"/>
-        <v>2914.8032239630447</v>
+        <f t="shared" si="18"/>
+        <v>2193.5170821371125</v>
       </c>
       <c r="BZ17" s="12">
-        <f t="shared" si="17"/>
-        <v>2885.6551917234142</v>
+        <f t="shared" si="18"/>
+        <v>2171.5819113157413</v>
       </c>
       <c r="CA17" s="12">
-        <f t="shared" si="17"/>
-        <v>2856.7986398061798</v>
+        <f t="shared" si="18"/>
+        <v>2149.8660922025838</v>
       </c>
       <c r="CB17" s="12">
-        <f t="shared" si="17"/>
-        <v>2828.2306534081181</v>
+        <f t="shared" si="18"/>
+        <v>2128.3674312805579</v>
       </c>
       <c r="CC17" s="12">
-        <f t="shared" si="17"/>
-        <v>2799.9483468740368</v>
+        <f t="shared" si="18"/>
+        <v>2107.0837569677524</v>
       </c>
       <c r="CD17" s="12">
-        <f t="shared" si="17"/>
-        <v>2771.9488634052964</v>
+        <f t="shared" si="18"/>
+        <v>2086.0129193980747</v>
       </c>
       <c r="CE17" s="12">
-        <f t="shared" si="17"/>
-        <v>2744.2293747712433</v>
+        <f t="shared" si="18"/>
+        <v>2065.1527902040939</v>
       </c>
       <c r="CF17" s="12">
-        <f t="shared" si="17"/>
-        <v>2716.7870810235308</v>
+        <f t="shared" si="18"/>
+        <v>2044.501262302053</v>
       </c>
       <c r="CG17" s="12">
-        <f t="shared" si="17"/>
-        <v>2689.6192102132954</v>
+        <f t="shared" si="18"/>
+        <v>2024.0562496790324</v>
       </c>
       <c r="CH17" s="12">
-        <f t="shared" si="17"/>
-        <v>2662.7230181111627</v>
+        <f t="shared" si="18"/>
+        <v>2003.8156871822421</v>
       </c>
       <c r="CI17" s="12">
-        <f t="shared" si="17"/>
-        <v>2636.0957879300508</v>
+        <f t="shared" si="18"/>
+        <v>1983.7775303104197</v>
       </c>
       <c r="CJ17" s="12">
-        <f t="shared" si="17"/>
-        <v>2609.7348300507501</v>
+        <f t="shared" si="18"/>
+        <v>1963.9397550073154</v>
       </c>
       <c r="CK17" s="12">
-        <f t="shared" si="17"/>
-        <v>2583.6374817502424</v>
+        <f t="shared" si="18"/>
+        <v>1944.3003574572422</v>
       </c>
       <c r="CL17" s="12">
-        <f t="shared" si="17"/>
-        <v>2557.8011069327399</v>
+        <f t="shared" si="18"/>
+        <v>1924.8573538826697</v>
       </c>
       <c r="CM17" s="12">
-        <f t="shared" si="17"/>
-        <v>2532.2230958634127</v>
+        <f t="shared" si="18"/>
+        <v>1905.6087803438429</v>
       </c>
       <c r="CN17" s="12">
-        <f t="shared" si="17"/>
-        <v>2506.9008649047787</v>
+        <f t="shared" si="18"/>
+        <v>1886.5526925404045</v>
       </c>
       <c r="CO17" s="12">
-        <f t="shared" si="17"/>
-        <v>2481.8318562557311</v>
+        <f t="shared" si="18"/>
+        <v>1867.6871656150004</v>
       </c>
       <c r="CP17" s="12">
-        <f t="shared" si="17"/>
-        <v>2457.0135376931739</v>
+        <f t="shared" si="18"/>
+        <v>1849.0102939588503</v>
       </c>
       <c r="CQ17" s="12">
-        <f t="shared" si="17"/>
-        <v>2432.4434023162421</v>
+        <f t="shared" si="18"/>
+        <v>1830.5201910192618</v>
       </c>
       <c r="CR17" s="12">
-        <f t="shared" si="17"/>
-        <v>2408.1189682930794</v>
+        <f t="shared" si="18"/>
+        <v>1812.2149891090692</v>
       </c>
       <c r="CS17" s="12">
-        <f t="shared" si="17"/>
-        <v>2384.0377786101485</v>
+        <f t="shared" si="18"/>
+        <v>1794.0928392179785</v>
       </c>
       <c r="CT17" s="12">
-        <f t="shared" si="17"/>
-        <v>2360.1974008240468</v>
+        <f t="shared" si="18"/>
+        <v>1776.1519108257987</v>
       </c>
       <c r="CU17" s="12">
-        <f t="shared" si="17"/>
-        <v>2336.5954268158061</v>
+        <f t="shared" si="18"/>
+        <v>1758.3903917175408</v>
       </c>
       <c r="CV17" s="12">
-        <f t="shared" si="17"/>
-        <v>2313.2294725476481</v>
+        <f t="shared" si="18"/>
+        <v>1740.8064878003654</v>
       </c>
       <c r="CW17" s="12">
-        <f t="shared" si="17"/>
-        <v>2290.0971778221715</v>
+        <f t="shared" si="18"/>
+        <v>1723.3984229223618</v>
       </c>
       <c r="CX17" s="12">
-        <f t="shared" si="17"/>
-        <v>2267.1962060439496</v>
+        <f t="shared" si="18"/>
+        <v>1706.1644386931382</v>
       </c>
       <c r="CY17" s="12">
-        <f t="shared" si="17"/>
-        <v>2244.5242439835101</v>
+        <f t="shared" si="18"/>
+        <v>1689.1027943062068</v>
       </c>
       <c r="CZ17" s="12">
-        <f t="shared" ref="CZ17:DN17" si="18">CY17*(1+$AO$21)</f>
-        <v>2222.0790015436751</v>
+        <f t="shared" ref="CZ17:DN17" si="19">CY17*(1+$AO$21)</f>
+        <v>1672.2117663631448</v>
       </c>
       <c r="DA17" s="12">
-        <f t="shared" si="18"/>
-        <v>2199.8582115282384</v>
+        <f t="shared" si="19"/>
+        <v>1655.4896486995133</v>
       </c>
       <c r="DB17" s="12">
-        <f t="shared" si="18"/>
-        <v>2177.8596294129561</v>
+        <f t="shared" si="19"/>
+        <v>1638.9347522125181</v>
       </c>
       <c r="DC17" s="12">
-        <f t="shared" si="18"/>
-        <v>2156.0810331188263</v>
+        <f t="shared" si="19"/>
+        <v>1622.5454046903928</v>
       </c>
       <c r="DD17" s="12">
-        <f t="shared" si="18"/>
-        <v>2134.520222787638</v>
+        <f t="shared" si="19"/>
+        <v>1606.3199506434889</v>
       </c>
       <c r="DE17" s="12">
-        <f t="shared" si="18"/>
-        <v>2113.1750205597614</v>
+        <f t="shared" si="19"/>
+        <v>1590.2567511370539</v>
       </c>
       <c r="DF17" s="12">
-        <f t="shared" si="18"/>
-        <v>2092.0432703541637</v>
+        <f t="shared" si="19"/>
+        <v>1574.3541836256834</v>
       </c>
       <c r="DG17" s="12">
-        <f t="shared" si="18"/>
-        <v>2071.1228376506219</v>
+        <f t="shared" si="19"/>
+        <v>1558.6106417894266</v>
       </c>
       <c r="DH17" s="12">
-        <f t="shared" si="18"/>
-        <v>2050.4116092741156</v>
+        <f t="shared" si="19"/>
+        <v>1543.0245353715322</v>
       </c>
       <c r="DI17" s="12">
-        <f t="shared" si="18"/>
-        <v>2029.9074931813743</v>
+        <f t="shared" si="19"/>
+        <v>1527.594290017817</v>
       </c>
       <c r="DJ17" s="12">
-        <f t="shared" si="18"/>
-        <v>2009.6084182495606</v>
+        <f t="shared" si="19"/>
+        <v>1512.3183471176387</v>
       </c>
       <c r="DK17" s="12">
-        <f t="shared" si="18"/>
-        <v>1989.512334067065</v>
+        <f t="shared" si="19"/>
+        <v>1497.1951636464623</v>
       </c>
       <c r="DL17" s="12">
-        <f t="shared" si="18"/>
-        <v>1969.6172107263944</v>
+        <f t="shared" si="19"/>
+        <v>1482.2232120099977</v>
       </c>
       <c r="DM17" s="12">
-        <f t="shared" si="18"/>
-        <v>1949.9210386191305</v>
+        <f t="shared" si="19"/>
+        <v>1467.4009798898978</v>
       </c>
       <c r="DN17" s="12">
-        <f t="shared" si="18"/>
-        <v>1930.4218282329391</v>
+        <f t="shared" si="19"/>
+        <v>1452.7269700909987</v>
       </c>
     </row>
     <row r="18" spans="3:118" x14ac:dyDescent="0.25">
@@ -3429,27 +3429,27 @@
         <v>55</v>
       </c>
       <c r="D19" s="19">
-        <f t="shared" ref="D19:O19" si="19">D17/D18</f>
+        <f t="shared" ref="D19:O19" si="20">D17/D18</f>
         <v>1.9602347658390524</v>
       </c>
       <c r="E19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.5364002218738519</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.5717197672042853</v>
       </c>
       <c r="G19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.5142947603781209</v>
       </c>
       <c r="H19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.8498304410172381</v>
       </c>
       <c r="I19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.7748071528542773</v>
       </c>
       <c r="J19" s="19">
@@ -3461,19 +3461,19 @@
         <v>2.9138624897607537</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.134609648075962</v>
       </c>
       <c r="M19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.3376970337259539</v>
       </c>
       <c r="N19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3156530635586432</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.1257797617433538</v>
       </c>
       <c r="P19" s="18">
@@ -3505,48 +3505,48 @@
         <v>10.896079734438697</v>
       </c>
       <c r="AB19" s="18">
-        <f t="shared" ref="AB19:AL19" si="20">AB17/AB18</f>
+        <f t="shared" ref="AB19:AL19" si="21">AB17/AB18</f>
         <v>12.67954017589893</v>
       </c>
       <c r="AC19" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14.169954349752562</v>
       </c>
       <c r="AD19" s="19">
-        <f t="shared" si="20"/>
-        <v>15.931315351699533</v>
+        <f t="shared" si="21"/>
+        <v>14.960238889395969</v>
       </c>
       <c r="AE19" s="19">
-        <f t="shared" si="20"/>
-        <v>17.868812453841205</v>
+        <f t="shared" si="21"/>
+        <v>16.290813202597896</v>
       </c>
       <c r="AF19" s="19">
-        <f t="shared" si="20"/>
-        <v>20.000059266197084</v>
+        <f t="shared" si="21"/>
+        <v>17.716208811416845</v>
       </c>
       <c r="AG19" s="19">
-        <f t="shared" si="20"/>
-        <v>22.344430759788466</v>
+        <f t="shared" si="21"/>
+        <v>19.243040135236757</v>
       </c>
       <c r="AH19" s="19">
-        <f t="shared" si="20"/>
-        <v>24.923239402739057</v>
+        <f t="shared" si="21"/>
+        <v>20.87836795711662</v>
       </c>
       <c r="AI19" s="19">
-        <f t="shared" si="20"/>
-        <v>27.759928909984716</v>
+        <f t="shared" si="21"/>
+        <v>22.629727929288322</v>
       </c>
       <c r="AJ19" s="19">
-        <f t="shared" si="20"/>
-        <v>30.880287367954917</v>
+        <f t="shared" si="21"/>
+        <v>24.505160719388808</v>
       </c>
       <c r="AK19" s="19">
-        <f t="shared" si="20"/>
-        <v>34.312681671722132</v>
+        <f t="shared" si="21"/>
+        <v>26.513243870764342</v>
       </c>
       <c r="AL19" s="19">
-        <f t="shared" si="20"/>
-        <v>38.088315405866091</v>
+        <f t="shared" si="21"/>
+        <v>28.663125450712304</v>
       </c>
     </row>
     <row r="20" spans="3:118" x14ac:dyDescent="0.25">
@@ -3562,11 +3562,11 @@
         <v>29</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" ref="H21:M21" si="21">(H4-D4)/D4</f>
+        <f t="shared" ref="H21:M21" si="22">(H4-D4)/D4</f>
         <v>0.21975308641975308</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1496234309623431</v>
       </c>
       <c r="J21" s="21">
@@ -3578,11 +3578,11 @@
         <v>7.9588440006052349E-2</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-3.6148062463851939E-3</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.6877274712476345E-2</v>
       </c>
       <c r="N21" s="21">
@@ -3599,23 +3599,23 @@
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21">
-        <f t="shared" ref="W21:AA21" si="22">(W4-V4)/V4</f>
+        <f t="shared" ref="W21:AA21" si="23">(W4-V4)/V4</f>
         <v>-4.0470897332255458E-2</v>
       </c>
       <c r="X21" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.8606708440840399E-2</v>
       </c>
       <c r="Y21" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.17150815758058097</v>
       </c>
       <c r="Z21" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14546535326086957</v>
       </c>
       <c r="AA21" s="21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.7462376751427086E-3</v>
       </c>
       <c r="AB21" s="22">
@@ -3623,44 +3623,44 @@
         <v>0</v>
       </c>
       <c r="AC21" s="27">
-        <f t="shared" ref="AC21:AL21" si="23">(AC4-AB4)/AB4</f>
+        <f t="shared" ref="AC21:AL21" si="24">(AC4-AB4)/AB4</f>
         <v>0.05</v>
       </c>
       <c r="AD21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.1000000000000001</v>
+        <f t="shared" si="24"/>
+        <v>5.0000000000000051E-2</v>
       </c>
       <c r="AE21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="24"/>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="AF21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000019</v>
+        <f t="shared" si="24"/>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="AG21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="AH21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000007</v>
+        <f t="shared" si="24"/>
+        <v>7.4999999999999886E-2</v>
       </c>
       <c r="AI21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000016</v>
+        <f t="shared" si="24"/>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="AJ21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000006</v>
+        <f t="shared" si="24"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="AK21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000002</v>
+        <f t="shared" si="24"/>
+        <v>7.5000000000000025E-2</v>
       </c>
       <c r="AL21" s="27">
-        <f t="shared" si="23"/>
-        <v>0.10000000000000013</v>
+        <f t="shared" si="24"/>
+        <v>7.49999999999999E-2</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>100</v>
@@ -3674,51 +3674,51 @@
         <v>96</v>
       </c>
       <c r="D22" s="26">
-        <f t="shared" ref="D22:O22" si="24">D11/D4</f>
+        <f t="shared" ref="D22:O22" si="25">D11/D4</f>
         <v>6.3139329805996472E-2</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.2301255230125525E-2</v>
       </c>
       <c r="F22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.0781426953567386E-2</v>
       </c>
       <c r="G22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5035557573006501E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.9768652400231347E-2</v>
       </c>
       <c r="I22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.7941476197408651E-2</v>
       </c>
       <c r="J22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.1163558342960887E-2</v>
       </c>
       <c r="K22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.8065872459705671E-2</v>
       </c>
       <c r="L22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.4457988680888121E-2</v>
       </c>
       <c r="M22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.9682937004589074E-2</v>
       </c>
       <c r="N22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.0737527114967459E-2</v>
       </c>
       <c r="O22" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.2709950599858861E-2</v>
       </c>
       <c r="P22" s="23">
@@ -3726,79 +3726,79 @@
         <v>6.8010075566750636E-2</v>
       </c>
       <c r="V22" s="26">
-        <f t="shared" ref="V22:AL22" si="25">V11/V4</f>
+        <f t="shared" ref="V22:AL22" si="26">V11/V4</f>
         <v>6.9118835893290223E-2</v>
       </c>
       <c r="W22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.3407930072139438E-2</v>
       </c>
       <c r="X22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.2670115399920419E-2</v>
       </c>
       <c r="Y22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.3369565217391311E-2</v>
       </c>
       <c r="Z22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.1799243828304549E-2</v>
       </c>
       <c r="AA22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.7466863033873345E-2</v>
       </c>
       <c r="AB22" s="23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.6988217967599415E-2</v>
       </c>
       <c r="AC22" s="26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.1348621922996023E-2</v>
       </c>
       <c r="AD22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.2942511587577816E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.2183516509205537E-2</v>
       </c>
       <c r="AE22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.4391502191743115E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.3348485699265257E-2</v>
       </c>
       <c r="AF22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.5708766377348075E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.4432177969088404E-2</v>
       </c>
       <c r="AG22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.6906279273352288E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.5440263801482078E-2</v>
       </c>
       <c r="AH22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.7994927360629083E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.6378018064173778E-2</v>
       </c>
       <c r="AI22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.8984607439971608E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.7250347610863782E-2</v>
       </c>
       <c r="AJ22" s="26">
-        <f t="shared" si="25"/>
-        <v>8.9884316603010245E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.8061816956621894E-2</v>
       </c>
       <c r="AK22" s="26">
-        <f t="shared" si="25"/>
-        <v>9.0702234023954428E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.8816672161978277E-2</v>
       </c>
       <c r="AL22" s="26">
-        <f t="shared" si="25"/>
-        <v>9.1445795315721931E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.9518863050681949E-2</v>
       </c>
       <c r="AN22" s="31" t="s">
         <v>101</v>
       </c>
       <c r="AO22" s="33">
         <f>NPV(AO20,AB17:DN17)</f>
-        <v>33062.986107704011</v>
+        <v>26719.169943283894</v>
       </c>
     </row>
     <row r="23" spans="3:118" x14ac:dyDescent="0.25">
@@ -3886,44 +3886,44 @@
         <v>7.1465390279823265E-2</v>
       </c>
       <c r="AC23" s="26">
-        <f t="shared" ref="AC23:AL23" si="26">AC13/AC4</f>
+        <f t="shared" ref="AC23:AL23" si="27">AC13/AC4</f>
         <v>7.5825794235219887E-2</v>
       </c>
       <c r="AD23" s="26">
-        <f t="shared" si="26"/>
-        <v>7.7419683899801681E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.639769702677339E-2</v>
       </c>
       <c r="AE23" s="26">
-        <f t="shared" si="26"/>
-        <v>7.8868674503966979E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.7428112275381211E-2</v>
       </c>
       <c r="AF23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.0185938689571926E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.8374121442323322E-2</v>
       </c>
       <c r="AG23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.1383451585576153E-2</v>
+        <f t="shared" si="27"/>
+        <v>7.9241322239210835E-2</v>
       </c>
       <c r="AH23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.2472099672852947E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.0034915070221799E-2</v>
       </c>
       <c r="AI23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.3461779752195486E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.0759730593796639E-2</v>
       </c>
       <c r="AJ23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.4361488915234095E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.1420255357762497E-2</v>
       </c>
       <c r="AK23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.5179406336178307E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.2020655642215168E-2</v>
       </c>
       <c r="AL23" s="26">
-        <f t="shared" si="26"/>
-        <v>8.5922967627945795E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.2564799635110403E-2</v>
       </c>
       <c r="AN23" s="2" t="s">
         <v>2</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="AO24" s="36">
         <f>AO22/AO23</f>
-        <v>291.9424091476352</v>
+        <v>235.92723350084211</v>
       </c>
     </row>
     <row r="25" spans="3:118" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="AO25" s="21">
         <f>(AO24-B4)/B4</f>
-        <v>0.801001907141488</v>
+        <v>0.45544252622357873</v>
       </c>
     </row>
     <row r="26" spans="3:118" x14ac:dyDescent="0.25">
@@ -4319,47 +4319,47 @@
         <v>64</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:N34" si="27">SUM(D26:D33)</f>
+        <f t="shared" ref="D34:N34" si="28">SUM(D26:D33)</f>
         <v>25761</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26917</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>26971</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>27995</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>28411</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29253</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>28298</v>
       </c>
       <c r="K34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>28172</v>
       </c>
       <c r="L34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>29172</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>28516</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>28081</v>
       </c>
       <c r="O34" s="12">
@@ -4464,51 +4464,51 @@
         <v>67</v>
       </c>
       <c r="D37" s="16">
-        <f t="shared" ref="D37:O37" si="28">SUM(D35:D36)</f>
+        <f t="shared" ref="D37:O37" si="29">SUM(D35:D36)</f>
         <v>11420</v>
       </c>
       <c r="E37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11318</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11702</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12178</v>
       </c>
       <c r="H37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12602</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12552</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12537</v>
       </c>
       <c r="K37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12455</v>
       </c>
       <c r="L37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13026</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12679</v>
       </c>
       <c r="N37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12665</v>
       </c>
       <c r="O37" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>13151</v>
       </c>
       <c r="P37" s="24">
@@ -4961,51 +4961,51 @@
         <v>76</v>
       </c>
       <c r="D48" s="16">
-        <f t="shared" ref="D48:O48" si="29">SUM(D38:D47)</f>
+        <f t="shared" ref="D48:O48" si="30">SUM(D38:D47)</f>
         <v>14340</v>
       </c>
       <c r="E48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15598</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15268</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15816</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15808</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16959</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15761</v>
       </c>
       <c r="K48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15717</v>
       </c>
       <c r="L48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>16146</v>
       </c>
       <c r="M48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15836</v>
       </c>
       <c r="N48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15414</v>
       </c>
       <c r="O48" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>15153</v>
       </c>
       <c r="P48" s="24">
@@ -5018,51 +5018,51 @@
         <v>77</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" ref="D49:O49" si="30">D37+D48</f>
+        <f t="shared" ref="D49:O49" si="31">D37+D48</f>
         <v>25760</v>
       </c>
       <c r="E49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>26916</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>26970</v>
       </c>
       <c r="G49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>27994</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28410</v>
       </c>
       <c r="I49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29511</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28298</v>
       </c>
       <c r="K49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28172</v>
       </c>
       <c r="L49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>29172</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28515</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28079</v>
       </c>
       <c r="O49" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>28304</v>
       </c>
       <c r="P49" s="13">
@@ -5106,27 +5106,27 @@
         <v>78</v>
       </c>
       <c r="D52" s="2">
-        <f t="shared" ref="D52:O52" si="31">D15</f>
+        <f t="shared" ref="D52:O52" si="32">D15</f>
         <v>289</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>237</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>217</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>475</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>569</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>287</v>
       </c>
       <c r="J52" s="2">
@@ -5138,19 +5138,19 @@
         <v>447</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>472</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>474</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>204</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>488</v>
       </c>
       <c r="P52" s="4">
@@ -5158,23 +5158,23 @@
         <v>335</v>
       </c>
       <c r="V52" s="14">
-        <f t="shared" ref="V52:Z52" si="32">V15</f>
+        <f t="shared" ref="V52:Z52" si="33">V15</f>
         <v>1040</v>
       </c>
       <c r="W52" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1271</v>
       </c>
       <c r="X52" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1394</v>
       </c>
       <c r="Y52" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1219</v>
       </c>
       <c r="Z52" s="14">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1441</v>
       </c>
       <c r="AA52" s="14">
@@ -5503,51 +5503,51 @@
         <v>84</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" ref="D58:O58" si="33">SUM(D53:D57)</f>
+        <f t="shared" ref="D58:O58" si="34">SUM(D53:D57)</f>
         <v>264</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>290</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>87</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>401</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>504</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>278</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>958</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>108</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>421</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>162</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1303</v>
       </c>
       <c r="P58" s="25">
@@ -5555,23 +5555,23 @@
         <v>118</v>
       </c>
       <c r="V58" s="12">
-        <f t="shared" ref="V58:Z58" si="34">SUM(V53:V57)</f>
+        <f t="shared" ref="V58:Z58" si="35">SUM(V53:V57)</f>
         <v>1993</v>
       </c>
       <c r="W58" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2085</v>
       </c>
       <c r="X58" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1498</v>
       </c>
       <c r="Y58" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1042</v>
       </c>
       <c r="Z58" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1793</v>
       </c>
       <c r="AA58" s="12">
@@ -5740,7 +5740,7 @@
         <v>87</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" ref="D62:O62" si="35">SUM(D60:D61)</f>
+        <f t="shared" ref="D62:O62" si="36">SUM(D60:D61)</f>
         <v>-720</v>
       </c>
       <c r="E62" s="1">
@@ -5748,15 +5748,15 @@
         <v>-152</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-117</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-8</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-168</v>
       </c>
       <c r="I62" s="1">
@@ -5764,27 +5764,27 @@
         <v>-493</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-68</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-139</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-103</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-133</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-46</v>
       </c>
       <c r="O62" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-103</v>
       </c>
       <c r="P62" s="25">
@@ -5797,23 +5797,23 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="12">
-        <f t="shared" ref="V62:Z62" si="36">SUM(V60:V61)</f>
+        <f t="shared" ref="V62:Z62" si="37">SUM(V60:V61)</f>
         <v>-5502</v>
       </c>
       <c r="W62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-345</v>
       </c>
       <c r="X62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1213</v>
       </c>
       <c r="Y62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-873</v>
       </c>
       <c r="Z62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-757</v>
       </c>
       <c r="AA62" s="12">
@@ -6129,7 +6129,7 @@
         <v>91</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" ref="D68:O68" si="37">SUM(D64:D67)</f>
+        <f t="shared" ref="D68:O68" si="38">SUM(D64:D67)</f>
         <v>-711</v>
       </c>
       <c r="E68" s="1">
@@ -6137,15 +6137,15 @@
         <v>-124</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-230</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-195</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>201</v>
       </c>
       <c r="I68" s="1">
@@ -6153,27 +6153,27 @@
         <v>-112</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-478</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-553</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>418</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-1049</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-84</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-754</v>
       </c>
       <c r="P68" s="25">
@@ -6185,19 +6185,19 @@
         <v>4066</v>
       </c>
       <c r="W68" s="12">
-        <f t="shared" ref="W68:Z68" si="38">SUM(W64:W67)</f>
+        <f t="shared" ref="W68:Z68" si="39">SUM(W64:W67)</f>
         <v>-987</v>
       </c>
       <c r="X68" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-12</v>
       </c>
       <c r="Y68" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-1013</v>
       </c>
       <c r="Z68" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-942</v>
       </c>
       <c r="AA68" s="12">
@@ -6289,7 +6289,7 @@
         <v>93</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" ref="D72:O72" si="39">D58+D62+D68+D70</f>
+        <f t="shared" ref="D72:O72" si="40">D58+D62+D68+D70</f>
         <v>-1209</v>
       </c>
       <c r="E72" s="2">
@@ -6297,43 +6297,43 @@
         <v>0</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-325</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>226</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>74</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="40"/>
         <v>11</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-226</v>
       </c>
       <c r="K72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>315</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>396</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-735</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>36</v>
       </c>
       <c r="O72" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>406</v>
       </c>
       <c r="P72" s="4">
@@ -6341,23 +6341,23 @@
         <v>-384</v>
       </c>
       <c r="V72" s="14">
-        <f t="shared" ref="V72:Z72" si="40">V58+V62+V68+V70</f>
+        <f t="shared" ref="V72:Z72" si="41">V58+V62+V68+V70</f>
         <v>546</v>
       </c>
       <c r="W72" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>933</v>
       </c>
       <c r="X72" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>181</v>
       </c>
       <c r="Y72" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1024</v>
       </c>
       <c r="Z72" s="14">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>78</v>
       </c>
       <c r="AA72" s="14">
@@ -6378,51 +6378,51 @@
         <v>94</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:O74" si="41">D58+D60</f>
+        <f t="shared" ref="D74:O74" si="42">D58+D60</f>
         <v>-456</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>262</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-30</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>393</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-114</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>123</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>210</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>819</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-5</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>288</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>116</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1200</v>
       </c>
       <c r="P74" s="4">
@@ -6430,23 +6430,23 @@
         <v>90</v>
       </c>
       <c r="V74" s="14">
-        <f t="shared" ref="V74:Z74" si="42">V58+V60</f>
+        <f t="shared" ref="V74:Z74" si="43">V58+V60</f>
         <v>-3509</v>
       </c>
       <c r="W74" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1740</v>
       </c>
       <c r="X74" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>285</v>
       </c>
       <c r="Y74" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>169</v>
       </c>
       <c r="Z74" s="14">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1036</v>
       </c>
       <c r="AA74" s="14">
@@ -9341,7 +9341,7 @@
   <dimension ref="C4:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="F5" s="30">
         <f>Modell!$B$9/Modell!AD11</f>
-        <v>8.7932645946216041</v>
+        <v>9.2970676181226732</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="F6" s="30">
         <f>Modell!$B$9/Modell!AD13</f>
-        <v>9.4205428618897855</v>
+        <v>10.001161550896226</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="F7" s="30">
         <f>Modell!$B$4/Modell!AD19</f>
-        <v>10.174928838045213</v>
+        <v>10.835388471964762</v>
       </c>
     </row>
   </sheetData>

--- a/Afry modell.xlsx
+++ b/Afry modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD18F8F-EA69-CE4A-B0D1-5D3C0334BF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4AC020-7E50-A24D-A649-310F78D7CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="740" windowWidth="28940" windowHeight="16840" activeTab="4" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
@@ -481,7 +481,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,12 +556,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -10314,10 +10308,10 @@
   <dimension ref="A3:CZ49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R40" sqref="R40"/>
+      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>

--- a/Afry modell.xlsx
+++ b/Afry modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4AC020-7E50-A24D-A649-310F78D7CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826850DD-A5DD-6C43-82FA-F07409680A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="740" windowWidth="28940" windowHeight="16840" activeTab="4" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26600" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="142">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -470,6 +470,21 @@
   <si>
     <t>Nullvekst og litt ned på marginer</t>
   </si>
+  <si>
+    <t xml:space="preserve">03.07.25: </t>
+  </si>
+  <si>
+    <t>24.09.25: Afry og TEN join forces to drive energy innvoation in italy</t>
+  </si>
+  <si>
+    <t>24.09.25: Afry awarded assignment to enhance rail capacity i southern Sweden</t>
+  </si>
+  <si>
+    <t>15.09.25: Afry and BAE systems Hägglunds enter strategic parternship in defence</t>
+  </si>
+  <si>
+    <t>Organic growth</t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -664,11 +679,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -730,6 +756,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,23 +867,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>272344</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Bilde 3">
+        <xdr:cNvPr id="6" name="Bilde 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BA583C-13E4-7BF3-056C-8563769934E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E85F11-C2E0-7044-E231-C6DA493C3DF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,8 +899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16395700" y="0"/>
-          <a:ext cx="5473700" cy="3657600"/>
+          <a:off x="9728199" y="5702300"/>
+          <a:ext cx="12007145" cy="4838700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,22 +912,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>21603</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>689882</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Bilde 4">
+        <xdr:cNvPr id="7" name="Bilde 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AFF6A5-AB0E-F5E1-FF7F-6C4F9DAB77A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A3C471-5F54-C670-3DEC-DCA058960C4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,8 +943,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8661400" y="0"/>
-          <a:ext cx="7772400" cy="6054103"/>
+          <a:off x="8445499" y="0"/>
+          <a:ext cx="12881883" cy="5473700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6FABC2-1253-924E-8CB2-F0C03750A097}">
-  <dimension ref="A5:A28"/>
+  <dimension ref="A5:A35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1269,26 +1297,49 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1300,13 +1351,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
-  <dimension ref="A1:DQ76"/>
+  <dimension ref="A1:DR77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1325,17 +1376,17 @@
     <col min="13" max="13" width="11.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="30" width="10.83203125" style="2"/>
-    <col min="31" max="31" width="10.83203125" style="4"/>
-    <col min="32" max="42" width="10.83203125" style="2"/>
-    <col min="43" max="43" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.83203125" style="2"/>
+    <col min="16" max="17" width="10.83203125" style="2"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="31" width="10.83203125" style="2"/>
+    <col min="32" max="32" width="10.83203125" style="4"/>
+    <col min="33" max="43" width="10.83203125" style="2"/>
+    <col min="44" max="44" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -1348,9 +1399,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,85 +1447,86 @@
       <c r="P3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="T3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AF3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>149.80000000000001</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
@@ -1518,87 +1570,90 @@
       <c r="P4" s="12">
         <v>6749</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>6674</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="13">
+        <v>5687</v>
+      </c>
       <c r="S4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="12"/>
+      <c r="V4" s="12">
         <v>9851</v>
       </c>
-      <c r="V4" s="12">
+      <c r="W4" s="12">
         <v>11070</v>
       </c>
-      <c r="W4" s="12">
+      <c r="X4" s="12">
         <v>12658</v>
       </c>
-      <c r="X4" s="12">
+      <c r="Y4" s="12">
         <v>13975</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="Z4" s="12">
         <v>19792</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="AA4" s="12">
         <v>18991</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AB4" s="12">
         <v>20104</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AC4" s="12">
         <v>23552</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AD4" s="12">
         <v>26978</v>
       </c>
-      <c r="AD4" s="12">
+      <c r="AE4" s="12">
         <v>27160</v>
       </c>
-      <c r="AE4" s="13">
-        <f>AD4*0.99</f>
+      <c r="AF4" s="13">
+        <f>AE4*0.99</f>
         <v>26888.400000000001</v>
-      </c>
-      <c r="AF4" s="12">
-        <f>AE4*1.05</f>
-        <v>28232.820000000003</v>
       </c>
       <c r="AG4" s="12">
         <f>AF4*1.05</f>
+        <v>28232.820000000003</v>
+      </c>
+      <c r="AH4" s="12">
+        <f>AG4*1.05</f>
         <v>29644.461000000003</v>
       </c>
-      <c r="AH4" s="12">
-        <f>AG4*1.075</f>
+      <c r="AI4" s="12">
+        <f>AH4*1.075</f>
         <v>31867.795575</v>
       </c>
-      <c r="AI4" s="12">
-        <f t="shared" ref="AI4:AO4" si="0">AH4*1.075</f>
+      <c r="AJ4" s="12">
+        <f t="shared" ref="AJ4:AP4" si="0">AI4*1.075</f>
         <v>34257.880243125001</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AK4" s="12">
         <f t="shared" si="0"/>
         <v>36827.221261359373</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AL4" s="12">
         <f t="shared" si="0"/>
         <v>39589.262855961322</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AM4" s="12">
         <f t="shared" si="0"/>
         <v>42558.457570158418</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AN4" s="12">
         <f t="shared" si="0"/>
         <v>45750.341887920295</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AO4" s="12">
         <f t="shared" si="0"/>
         <v>49181.617529514311</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AP4" s="12">
         <f t="shared" si="0"/>
         <v>52870.238844227883</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1647,92 +1702,95 @@
       <c r="P5" s="14">
         <v>-4195</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>-4178</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="15">
+        <v>-3472</v>
+      </c>
       <c r="S5" s="14"/>
-      <c r="U5" s="14">
+      <c r="T5" s="14"/>
+      <c r="V5" s="14">
         <v>-5467</v>
       </c>
-      <c r="V5" s="14">
+      <c r="W5" s="14">
         <v>-6139</v>
       </c>
-      <c r="W5" s="14">
+      <c r="X5" s="14">
         <v>-7269</v>
       </c>
-      <c r="X5" s="14">
+      <c r="Y5" s="14">
         <v>-7996</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Z5" s="14">
         <v>-11782</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="AA5" s="14">
         <v>-11860</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AB5" s="14">
         <v>-12266</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AC5" s="14">
         <v>-14428</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AD5" s="14">
         <v>-5585</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AE5" s="14">
         <v>-5701</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AF5" s="15">
         <v>-5701</v>
-      </c>
-      <c r="AF5" s="14">
-        <f>AE5*1.05</f>
-        <v>-5986.05</v>
       </c>
       <c r="AG5" s="14">
         <f>AF5*1.05</f>
+        <v>-5986.05</v>
+      </c>
+      <c r="AH5" s="14">
+        <f>AG5*1.05</f>
         <v>-6285.3525000000009</v>
       </c>
-      <c r="AH5" s="14">
-        <f>AG5*1.075</f>
+      <c r="AI5" s="14">
+        <f>AH5*1.075</f>
         <v>-6756.7539375000006</v>
       </c>
-      <c r="AI5" s="14">
-        <f t="shared" ref="AI5:AO5" si="1">AH5*1.075</f>
+      <c r="AJ5" s="14">
+        <f t="shared" ref="AJ5:AP5" si="1">AI5*1.075</f>
         <v>-7263.5104828125004</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AK5" s="14">
         <f t="shared" si="1"/>
         <v>-7808.273769023438</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AL5" s="14">
         <f t="shared" si="1"/>
         <v>-8393.8943017001948</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AM5" s="14">
         <f t="shared" si="1"/>
         <v>-9023.4363743277081</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AN5" s="14">
         <f t="shared" si="1"/>
         <v>-9700.1941024022854</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AO5" s="14">
         <f t="shared" si="1"/>
         <v>-10427.708660082457</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AP5" s="14">
         <f t="shared" si="1"/>
         <v>-11209.786809588641</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>16965.110801800001</v>
+        <v>19252.795969999999</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -1776,92 +1834,95 @@
       <c r="P6" s="14">
         <v>-1317</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>-1347</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="15">
+        <v>-1171</v>
+      </c>
       <c r="S6" s="14"/>
-      <c r="U6" s="14">
+      <c r="T6" s="14"/>
+      <c r="V6" s="14">
         <v>-2672</v>
       </c>
-      <c r="V6" s="14">
+      <c r="W6" s="14">
         <v>-2944</v>
       </c>
-      <c r="W6" s="14">
+      <c r="X6" s="14">
         <v>-3192</v>
       </c>
-      <c r="X6" s="14">
+      <c r="Y6" s="14">
         <v>-3547</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Z6" s="14">
         <v>-4408</v>
       </c>
-      <c r="Z6" s="14">
+      <c r="AA6" s="14">
         <v>-3811</v>
       </c>
-      <c r="AA6" s="14">
+      <c r="AB6" s="14">
         <v>-3918</v>
       </c>
-      <c r="AB6" s="14">
+      <c r="AC6" s="14">
         <v>-4897</v>
       </c>
-      <c r="AC6" s="14">
+      <c r="AD6" s="14">
         <v>-2366</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <v>-2337</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AF6" s="15">
         <v>-2337</v>
       </c>
-      <c r="AF6" s="14">
-        <f t="shared" ref="AF6:AG8" si="2">AE6*1.05</f>
+      <c r="AG6" s="14">
+        <f t="shared" ref="AG6:AH8" si="2">AF6*1.05</f>
         <v>-2453.85</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AH6" s="14">
         <f t="shared" si="2"/>
         <v>-2576.5425</v>
       </c>
-      <c r="AH6" s="14">
-        <f t="shared" ref="AH6:AO8" si="3">AG6*1.075</f>
+      <c r="AI6" s="14">
+        <f t="shared" ref="AI6:AP8" si="3">AH6*1.075</f>
         <v>-2769.7831874999997</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AJ6" s="14">
         <f t="shared" si="3"/>
         <v>-2977.5169265624995</v>
       </c>
-      <c r="AJ6" s="14">
+      <c r="AK6" s="14">
         <f t="shared" si="3"/>
         <v>-3200.830696054687</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AL6" s="14">
         <f t="shared" si="3"/>
         <v>-3440.8929982587883</v>
       </c>
-      <c r="AL6" s="14">
+      <c r="AM6" s="14">
         <f t="shared" si="3"/>
         <v>-3698.9599731281974</v>
       </c>
-      <c r="AM6" s="14">
+      <c r="AN6" s="14">
         <f t="shared" si="3"/>
         <v>-3976.3819711128122</v>
       </c>
-      <c r="AN6" s="14">
+      <c r="AO6" s="14">
         <f t="shared" si="3"/>
         <v>-4274.6106189462726</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AP6" s="14">
         <f t="shared" si="3"/>
         <v>-4595.2064153672427</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="5">
-        <f>Q35</f>
-        <v>761</v>
+        <f>R36</f>
+        <v>756</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -1905,95 +1966,98 @@
       <c r="P7" s="14">
         <v>-607</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>-639</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="15">
+        <v>-551</v>
+      </c>
       <c r="S7" s="14"/>
-      <c r="U7" s="14">
+      <c r="T7" s="14"/>
+      <c r="V7" s="14">
         <f>-826-2</f>
         <v>-828</v>
       </c>
-      <c r="V7" s="14">
+      <c r="W7" s="14">
         <f>-917</f>
         <v>-917</v>
       </c>
-      <c r="W7" s="14">
+      <c r="X7" s="14">
         <v>-1066</v>
       </c>
-      <c r="X7" s="14">
+      <c r="Y7" s="14">
         <f>-1073</f>
         <v>-1073</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <v>-1608</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="AA7" s="14">
         <v>-1245</v>
       </c>
-      <c r="AA7" s="14">
+      <c r="AB7" s="14">
         <v>-1622</v>
       </c>
-      <c r="AB7" s="14">
+      <c r="AC7" s="14">
         <v>-1903</v>
       </c>
-      <c r="AC7" s="14">
+      <c r="AD7" s="14">
         <v>-16310</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AE7" s="14">
         <v>-16315</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AF7" s="15">
         <v>-16315</v>
       </c>
-      <c r="AF7" s="14">
-        <f>AE7*1.06</f>
+      <c r="AG7" s="14">
+        <f>AF7*1.06</f>
         <v>-17293.900000000001</v>
       </c>
-      <c r="AG7" s="14">
-        <f t="shared" ref="AG7:AG8" si="4">AF7*1.05</f>
+      <c r="AH7" s="14">
+        <f t="shared" ref="AH7:AH8" si="4">AG7*1.05</f>
         <v>-18158.595000000001</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AI7" s="14">
         <f t="shared" si="3"/>
         <v>-19520.489625000002</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AJ7" s="14">
         <f t="shared" si="3"/>
         <v>-20984.526346875002</v>
       </c>
-      <c r="AJ7" s="14">
+      <c r="AK7" s="14">
         <f t="shared" si="3"/>
         <v>-22558.365822890624</v>
       </c>
-      <c r="AK7" s="14">
+      <c r="AL7" s="14">
         <f t="shared" si="3"/>
         <v>-24250.243259607421</v>
       </c>
-      <c r="AL7" s="14">
+      <c r="AM7" s="14">
         <f t="shared" si="3"/>
         <v>-26069.011504077978</v>
       </c>
-      <c r="AM7" s="14">
+      <c r="AN7" s="14">
         <f t="shared" si="3"/>
         <v>-28024.187366883827</v>
       </c>
-      <c r="AN7" s="14">
+      <c r="AO7" s="14">
         <f t="shared" si="3"/>
         <v>-30126.001419400112</v>
       </c>
-      <c r="AO7" s="14">
+      <c r="AP7" s="14">
         <f t="shared" si="3"/>
         <v>-32385.451525855118</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="5">
-        <f>Q40</f>
-        <v>5223</v>
+        <f>R41</f>
+        <v>5202</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>44</v>
@@ -2037,97 +2101,100 @@
       <c r="P8" s="14">
         <v>1</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>2</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
       <c r="S8" s="14"/>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
+      <c r="T8" s="14"/>
       <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
         <v>10</v>
       </c>
-      <c r="W8" s="14">
+      <c r="X8" s="14">
         <v>1</v>
       </c>
-      <c r="X8" s="14">
+      <c r="Y8" s="14">
         <v>-1</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Z8" s="14">
         <v>31</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="AA8" s="14">
         <f>198-24+5</f>
         <v>179</v>
       </c>
-      <c r="AA8" s="14">
+      <c r="AB8" s="14">
         <f>58-1+5</f>
         <v>62</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AC8" s="14">
         <f>98+8</f>
         <v>106</v>
       </c>
-      <c r="AC8" s="14">
-        <v>0</v>
-      </c>
       <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
         <f>42-8</f>
         <v>34</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AF8" s="15">
         <f>42-8</f>
         <v>34</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AG8" s="14">
         <f t="shared" si="2"/>
         <v>35.700000000000003</v>
       </c>
-      <c r="AG8" s="14">
+      <c r="AH8" s="14">
         <f t="shared" si="4"/>
         <v>37.485000000000007</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AI8" s="14">
         <f t="shared" si="3"/>
         <v>40.296375000000005</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AJ8" s="14">
         <f t="shared" si="3"/>
         <v>43.318603125000003</v>
       </c>
-      <c r="AJ8" s="14">
+      <c r="AK8" s="14">
         <f t="shared" si="3"/>
         <v>46.567498359375001</v>
       </c>
-      <c r="AK8" s="14">
+      <c r="AL8" s="14">
         <f t="shared" si="3"/>
         <v>50.060060736328126</v>
       </c>
-      <c r="AL8" s="14">
+      <c r="AM8" s="14">
         <f t="shared" si="3"/>
         <v>53.814565291552732</v>
       </c>
-      <c r="AM8" s="14">
+      <c r="AN8" s="14">
         <f t="shared" si="3"/>
         <v>57.850657688419183</v>
       </c>
-      <c r="AN8" s="14">
+      <c r="AO8" s="14">
         <f t="shared" si="3"/>
         <v>62.189457015050621</v>
       </c>
-      <c r="AO8" s="14">
+      <c r="AP8" s="14">
         <f t="shared" si="3"/>
         <v>66.853666291179408</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>21427.110801800001</v>
+        <v>23698.795969999999</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>45</v>
@@ -2184,99 +2251,103 @@
         <f>SUM(P4:P8)</f>
         <v>631</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <f>SUM(Q4:Q8)</f>
         <v>512</v>
       </c>
-      <c r="R9" s="12"/>
+      <c r="R9" s="13">
+        <f>SUM(R4:R8)</f>
+        <v>494</v>
+      </c>
       <c r="S9" s="12"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="12">
-        <f t="shared" ref="U9:V9" si="7">SUM(U4:U8)</f>
+      <c r="T9" s="12"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="12">
+        <f t="shared" ref="V9:W9" si="7">SUM(V4:V8)</f>
         <v>884</v>
       </c>
-      <c r="V9" s="12">
+      <c r="W9" s="12">
         <f t="shared" si="7"/>
         <v>1080</v>
       </c>
-      <c r="W9" s="12">
-        <f t="shared" ref="W9:X9" si="8">SUM(W4:W8)</f>
+      <c r="X9" s="12">
+        <f t="shared" ref="X9:Y9" si="8">SUM(X4:X8)</f>
         <v>1132</v>
       </c>
-      <c r="X9" s="12">
+      <c r="Y9" s="12">
         <f t="shared" si="8"/>
         <v>1358</v>
       </c>
-      <c r="Y9" s="12">
-        <f t="shared" ref="Y9:AD9" si="9">SUM(Y4:Y8)</f>
+      <c r="Z9" s="12">
+        <f t="shared" ref="Z9:AE9" si="9">SUM(Z4:Z8)</f>
         <v>2025</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="AA9" s="12">
         <f t="shared" si="9"/>
         <v>2254</v>
       </c>
-      <c r="AA9" s="12">
+      <c r="AB9" s="12">
         <f t="shared" si="9"/>
         <v>2360</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AC9" s="12">
         <f t="shared" si="9"/>
         <v>2430</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AD9" s="12">
         <f t="shared" si="9"/>
         <v>2717</v>
       </c>
-      <c r="AD9" s="12">
+      <c r="AE9" s="12">
         <f t="shared" si="9"/>
         <v>2841</v>
       </c>
-      <c r="AE9" s="13">
-        <f t="shared" ref="AE9:AO9" si="10">SUM(AE4:AE8)</f>
+      <c r="AF9" s="13">
+        <f t="shared" ref="AF9:AP9" si="10">SUM(AF4:AF8)</f>
         <v>2569.4000000000015</v>
       </c>
-      <c r="AF9" s="12">
+      <c r="AG9" s="12">
         <f t="shared" si="10"/>
         <v>2534.7200000000039</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AH9" s="12">
         <f t="shared" si="10"/>
         <v>2661.4560000000015</v>
       </c>
-      <c r="AH9" s="12">
+      <c r="AI9" s="12">
         <f t="shared" si="10"/>
         <v>2861.0651999999955</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AJ9" s="12">
         <f t="shared" si="10"/>
         <v>3075.6450899999977</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AK9" s="12">
         <f t="shared" si="10"/>
         <v>3306.3184717499976</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AL9" s="12">
         <f t="shared" si="10"/>
         <v>3554.2923571312472</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AM9" s="12">
         <f t="shared" si="10"/>
         <v>3820.8642839160902</v>
       </c>
-      <c r="AM9" s="12">
+      <c r="AN9" s="12">
         <f t="shared" si="10"/>
         <v>4107.4291052097924</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AO9" s="12">
         <f t="shared" si="10"/>
         <v>4415.4862881005211</v>
       </c>
-      <c r="AO9" s="12">
+      <c r="AP9" s="12">
         <f t="shared" si="10"/>
         <v>4746.6477597080593</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
@@ -2319,46 +2390,46 @@
       <c r="P10" s="14">
         <v>-172</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>-166</v>
       </c>
-      <c r="R10" s="14"/>
+      <c r="R10" s="15">
+        <v>-163</v>
+      </c>
       <c r="S10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T10" s="14"/>
+      <c r="V10" s="14">
         <v>-45</v>
       </c>
-      <c r="V10" s="14">
+      <c r="W10" s="14">
         <v>-48</v>
       </c>
-      <c r="W10" s="14">
+      <c r="X10" s="14">
         <v>-105</v>
       </c>
-      <c r="X10" s="14">
+      <c r="Y10" s="14">
         <v>-115</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <v>-657</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="AA10" s="14">
         <v>-670</v>
       </c>
-      <c r="AA10" s="14">
+      <c r="AB10" s="14">
         <v>-698</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AC10" s="14">
         <v>-702</v>
       </c>
-      <c r="AC10" s="14">
+      <c r="AD10" s="14">
         <v>-780</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AE10" s="14">
         <v>-737</v>
       </c>
-      <c r="AE10" s="15">
+      <c r="AF10" s="15">
         <v>-750</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>-500</v>
       </c>
       <c r="AG10" s="14">
         <v>-500</v>
@@ -2387,8 +2458,11 @@
       <c r="AO10" s="14">
         <v>-500</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AP10" s="14">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2444,98 +2518,102 @@
         <f>SUM(P9:P10)</f>
         <v>459</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <f>SUM(Q9:Q10)</f>
         <v>346</v>
       </c>
-      <c r="R11" s="14"/>
+      <c r="R11" s="13">
+        <f>SUM(R9:R10)</f>
+        <v>331</v>
+      </c>
       <c r="S11" s="14"/>
-      <c r="U11" s="12">
-        <f t="shared" ref="U11:V11" si="13">SUM(U9:U10)</f>
+      <c r="T11" s="14"/>
+      <c r="V11" s="12">
+        <f t="shared" ref="V11:W11" si="13">SUM(V9:V10)</f>
         <v>839</v>
       </c>
-      <c r="V11" s="12">
+      <c r="W11" s="12">
         <f t="shared" si="13"/>
         <v>1032</v>
       </c>
-      <c r="W11" s="12">
-        <f t="shared" ref="W11:X11" si="14">SUM(W9:W10)</f>
+      <c r="X11" s="12">
+        <f t="shared" ref="X11:Y11" si="14">SUM(X9:X10)</f>
         <v>1027</v>
       </c>
-      <c r="X11" s="12">
+      <c r="Y11" s="12">
         <f t="shared" si="14"/>
         <v>1243</v>
       </c>
-      <c r="Y11" s="12">
-        <f t="shared" ref="Y11:AD11" si="15">SUM(Y9:Y10)</f>
+      <c r="Z11" s="12">
+        <f t="shared" ref="Z11:AE11" si="15">SUM(Z9:Z10)</f>
         <v>1368</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="AA11" s="12">
         <f t="shared" si="15"/>
         <v>1584</v>
       </c>
-      <c r="AA11" s="12">
+      <c r="AB11" s="12">
         <f t="shared" si="15"/>
         <v>1662</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AC11" s="12">
         <f t="shared" si="15"/>
         <v>1728</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AD11" s="12">
         <f t="shared" si="15"/>
         <v>1937</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AE11" s="12">
         <f t="shared" si="15"/>
         <v>2104</v>
       </c>
-      <c r="AE11" s="13">
-        <f t="shared" ref="AE11:AO11" si="16">SUM(AE9:AE10)</f>
+      <c r="AF11" s="13">
+        <f t="shared" ref="AF11:AP11" si="16">SUM(AF9:AF10)</f>
         <v>1819.4000000000015</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AG11" s="12">
         <f t="shared" si="16"/>
         <v>2034.7200000000039</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AH11" s="12">
         <f t="shared" si="16"/>
         <v>2161.4560000000015</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AI11" s="12">
         <f t="shared" si="16"/>
         <v>2361.0651999999955</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AJ11" s="12">
         <f t="shared" si="16"/>
         <v>2575.6450899999977</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AK11" s="12">
         <f t="shared" si="16"/>
         <v>2806.3184717499976</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AL11" s="12">
         <f t="shared" si="16"/>
         <v>3054.2923571312472</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AM11" s="12">
         <f t="shared" si="16"/>
         <v>3320.8642839160902</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AN11" s="12">
         <f t="shared" si="16"/>
         <v>3607.4291052097924</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AO11" s="12">
         <f t="shared" si="16"/>
         <v>3915.4862881005211</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AP11" s="12">
         <f t="shared" si="16"/>
         <v>4246.6477597080593</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2578,86 +2656,89 @@
       <c r="P12" s="14">
         <v>-43</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="14">
         <v>-39</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="15">
+        <v>-43</v>
+      </c>
       <c r="S12" s="14"/>
-      <c r="U12" s="14">
-        <v>0</v>
-      </c>
+      <c r="T12" s="14"/>
       <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
         <v>-67</v>
       </c>
-      <c r="W12" s="14">
+      <c r="X12" s="14">
         <v>6</v>
       </c>
-      <c r="X12" s="14">
+      <c r="Y12" s="14">
         <v>-40</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Z12" s="14">
         <v>-91</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="AA12" s="14">
         <v>-128</v>
       </c>
-      <c r="AA12" s="14">
+      <c r="AB12" s="14">
         <v>-139</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AC12" s="14">
         <v>-285</v>
       </c>
-      <c r="AC12" s="14">
+      <c r="AD12" s="14">
         <v>-159</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AE12" s="14">
         <v>-164</v>
       </c>
-      <c r="AE12" s="15">
+      <c r="AF12" s="15">
         <v>-150</v>
       </c>
-      <c r="AF12" s="14">
-        <f>AE12*1.05</f>
+      <c r="AG12" s="14">
+        <f>AF12*1.05</f>
         <v>-157.5</v>
       </c>
-      <c r="AG12" s="14">
-        <f>AF12*1.1</f>
+      <c r="AH12" s="14">
+        <f>AG12*1.1</f>
         <v>-173.25</v>
       </c>
-      <c r="AH12" s="14">
-        <f t="shared" ref="AH12:AO12" si="17">AG12*1.1</f>
+      <c r="AI12" s="14">
+        <f t="shared" ref="AI12:AP12" si="17">AH12*1.1</f>
         <v>-190.57500000000002</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AJ12" s="14">
         <f t="shared" si="17"/>
         <v>-209.63250000000002</v>
       </c>
-      <c r="AJ12" s="14">
+      <c r="AK12" s="14">
         <f t="shared" si="17"/>
         <v>-230.59575000000004</v>
       </c>
-      <c r="AK12" s="14">
+      <c r="AL12" s="14">
         <f t="shared" si="17"/>
         <v>-253.65532500000006</v>
       </c>
-      <c r="AL12" s="14">
+      <c r="AM12" s="14">
         <f t="shared" si="17"/>
         <v>-279.02085750000009</v>
       </c>
-      <c r="AM12" s="14">
+      <c r="AN12" s="14">
         <f t="shared" si="17"/>
         <v>-306.92294325000012</v>
       </c>
-      <c r="AN12" s="14">
+      <c r="AO12" s="14">
         <f t="shared" si="17"/>
         <v>-337.61523757500015</v>
       </c>
-      <c r="AO12" s="14">
+      <c r="AP12" s="14">
         <f t="shared" si="17"/>
         <v>-371.37676133250022</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2713,99 +2794,103 @@
         <f>SUM(P11:P12)</f>
         <v>416</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <f>SUM(Q11:Q12)</f>
         <v>307</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="13">
+        <f>SUM(R11:R12)</f>
+        <v>288</v>
+      </c>
       <c r="S13" s="12"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="12">
-        <f t="shared" ref="U13:V13" si="20">SUM(U11:U12)</f>
+      <c r="T13" s="12"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="12">
+        <f t="shared" ref="V13:W13" si="20">SUM(V11:V12)</f>
         <v>839</v>
       </c>
-      <c r="V13" s="12">
+      <c r="W13" s="12">
         <f t="shared" si="20"/>
         <v>965</v>
       </c>
-      <c r="W13" s="12">
-        <f t="shared" ref="W13:X13" si="21">SUM(W11:W12)</f>
+      <c r="X13" s="12">
+        <f t="shared" ref="X13:Y13" si="21">SUM(X11:X12)</f>
         <v>1033</v>
       </c>
-      <c r="X13" s="12">
+      <c r="Y13" s="12">
         <f t="shared" si="21"/>
         <v>1203</v>
       </c>
-      <c r="Y13" s="12">
-        <f t="shared" ref="Y13:AD13" si="22">SUM(Y11:Y12)</f>
+      <c r="Z13" s="12">
+        <f t="shared" ref="Z13:AE13" si="22">SUM(Z11:Z12)</f>
         <v>1277</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="AA13" s="12">
         <f t="shared" si="22"/>
         <v>1456</v>
       </c>
-      <c r="AA13" s="12">
+      <c r="AB13" s="12">
         <f t="shared" si="22"/>
         <v>1523</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AC13" s="12">
         <f t="shared" si="22"/>
         <v>1443</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AD13" s="12">
         <f t="shared" si="22"/>
         <v>1778</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AE13" s="12">
         <f t="shared" si="22"/>
         <v>1940</v>
       </c>
-      <c r="AE13" s="13">
-        <f t="shared" ref="AE13:AO13" si="23">SUM(AE11:AE12)</f>
+      <c r="AF13" s="13">
+        <f t="shared" ref="AF13:AP13" si="23">SUM(AF11:AF12)</f>
         <v>1669.4000000000015</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AG13" s="12">
         <f t="shared" si="23"/>
         <v>1877.2200000000039</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AH13" s="12">
         <f t="shared" si="23"/>
         <v>1988.2060000000015</v>
       </c>
-      <c r="AH13" s="12">
+      <c r="AI13" s="12">
         <f t="shared" si="23"/>
         <v>2170.4901999999956</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AJ13" s="12">
         <f t="shared" si="23"/>
         <v>2366.0125899999975</v>
       </c>
-      <c r="AJ13" s="12">
+      <c r="AK13" s="12">
         <f t="shared" si="23"/>
         <v>2575.7227217499976</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AL13" s="12">
         <f t="shared" si="23"/>
         <v>2800.637032131247</v>
       </c>
-      <c r="AL13" s="12">
+      <c r="AM13" s="12">
         <f t="shared" si="23"/>
         <v>3041.8434264160901</v>
       </c>
-      <c r="AM13" s="12">
+      <c r="AN13" s="12">
         <f t="shared" si="23"/>
         <v>3300.5061619597923</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AO13" s="12">
         <f t="shared" si="23"/>
         <v>3577.8710505255208</v>
       </c>
-      <c r="AO13" s="12">
+      <c r="AP13" s="12">
         <f t="shared" si="23"/>
         <v>3875.270998375559</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
@@ -2848,86 +2933,88 @@
       <c r="P14" s="14">
         <v>-81</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="14">
         <v>-82</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="15">
+        <v>-86</v>
+      </c>
       <c r="S14" s="14"/>
-      <c r="U14" s="14">
+      <c r="V14" s="14">
         <v>-40</v>
       </c>
-      <c r="V14" s="14">
+      <c r="W14" s="14">
         <v>-42</v>
       </c>
-      <c r="W14" s="14">
+      <c r="X14" s="14">
         <v>-76</v>
       </c>
-      <c r="X14" s="14">
+      <c r="Y14" s="14">
         <v>-99</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Z14" s="14">
         <v>-237</v>
       </c>
-      <c r="Z14" s="14">
+      <c r="AA14" s="14">
         <v>-185</v>
       </c>
-      <c r="AA14" s="14">
+      <c r="AB14" s="14">
         <v>-129</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AC14" s="14">
         <v>-224</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AD14" s="14">
         <v>-337</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AE14" s="14">
         <v>-305</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AF14" s="15">
         <v>-100</v>
       </c>
-      <c r="AF14" s="14">
-        <f>AE14*1.05</f>
+      <c r="AG14" s="14">
+        <f>AF14*1.05</f>
         <v>-105</v>
       </c>
-      <c r="AG14" s="14">
-        <f>AF14*1.1</f>
+      <c r="AH14" s="14">
+        <f>AG14*1.1</f>
         <v>-115.50000000000001</v>
       </c>
-      <c r="AH14" s="14">
-        <f t="shared" ref="AH14:AO14" si="24">AG14*1.1</f>
+      <c r="AI14" s="14">
+        <f t="shared" ref="AI14:AP14" si="24">AH14*1.1</f>
         <v>-127.05000000000003</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AJ14" s="14">
         <f t="shared" si="24"/>
         <v>-139.75500000000005</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AK14" s="14">
         <f t="shared" si="24"/>
         <v>-153.73050000000006</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AL14" s="14">
         <f t="shared" si="24"/>
         <v>-169.10355000000007</v>
       </c>
-      <c r="AL14" s="14">
+      <c r="AM14" s="14">
         <f t="shared" si="24"/>
         <v>-186.01390500000008</v>
       </c>
-      <c r="AM14" s="14">
+      <c r="AN14" s="14">
         <f t="shared" si="24"/>
         <v>-204.61529550000012</v>
       </c>
-      <c r="AN14" s="14">
+      <c r="AO14" s="14">
         <f t="shared" si="24"/>
         <v>-225.07682505000014</v>
       </c>
-      <c r="AO14" s="14">
+      <c r="AP14" s="14">
         <f t="shared" si="24"/>
         <v>-247.58450755500019</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
@@ -2983,98 +3070,102 @@
         <f>SUM(P13:P14)</f>
         <v>335</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="14">
         <f>SUM(Q13:Q14)</f>
         <v>225</v>
       </c>
-      <c r="R15" s="14"/>
+      <c r="R15" s="15">
+        <f>SUM(R13:R14)</f>
+        <v>202</v>
+      </c>
       <c r="S15" s="14"/>
-      <c r="U15" s="14">
-        <f t="shared" ref="U15:V15" si="27">SUM(U13:U14)</f>
+      <c r="T15" s="14"/>
+      <c r="V15" s="14">
+        <f t="shared" ref="V15:W15" si="27">SUM(V13:V14)</f>
         <v>799</v>
       </c>
-      <c r="V15" s="14">
+      <c r="W15" s="14">
         <f t="shared" si="27"/>
         <v>923</v>
       </c>
-      <c r="W15" s="14">
-        <f t="shared" ref="W15:X15" si="28">SUM(W13:W14)</f>
+      <c r="X15" s="14">
+        <f t="shared" ref="X15:Y15" si="28">SUM(X13:X14)</f>
         <v>957</v>
       </c>
-      <c r="X15" s="14">
+      <c r="Y15" s="14">
         <f t="shared" si="28"/>
         <v>1104</v>
       </c>
-      <c r="Y15" s="14">
-        <f t="shared" ref="Y15:AD15" si="29">SUM(Y13:Y14)</f>
+      <c r="Z15" s="14">
+        <f t="shared" ref="Z15:AE15" si="29">SUM(Z13:Z14)</f>
         <v>1040</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="AA15" s="14">
         <f t="shared" si="29"/>
         <v>1271</v>
       </c>
-      <c r="AA15" s="14">
+      <c r="AB15" s="14">
         <f t="shared" si="29"/>
         <v>1394</v>
       </c>
-      <c r="AB15" s="14">
+      <c r="AC15" s="14">
         <f t="shared" si="29"/>
         <v>1219</v>
       </c>
-      <c r="AC15" s="14">
+      <c r="AD15" s="14">
         <f t="shared" si="29"/>
         <v>1441</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AE15" s="14">
         <f t="shared" si="29"/>
         <v>1635</v>
       </c>
-      <c r="AE15" s="15">
-        <f t="shared" ref="AE15:AO15" si="30">SUM(AE13:AE14)</f>
+      <c r="AF15" s="15">
+        <f t="shared" ref="AF15:AP15" si="30">SUM(AF13:AF14)</f>
         <v>1569.4000000000015</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AG15" s="14">
         <f t="shared" si="30"/>
         <v>1772.2200000000039</v>
       </c>
-      <c r="AG15" s="14">
+      <c r="AH15" s="14">
         <f t="shared" si="30"/>
         <v>1872.7060000000015</v>
       </c>
-      <c r="AH15" s="14">
+      <c r="AI15" s="14">
         <f t="shared" si="30"/>
         <v>2043.4401999999957</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AJ15" s="14">
         <f t="shared" si="30"/>
         <v>2226.2575899999974</v>
       </c>
-      <c r="AJ15" s="14">
+      <c r="AK15" s="14">
         <f t="shared" si="30"/>
         <v>2421.9922217499975</v>
       </c>
-      <c r="AK15" s="14">
+      <c r="AL15" s="14">
         <f t="shared" si="30"/>
         <v>2631.5334821312467</v>
       </c>
-      <c r="AL15" s="14">
+      <c r="AM15" s="14">
         <f t="shared" si="30"/>
         <v>2855.8295214160898</v>
       </c>
-      <c r="AM15" s="14">
+      <c r="AN15" s="14">
         <f t="shared" si="30"/>
         <v>3095.8908664597921</v>
       </c>
-      <c r="AN15" s="14">
+      <c r="AO15" s="14">
         <f t="shared" si="30"/>
         <v>3352.7942254755208</v>
       </c>
-      <c r="AO15" s="14">
+      <c r="AP15" s="14">
         <f t="shared" si="30"/>
         <v>3627.6864908205589</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
@@ -3117,88 +3208,91 @@
       <c r="P16" s="14">
         <v>-84</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="14">
         <v>-31</v>
       </c>
-      <c r="R16" s="14"/>
+      <c r="R16" s="15">
+        <v>-65</v>
+      </c>
       <c r="S16" s="14"/>
-      <c r="U16" s="14">
+      <c r="T16" s="14"/>
+      <c r="V16" s="14">
         <v>-190</v>
       </c>
-      <c r="V16" s="14">
+      <c r="W16" s="14">
         <v>-212</v>
       </c>
-      <c r="W16" s="14">
+      <c r="X16" s="14">
         <v>-215</v>
       </c>
-      <c r="X16" s="14">
+      <c r="Y16" s="14">
         <v>-253</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Z16" s="14">
         <v>-219</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="AA16" s="14">
         <v>-279</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AB16" s="14">
         <v>-264</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AC16" s="14">
         <v>-246</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AD16" s="14">
         <v>-341</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AE16" s="14">
         <v>-401</v>
       </c>
-      <c r="AE16" s="15">
-        <f>AE15*-0.2</f>
+      <c r="AF16" s="15">
+        <f>AF15*-0.2</f>
         <v>-313.88000000000034</v>
       </c>
-      <c r="AF16" s="14">
-        <f t="shared" ref="AF16:AO16" si="31">AF15*-0.2</f>
+      <c r="AG16" s="14">
+        <f t="shared" ref="AG16:AP16" si="31">AG15*-0.2</f>
         <v>-354.44400000000081</v>
       </c>
-      <c r="AG16" s="14">
+      <c r="AH16" s="14">
         <f t="shared" si="31"/>
         <v>-374.54120000000034</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AI16" s="14">
         <f t="shared" si="31"/>
         <v>-408.68803999999915</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AJ16" s="14">
         <f t="shared" si="31"/>
         <v>-445.25151799999952</v>
       </c>
-      <c r="AJ16" s="14">
+      <c r="AK16" s="14">
         <f t="shared" si="31"/>
         <v>-484.39844434999952</v>
       </c>
-      <c r="AK16" s="14">
+      <c r="AL16" s="14">
         <f t="shared" si="31"/>
         <v>-526.30669642624935</v>
       </c>
-      <c r="AL16" s="14">
+      <c r="AM16" s="14">
         <f t="shared" si="31"/>
         <v>-571.16590428321797</v>
       </c>
-      <c r="AM16" s="14">
+      <c r="AN16" s="14">
         <f t="shared" si="31"/>
         <v>-619.1781732919585</v>
       </c>
-      <c r="AN16" s="14">
+      <c r="AO16" s="14">
         <f t="shared" si="31"/>
         <v>-670.55884509510418</v>
       </c>
-      <c r="AO16" s="14">
+      <c r="AP16" s="14">
         <f t="shared" si="31"/>
         <v>-725.5372981641118</v>
       </c>
-      <c r="AP16" s="14"/>
-    </row>
-    <row r="17" spans="3:121" x14ac:dyDescent="0.25">
+      <c r="AQ16" s="14"/>
+    </row>
+    <row r="17" spans="3:122" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -3254,419 +3348,423 @@
         <f>SUM(P15:P16)</f>
         <v>251</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <f>SUM(Q15:Q16)</f>
         <v>194</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="13">
+        <f>SUM(R15:R16)</f>
+        <v>137</v>
+      </c>
       <c r="S17" s="12"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="12">
-        <f t="shared" ref="U17:V17" si="34">SUM(U15:U16)</f>
+      <c r="T17" s="12"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="12">
+        <f t="shared" ref="V17:W17" si="34">SUM(V15:V16)</f>
         <v>609</v>
       </c>
-      <c r="V17" s="12">
+      <c r="W17" s="12">
         <f t="shared" si="34"/>
         <v>711</v>
       </c>
-      <c r="W17" s="12">
-        <f t="shared" ref="W17:X17" si="35">SUM(W15:W16)</f>
+      <c r="X17" s="12">
+        <f t="shared" ref="X17:Y17" si="35">SUM(X15:X16)</f>
         <v>742</v>
       </c>
-      <c r="X17" s="12">
+      <c r="Y17" s="12">
         <f t="shared" si="35"/>
         <v>851</v>
       </c>
-      <c r="Y17" s="12">
-        <f t="shared" ref="Y17:AD17" si="36">SUM(Y15:Y16)</f>
+      <c r="Z17" s="12">
+        <f t="shared" ref="Z17:AE17" si="36">SUM(Z15:Z16)</f>
         <v>821</v>
       </c>
-      <c r="Z17" s="12">
+      <c r="AA17" s="12">
         <f t="shared" si="36"/>
         <v>992</v>
       </c>
-      <c r="AA17" s="12">
+      <c r="AB17" s="12">
         <f t="shared" si="36"/>
         <v>1130</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AC17" s="12">
         <f t="shared" si="36"/>
         <v>973</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AD17" s="12">
         <f t="shared" si="36"/>
         <v>1100</v>
       </c>
-      <c r="AD17" s="12">
+      <c r="AE17" s="12">
         <f t="shared" si="36"/>
         <v>1234</v>
       </c>
-      <c r="AE17" s="13">
-        <f t="shared" ref="AE17:AO17" si="37">SUM(AE15:AE16)</f>
+      <c r="AF17" s="13">
+        <f t="shared" ref="AF17:AP17" si="37">SUM(AF15:AF16)</f>
         <v>1255.5200000000011</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AG17" s="12">
         <f t="shared" si="37"/>
         <v>1417.776000000003</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AH17" s="12">
         <f t="shared" si="37"/>
         <v>1498.1648000000012</v>
       </c>
-      <c r="AH17" s="12">
+      <c r="AI17" s="12">
         <f t="shared" si="37"/>
         <v>1634.7521599999966</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AJ17" s="12">
         <f t="shared" si="37"/>
         <v>1781.0060719999979</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AK17" s="12">
         <f t="shared" si="37"/>
         <v>1937.5937773999981</v>
       </c>
-      <c r="AK17" s="12">
+      <c r="AL17" s="12">
         <f t="shared" si="37"/>
         <v>2105.2267857049974</v>
       </c>
-      <c r="AL17" s="12">
+      <c r="AM17" s="12">
         <f t="shared" si="37"/>
         <v>2284.6636171328719</v>
       </c>
-      <c r="AM17" s="12">
+      <c r="AN17" s="12">
         <f t="shared" si="37"/>
         <v>2476.7126931678335</v>
       </c>
-      <c r="AN17" s="12">
+      <c r="AO17" s="12">
         <f t="shared" si="37"/>
         <v>2682.2353803804167</v>
       </c>
-      <c r="AO17" s="12">
+      <c r="AP17" s="12">
         <f t="shared" si="37"/>
         <v>2902.1491926564472</v>
       </c>
-      <c r="AP17" s="12">
-        <f>AO17*(1+$AR$21)</f>
+      <c r="AQ17" s="12">
+        <f>AP17*(1+$AS$21)</f>
         <v>2873.1277007298827</v>
       </c>
-      <c r="AQ17" s="12">
-        <f t="shared" ref="AQ17:DB17" si="38">AP17*(1+$AR$21)</f>
+      <c r="AR17" s="12">
+        <f t="shared" ref="AR17:DC17" si="38">AQ17*(1+$AS$21)</f>
         <v>2844.3964237225837</v>
       </c>
-      <c r="AR17" s="12">
+      <c r="AS17" s="12">
         <f t="shared" si="38"/>
         <v>2815.9524594853578</v>
       </c>
-      <c r="AS17" s="12">
+      <c r="AT17" s="12">
         <f t="shared" si="38"/>
         <v>2787.7929348905041</v>
       </c>
-      <c r="AT17" s="12">
+      <c r="AU17" s="12">
         <f t="shared" si="38"/>
         <v>2759.9150055415989</v>
       </c>
-      <c r="AU17" s="12">
+      <c r="AV17" s="12">
         <f t="shared" si="38"/>
         <v>2732.315855486183</v>
       </c>
-      <c r="AV17" s="12">
+      <c r="AW17" s="12">
         <f t="shared" si="38"/>
         <v>2704.992696931321</v>
       </c>
-      <c r="AW17" s="12">
+      <c r="AX17" s="12">
         <f t="shared" si="38"/>
         <v>2677.9427699620078</v>
       </c>
-      <c r="AX17" s="12">
+      <c r="AY17" s="12">
         <f t="shared" si="38"/>
         <v>2651.1633422623877</v>
       </c>
-      <c r="AY17" s="12">
+      <c r="AZ17" s="12">
         <f t="shared" si="38"/>
         <v>2624.6517088397636</v>
       </c>
-      <c r="AZ17" s="12">
+      <c r="BA17" s="12">
         <f t="shared" si="38"/>
         <v>2598.4051917513661</v>
       </c>
-      <c r="BA17" s="12">
+      <c r="BB17" s="12">
         <f t="shared" si="38"/>
         <v>2572.4211398338525</v>
       </c>
-      <c r="BB17" s="12">
+      <c r="BC17" s="12">
         <f t="shared" si="38"/>
         <v>2546.6969284355141</v>
       </c>
-      <c r="BC17" s="12">
+      <c r="BD17" s="12">
         <f t="shared" si="38"/>
         <v>2521.2299591511592</v>
       </c>
-      <c r="BD17" s="12">
+      <c r="BE17" s="12">
         <f t="shared" si="38"/>
         <v>2496.0176595596477</v>
       </c>
-      <c r="BE17" s="12">
+      <c r="BF17" s="12">
         <f t="shared" si="38"/>
         <v>2471.0574829640514</v>
       </c>
-      <c r="BF17" s="12">
+      <c r="BG17" s="12">
         <f t="shared" si="38"/>
         <v>2446.346908134411</v>
       </c>
-      <c r="BG17" s="12">
+      <c r="BH17" s="12">
         <f t="shared" si="38"/>
         <v>2421.8834390530669</v>
       </c>
-      <c r="BH17" s="12">
+      <c r="BI17" s="12">
         <f t="shared" si="38"/>
         <v>2397.664604662536</v>
       </c>
-      <c r="BI17" s="12">
+      <c r="BJ17" s="12">
         <f t="shared" si="38"/>
         <v>2373.6879586159107</v>
       </c>
-      <c r="BJ17" s="12">
+      <c r="BK17" s="12">
         <f t="shared" si="38"/>
         <v>2349.9510790297518</v>
       </c>
-      <c r="BK17" s="12">
+      <c r="BL17" s="12">
         <f t="shared" si="38"/>
         <v>2326.4515682394544</v>
       </c>
-      <c r="BL17" s="12">
+      <c r="BM17" s="12">
         <f t="shared" si="38"/>
         <v>2303.1870525570598</v>
       </c>
-      <c r="BM17" s="12">
+      <c r="BN17" s="12">
         <f t="shared" si="38"/>
         <v>2280.1551820314894</v>
       </c>
-      <c r="BN17" s="12">
+      <c r="BO17" s="12">
         <f t="shared" si="38"/>
         <v>2257.3536302111743</v>
       </c>
-      <c r="BO17" s="12">
+      <c r="BP17" s="12">
         <f t="shared" si="38"/>
         <v>2234.7800939090625</v>
       </c>
-      <c r="BP17" s="12">
+      <c r="BQ17" s="12">
         <f t="shared" si="38"/>
         <v>2212.432292969972</v>
       </c>
-      <c r="BQ17" s="12">
+      <c r="BR17" s="12">
         <f t="shared" si="38"/>
         <v>2190.3079700402723</v>
       </c>
-      <c r="BR17" s="12">
+      <c r="BS17" s="12">
         <f t="shared" si="38"/>
         <v>2168.4048903398693</v>
       </c>
-      <c r="BS17" s="12">
+      <c r="BT17" s="12">
         <f t="shared" si="38"/>
         <v>2146.7208414364704</v>
       </c>
-      <c r="BT17" s="12">
+      <c r="BU17" s="12">
         <f t="shared" si="38"/>
         <v>2125.2536330221055</v>
       </c>
-      <c r="BU17" s="12">
+      <c r="BV17" s="12">
         <f t="shared" si="38"/>
         <v>2104.0010966918844</v>
       </c>
-      <c r="BV17" s="12">
+      <c r="BW17" s="12">
         <f t="shared" si="38"/>
         <v>2082.9610857249654</v>
       </c>
-      <c r="BW17" s="12">
+      <c r="BX17" s="12">
         <f t="shared" si="38"/>
         <v>2062.131474867716</v>
       </c>
-      <c r="BX17" s="12">
+      <c r="BY17" s="12">
         <f t="shared" si="38"/>
         <v>2041.5101601190388</v>
       </c>
-      <c r="BY17" s="12">
+      <c r="BZ17" s="12">
         <f t="shared" si="38"/>
         <v>2021.0950585178484</v>
       </c>
-      <c r="BZ17" s="12">
+      <c r="CA17" s="12">
         <f t="shared" si="38"/>
         <v>2000.8841079326698</v>
       </c>
-      <c r="CA17" s="12">
+      <c r="CB17" s="12">
         <f t="shared" si="38"/>
         <v>1980.8752668533432</v>
       </c>
-      <c r="CB17" s="12">
+      <c r="CC17" s="12">
         <f t="shared" si="38"/>
         <v>1961.0665141848096</v>
       </c>
-      <c r="CC17" s="12">
+      <c r="CD17" s="12">
         <f t="shared" si="38"/>
         <v>1941.4558490429615</v>
       </c>
-      <c r="CD17" s="12">
+      <c r="CE17" s="12">
         <f t="shared" si="38"/>
         <v>1922.0412905525318</v>
       </c>
-      <c r="CE17" s="12">
+      <c r="CF17" s="12">
         <f t="shared" si="38"/>
         <v>1902.8208776470065</v>
       </c>
-      <c r="CF17" s="12">
+      <c r="CG17" s="12">
         <f t="shared" si="38"/>
         <v>1883.7926688705363</v>
       </c>
-      <c r="CG17" s="12">
+      <c r="CH17" s="12">
         <f t="shared" si="38"/>
         <v>1864.9547421818309</v>
       </c>
-      <c r="CH17" s="12">
+      <c r="CI17" s="12">
         <f t="shared" si="38"/>
         <v>1846.3051947600125</v>
       </c>
-      <c r="CI17" s="12">
+      <c r="CJ17" s="12">
         <f t="shared" si="38"/>
         <v>1827.8421428124122</v>
       </c>
-      <c r="CJ17" s="12">
+      <c r="CK17" s="12">
         <f t="shared" si="38"/>
         <v>1809.5637213842881</v>
       </c>
-      <c r="CK17" s="12">
+      <c r="CL17" s="12">
         <f t="shared" si="38"/>
         <v>1791.4680841704453</v>
       </c>
-      <c r="CL17" s="12">
+      <c r="CM17" s="12">
         <f t="shared" si="38"/>
         <v>1773.5534033287408</v>
       </c>
-      <c r="CM17" s="12">
+      <c r="CN17" s="12">
         <f t="shared" si="38"/>
         <v>1755.8178692954534</v>
       </c>
-      <c r="CN17" s="12">
+      <c r="CO17" s="12">
         <f t="shared" si="38"/>
         <v>1738.2596906024989</v>
       </c>
-      <c r="CO17" s="12">
+      <c r="CP17" s="12">
         <f t="shared" si="38"/>
         <v>1720.877093696474</v>
       </c>
-      <c r="CP17" s="12">
+      <c r="CQ17" s="12">
         <f t="shared" si="38"/>
         <v>1703.6683227595092</v>
       </c>
-      <c r="CQ17" s="12">
+      <c r="CR17" s="12">
         <f t="shared" si="38"/>
         <v>1686.6316395319141</v>
       </c>
-      <c r="CR17" s="12">
+      <c r="CS17" s="12">
         <f t="shared" si="38"/>
         <v>1669.7653231365948</v>
       </c>
-      <c r="CS17" s="12">
+      <c r="CT17" s="12">
         <f t="shared" si="38"/>
         <v>1653.0676699052287</v>
       </c>
-      <c r="CT17" s="12">
+      <c r="CU17" s="12">
         <f t="shared" si="38"/>
         <v>1636.5369932061765</v>
       </c>
-      <c r="CU17" s="12">
+      <c r="CV17" s="12">
         <f t="shared" si="38"/>
         <v>1620.1716232741146</v>
       </c>
-      <c r="CV17" s="12">
+      <c r="CW17" s="12">
         <f t="shared" si="38"/>
         <v>1603.9699070413735</v>
       </c>
-      <c r="CW17" s="12">
+      <c r="CX17" s="12">
         <f t="shared" si="38"/>
         <v>1587.9302079709598</v>
       </c>
-      <c r="CX17" s="12">
+      <c r="CY17" s="12">
         <f t="shared" si="38"/>
         <v>1572.0509058912503</v>
       </c>
-      <c r="CY17" s="12">
+      <c r="CZ17" s="12">
         <f t="shared" si="38"/>
         <v>1556.3303968323378</v>
       </c>
-      <c r="CZ17" s="12">
+      <c r="DA17" s="12">
         <f t="shared" si="38"/>
         <v>1540.7670928640143</v>
       </c>
-      <c r="DA17" s="12">
+      <c r="DB17" s="12">
         <f t="shared" si="38"/>
         <v>1525.3594219353743</v>
       </c>
-      <c r="DB17" s="12">
+      <c r="DC17" s="12">
         <f t="shared" si="38"/>
         <v>1510.1058277160205</v>
       </c>
-      <c r="DC17" s="12">
-        <f t="shared" ref="DC17:DQ17" si="39">DB17*(1+$AR$21)</f>
+      <c r="DD17" s="12">
+        <f t="shared" ref="DD17:DR17" si="39">DC17*(1+$AS$21)</f>
         <v>1495.0047694388602</v>
       </c>
-      <c r="DD17" s="12">
+      <c r="DE17" s="12">
         <f t="shared" si="39"/>
         <v>1480.0547217444716</v>
       </c>
-      <c r="DE17" s="12">
+      <c r="DF17" s="12">
         <f t="shared" si="39"/>
         <v>1465.2541745270269</v>
       </c>
-      <c r="DF17" s="12">
+      <c r="DG17" s="12">
         <f t="shared" si="39"/>
         <v>1450.6016327817565</v>
       </c>
-      <c r="DG17" s="12">
+      <c r="DH17" s="12">
         <f t="shared" si="39"/>
         <v>1436.0956164539389</v>
       </c>
-      <c r="DH17" s="12">
+      <c r="DI17" s="12">
         <f t="shared" si="39"/>
         <v>1421.7346602893995</v>
       </c>
-      <c r="DI17" s="12">
+      <c r="DJ17" s="12">
         <f t="shared" si="39"/>
         <v>1407.5173136865055</v>
       </c>
-      <c r="DJ17" s="12">
+      <c r="DK17" s="12">
         <f t="shared" si="39"/>
         <v>1393.4421405496405</v>
       </c>
-      <c r="DK17" s="12">
+      <c r="DL17" s="12">
         <f t="shared" si="39"/>
         <v>1379.5077191441442</v>
       </c>
-      <c r="DL17" s="12">
+      <c r="DM17" s="12">
         <f t="shared" si="39"/>
         <v>1365.7126419527028</v>
       </c>
-      <c r="DM17" s="12">
+      <c r="DN17" s="12">
         <f t="shared" si="39"/>
         <v>1352.0555155331758</v>
       </c>
-      <c r="DN17" s="12">
+      <c r="DO17" s="12">
         <f t="shared" si="39"/>
         <v>1338.5349603778441</v>
       </c>
-      <c r="DO17" s="12">
+      <c r="DP17" s="12">
         <f t="shared" si="39"/>
         <v>1325.1496107740656</v>
       </c>
-      <c r="DP17" s="12">
+      <c r="DQ17" s="12">
         <f t="shared" si="39"/>
         <v>1311.898114666325</v>
       </c>
-      <c r="DQ17" s="12">
+      <c r="DR17" s="12">
         <f t="shared" si="39"/>
         <v>1298.7791335196616</v>
       </c>
     </row>
-    <row r="18" spans="3:121" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:122" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3709,23 +3807,23 @@
       <c r="P18" s="9">
         <v>113.251741</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="9">
         <v>113.251741</v>
       </c>
-      <c r="U18" s="9">
+      <c r="R18" s="8">
+        <v>113.251741</v>
+      </c>
+      <c r="V18" s="9">
         <v>79.931532000000004</v>
       </c>
-      <c r="V18" s="9">
+      <c r="W18" s="9">
         <v>80.220365999999999</v>
       </c>
-      <c r="W18" s="9">
+      <c r="X18" s="9">
         <v>80.169882000000001</v>
       </c>
-      <c r="X18" s="9">
+      <c r="Y18" s="9">
         <v>80.021396999999993</v>
-      </c>
-      <c r="Y18" s="9">
-        <v>113.251741</v>
       </c>
       <c r="Z18" s="9">
         <v>113.251741</v>
@@ -3742,10 +3840,10 @@
       <c r="AD18" s="9">
         <v>113.251741</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AE18" s="9">
         <v>113.251741</v>
       </c>
-      <c r="AF18" s="9">
+      <c r="AF18" s="8">
         <v>113.251741</v>
       </c>
       <c r="AG18" s="9">
@@ -3775,8 +3873,11 @@
       <c r="AO18" s="9">
         <v>113.251741</v>
       </c>
-    </row>
-    <row r="19" spans="3:121" x14ac:dyDescent="0.25">
+      <c r="AP18" s="9">
+        <v>113.251741</v>
+      </c>
+    </row>
+    <row r="19" spans="3:122" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
@@ -3832,104 +3933,108 @@
         <f>P17/P18</f>
         <v>2.2163014694846943</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="Q19" s="19">
         <f>Q17/Q18</f>
         <v>1.7129979485260187</v>
       </c>
-      <c r="U19" s="19">
-        <f t="shared" ref="U19:W19" si="41">U17/U18</f>
+      <c r="R19" s="18">
+        <f>R17/R18</f>
+        <v>1.2096944275673431</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" ref="V19:X19" si="41">V17/V18</f>
         <v>7.6190207388993869</v>
       </c>
-      <c r="V19" s="19">
+      <c r="W19" s="19">
         <f t="shared" si="41"/>
         <v>8.8630859649780209</v>
       </c>
-      <c r="W19" s="19">
+      <c r="X19" s="19">
         <f t="shared" si="41"/>
         <v>9.2553460412976527</v>
       </c>
-      <c r="X19" s="19">
-        <f t="shared" ref="X19" si="42">X17/X18</f>
+      <c r="Y19" s="19">
+        <f t="shared" ref="Y19" si="42">Y17/Y18</f>
         <v>10.634655628418985</v>
       </c>
-      <c r="Y19" s="19">
-        <f t="shared" ref="Y19:AD19" si="43">Y17/Y18</f>
+      <c r="Z19" s="19">
+        <f t="shared" ref="Z19:AE19" si="43">Z17/Z18</f>
         <v>7.2493366790714502</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="AA19" s="19">
         <f t="shared" si="43"/>
         <v>8.7592472419474774</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AB19" s="19">
         <f t="shared" si="43"/>
         <v>9.9777715558474291</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AC19" s="19">
         <f t="shared" si="43"/>
         <v>8.5914794016279181</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AD19" s="19">
         <f t="shared" si="43"/>
         <v>9.7128749658691778</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AE19" s="19">
         <f t="shared" si="43"/>
         <v>10.896079734438697</v>
       </c>
-      <c r="AE19" s="18">
-        <f t="shared" ref="AE19:AO19" si="44">AE17/AE18</f>
+      <c r="AF19" s="18">
+        <f t="shared" ref="AF19:AP19" si="44">AF17/AF18</f>
         <v>11.086098888316439</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="AG19" s="19">
         <f t="shared" si="44"/>
         <v>12.518800925100154</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="AH19" s="19">
         <f t="shared" si="44"/>
         <v>13.228624891514924</v>
       </c>
-      <c r="AH19" s="19">
+      <c r="AI19" s="19">
         <f t="shared" si="44"/>
         <v>14.434675754785939</v>
       </c>
-      <c r="AI19" s="19">
+      <c r="AJ19" s="19">
         <f t="shared" si="44"/>
         <v>15.726081173445253</v>
       </c>
-      <c r="AJ19" s="19">
+      <c r="AK19" s="19">
         <f t="shared" si="44"/>
         <v>17.108732813211219</v>
       </c>
-      <c r="AK19" s="19">
+      <c r="AL19" s="19">
         <f t="shared" si="44"/>
         <v>18.588913222137553</v>
       </c>
-      <c r="AL19" s="19">
+      <c r="AM19" s="19">
         <f t="shared" si="44"/>
         <v>20.173320047529089</v>
       </c>
-      <c r="AM19" s="19">
+      <c r="AN19" s="19">
         <f t="shared" si="44"/>
         <v>21.869091559200257</v>
       </c>
-      <c r="AN19" s="19">
+      <c r="AO19" s="19">
         <f t="shared" si="44"/>
         <v>23.683833526059583</v>
       </c>
-      <c r="AO19" s="19">
+      <c r="AP19" s="19">
         <f t="shared" si="44"/>
         <v>25.625647491427504</v>
       </c>
     </row>
-    <row r="20" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="AQ20" s="2" t="s">
+    <row r="20" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="AR20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AR20" s="28">
+      <c r="AS20" s="28">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="3:121" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:122" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3969,81 +4074,81 @@
         <f>(P4-L4)/L4</f>
         <v>-2.0606588303584385E-2</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="21">
         <f>(Q4-M4)/M4</f>
         <v>-7.1895424836601302E-2</v>
       </c>
-      <c r="V21" s="21">
-        <f t="shared" ref="V21" si="46">(V4-U4)/U4</f>
+      <c r="R21" s="22">
+        <f>(R4-N4)/N4</f>
+        <v>-5.105956949774737E-2</v>
+      </c>
+      <c r="W21" s="21">
+        <f t="shared" ref="W21" si="46">(W4-V4)/V4</f>
         <v>0.12374378235712111</v>
       </c>
-      <c r="W21" s="21">
-        <f t="shared" ref="W21" si="47">(W4-V4)/V4</f>
+      <c r="X21" s="21">
+        <f t="shared" ref="X21" si="47">(X4-W4)/W4</f>
         <v>0.14345076784101174</v>
       </c>
-      <c r="X21" s="21">
-        <f t="shared" ref="X21" si="48">(X4-W4)/W4</f>
+      <c r="Y21" s="21">
+        <f t="shared" ref="Y21" si="48">(Y4-X4)/X4</f>
         <v>0.10404487280771053</v>
       </c>
-      <c r="Y21" s="21">
-        <f t="shared" ref="Y21" si="49">(Y4-X4)/X4</f>
+      <c r="Z21" s="21">
+        <f t="shared" ref="Z21" si="49">(Z4-Y4)/Y4</f>
         <v>0.41624329159212881</v>
       </c>
-      <c r="Z21" s="21">
-        <f t="shared" ref="Z21:AD21" si="50">(Z4-Y4)/Y4</f>
+      <c r="AA21" s="21">
+        <f t="shared" ref="AA21:AE21" si="50">(AA4-Z4)/Z4</f>
         <v>-4.0470897332255458E-2</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AB21" s="21">
         <f t="shared" si="50"/>
         <v>5.8606708440840399E-2</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AC21" s="21">
         <f t="shared" si="50"/>
         <v>0.17150815758058097</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AD21" s="21">
         <f t="shared" si="50"/>
         <v>0.14546535326086957</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AE21" s="21">
         <f t="shared" si="50"/>
         <v>6.7462376751427086E-3</v>
       </c>
-      <c r="AE21" s="22">
-        <f>(AE4-AD4)/AD4</f>
+      <c r="AF21" s="22">
+        <f>(AF4-AE4)/AE4</f>
         <v>-9.9999999999999464E-3</v>
       </c>
-      <c r="AF21" s="21">
-        <f t="shared" ref="AF21:AO21" si="51">(AF4-AE4)/AE4</f>
+      <c r="AG21" s="21">
+        <f t="shared" ref="AG21:AP21" si="51">(AG4-AF4)/AF4</f>
         <v>5.0000000000000065E-2</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AH21" s="21">
         <f t="shared" si="51"/>
         <v>4.9999999999999982E-2</v>
       </c>
-      <c r="AH21" s="21">
+      <c r="AI21" s="21">
         <f t="shared" si="51"/>
         <v>7.49999999999999E-2</v>
       </c>
-      <c r="AI21" s="21">
+      <c r="AJ21" s="21">
         <f t="shared" si="51"/>
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="AJ21" s="21">
+      <c r="AK21" s="21">
         <f t="shared" si="51"/>
         <v>7.4999999999999914E-2</v>
       </c>
-      <c r="AK21" s="21">
+      <c r="AL21" s="21">
         <f t="shared" si="51"/>
         <v>7.49999999999999E-2</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AM21" s="21">
         <f t="shared" si="51"/>
         <v>7.4999999999999914E-2</v>
-      </c>
-      <c r="AM21" s="21">
-        <f t="shared" si="51"/>
-        <v>7.4999999999999886E-2</v>
       </c>
       <c r="AN21" s="21">
         <f t="shared" si="51"/>
@@ -4051,466 +4156,464 @@
       </c>
       <c r="AO21" s="21">
         <f t="shared" si="51"/>
+        <v>7.4999999999999886E-2</v>
+      </c>
+      <c r="AP21" s="21">
+        <f t="shared" si="51"/>
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="AQ21" s="2" t="s">
+      <c r="AR21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AR21" s="28">
+      <c r="AS21" s="28">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="22" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="R22" s="22">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AR22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS22" s="29">
+        <f>NPV(AS20,AF17:DR17)</f>
+        <v>27069.332628928463</v>
+      </c>
+    </row>
+    <row r="23" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="20">
-        <f t="shared" ref="D22:O22" si="52">D11/D4</f>
+      <c r="D23" s="20">
+        <f t="shared" ref="D23:R23" si="52">D11/D4</f>
         <v>6.3139329805996472E-2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="20">
         <f t="shared" si="52"/>
         <v>7.2301255230125525E-2</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F23" s="20">
         <f t="shared" si="52"/>
         <v>7.0781426953567386E-2</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G23" s="20">
         <f t="shared" si="52"/>
         <v>8.5035557573006501E-2</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H23" s="20">
         <f t="shared" si="52"/>
         <v>9.9768652400231347E-2</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I23" s="20">
         <f t="shared" si="52"/>
         <v>5.7941476197408651E-2</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J23" s="20">
         <f t="shared" si="52"/>
         <v>5.1163558342960887E-2</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K23" s="20">
         <f t="shared" si="52"/>
         <v>7.8065872459705671E-2</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L23" s="20">
         <f t="shared" si="52"/>
         <v>8.4457988680888121E-2</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M23" s="20">
         <f t="shared" si="52"/>
         <v>7.9682937004589074E-2</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N23" s="20">
         <f t="shared" si="52"/>
         <v>6.0737527114967459E-2</v>
       </c>
-      <c r="O22" s="20">
+      <c r="O23" s="20">
         <f t="shared" si="52"/>
         <v>8.2709950599858861E-2</v>
       </c>
-      <c r="P22" s="20">
-        <f>P11/P4</f>
+      <c r="P23" s="20">
+        <f t="shared" si="52"/>
         <v>6.8010075566750636E-2</v>
       </c>
-      <c r="Q22" s="23">
-        <f>Q11/Q4</f>
+      <c r="Q23" s="20">
+        <f t="shared" si="52"/>
         <v>5.1842972729997001E-2</v>
       </c>
-      <c r="U22" s="20">
-        <f t="shared" ref="U22:X22" si="53">U11/U4</f>
+      <c r="R23" s="23">
+        <f t="shared" si="52"/>
+        <v>5.8202918937928609E-2</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" ref="V23:AP23" si="53">V11/V4</f>
         <v>8.5169018373769154E-2</v>
       </c>
-      <c r="V22" s="20">
+      <c r="W23" s="20">
         <f t="shared" si="53"/>
         <v>9.322493224932249E-2</v>
       </c>
-      <c r="W22" s="20">
+      <c r="X23" s="20">
         <f t="shared" si="53"/>
         <v>8.113446042028756E-2</v>
       </c>
-      <c r="X22" s="20">
+      <c r="Y23" s="20">
         <f t="shared" si="53"/>
         <v>8.8944543828264763E-2</v>
       </c>
-      <c r="Y22" s="20">
-        <f t="shared" ref="Y22:AO22" si="54">Y11/Y4</f>
+      <c r="Z23" s="20">
+        <f t="shared" si="53"/>
         <v>6.9118835893290223E-2</v>
       </c>
-      <c r="Z22" s="20">
+      <c r="AA23" s="20">
+        <f t="shared" si="53"/>
+        <v>8.3407930072139438E-2</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" si="53"/>
+        <v>8.2670115399920419E-2</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.3369565217391311E-2</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.1799243828304549E-2</v>
+      </c>
+      <c r="AE23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.7466863033873345E-2</v>
+      </c>
+      <c r="AF23" s="23">
+        <f t="shared" si="53"/>
+        <v>6.766486663393885E-2</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.2069315073733459E-2</v>
+      </c>
+      <c r="AH23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.291264293859151E-2</v>
+      </c>
+      <c r="AI23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.4089379494207311E-2</v>
+      </c>
+      <c r="AJ23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.5184018150594348E-2</v>
+      </c>
+      <c r="AK23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.620228666816363E-2</v>
+      </c>
+      <c r="AL23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.7149513196135056E-2</v>
+      </c>
+      <c r="AM23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.8030654152387524E-2</v>
+      </c>
+      <c r="AN23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.8850320158203688E-2</v>
+      </c>
+      <c r="AO23" s="20">
+        <f t="shared" si="53"/>
+        <v>7.9612800163614064E-2</v>
+      </c>
+      <c r="AP23" s="20">
+        <f t="shared" si="53"/>
+        <v>8.0322083889577275E-2</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>113.251741</v>
+      </c>
+    </row>
+    <row r="24" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" ref="D24:R24" si="54">D13/D4</f>
+        <v>5.5731922398589068E-2</v>
+      </c>
+      <c r="E24" s="20">
         <f t="shared" si="54"/>
-        <v>8.3407930072139438E-2</v>
-      </c>
-      <c r="AA22" s="20">
+        <v>5.6066945606694563E-2</v>
+      </c>
+      <c r="F24" s="20">
         <f t="shared" si="54"/>
-        <v>8.2670115399920419E-2</v>
-      </c>
-      <c r="AB22" s="20">
+        <v>4.9830124575311441E-2</v>
+      </c>
+      <c r="G24" s="20">
         <f t="shared" si="54"/>
-        <v>7.3369565217391311E-2</v>
-      </c>
-      <c r="AC22" s="20">
+        <v>7.9739748827356641E-2</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="54"/>
-        <v>7.1799243828304549E-2</v>
-      </c>
-      <c r="AD22" s="20">
+        <v>9.3406593406593408E-2</v>
+      </c>
+      <c r="I24" s="20">
         <f t="shared" si="54"/>
-        <v>7.7466863033873345E-2</v>
-      </c>
-      <c r="AE22" s="23">
+        <v>5.284612025040035E-2</v>
+      </c>
+      <c r="J24" s="20">
         <f t="shared" si="54"/>
-        <v>6.766486663393885E-2</v>
-      </c>
-      <c r="AF22" s="20">
+        <v>4.4561808879353029E-2</v>
+      </c>
+      <c r="K24" s="20">
         <f t="shared" si="54"/>
-        <v>7.2069315073733459E-2</v>
-      </c>
-      <c r="AG22" s="20">
+        <v>7.2319551506657323E-2</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="54"/>
-        <v>7.291264293859151E-2</v>
-      </c>
-      <c r="AH22" s="20">
+        <v>7.8508199100275719E-2</v>
+      </c>
+      <c r="M24" s="20">
         <f t="shared" si="54"/>
-        <v>7.4089379494207311E-2</v>
-      </c>
-      <c r="AI22" s="20">
+        <v>7.5371992768738696E-2</v>
+      </c>
+      <c r="N24" s="20">
         <f t="shared" si="54"/>
-        <v>7.5184018150594348E-2</v>
-      </c>
-      <c r="AJ22" s="20">
+        <v>5.2561321541798767E-2</v>
+      </c>
+      <c r="O24" s="20">
         <f t="shared" si="54"/>
-        <v>7.620228666816363E-2</v>
-      </c>
-      <c r="AK22" s="20">
+        <v>7.6781933662667612E-2</v>
+      </c>
+      <c r="P24" s="20">
         <f t="shared" si="54"/>
-        <v>7.7149513196135056E-2</v>
-      </c>
-      <c r="AL22" s="20">
+        <v>6.1638761297970072E-2</v>
+      </c>
+      <c r="Q24" s="20">
         <f t="shared" si="54"/>
-        <v>7.8030654152387524E-2</v>
-      </c>
-      <c r="AM22" s="20">
+        <v>4.5999400659274797E-2</v>
+      </c>
+      <c r="R24" s="23">
         <f t="shared" si="54"/>
-        <v>7.8850320158203688E-2</v>
-      </c>
-      <c r="AN22" s="20">
-        <f t="shared" si="54"/>
-        <v>7.9612800163614064E-2</v>
-      </c>
-      <c r="AO22" s="20">
-        <f t="shared" si="54"/>
-        <v>8.0322083889577275E-2</v>
-      </c>
-      <c r="AQ22" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR22" s="29">
-        <f>NPV(AR20,AE17:DQ17)</f>
-        <v>27069.332628928463</v>
-      </c>
-    </row>
-    <row r="23" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="20">
-        <f t="shared" ref="D23:P23" si="55">D13/D4</f>
-        <v>5.5731922398589068E-2</v>
-      </c>
-      <c r="E23" s="20">
+        <v>5.0641814665025493E-2</v>
+      </c>
+      <c r="V24" s="20">
+        <f t="shared" ref="V24:AP24" si="55">V13/V4</f>
+        <v>8.5169018373769154E-2</v>
+      </c>
+      <c r="W24" s="20">
         <f t="shared" si="55"/>
-        <v>5.6066945606694563E-2</v>
-      </c>
-      <c r="F23" s="20">
+        <v>8.717253839205058E-2</v>
+      </c>
+      <c r="X24" s="20">
         <f t="shared" si="55"/>
-        <v>4.9830124575311441E-2</v>
-      </c>
-      <c r="G23" s="20">
+        <v>8.1608468952441143E-2</v>
+      </c>
+      <c r="Y24" s="20">
         <f t="shared" si="55"/>
-        <v>7.9739748827356641E-2</v>
-      </c>
-      <c r="H23" s="20">
+        <v>8.6082289803220038E-2</v>
+      </c>
+      <c r="Z24" s="20">
         <f t="shared" si="55"/>
-        <v>9.3406593406593408E-2</v>
-      </c>
-      <c r="I23" s="20">
+        <v>6.452101859337106E-2</v>
+      </c>
+      <c r="AA24" s="20">
         <f t="shared" si="55"/>
-        <v>5.284612025040035E-2</v>
-      </c>
-      <c r="J23" s="20">
+        <v>7.6667895318835236E-2</v>
+      </c>
+      <c r="AB24" s="20">
         <f t="shared" si="55"/>
-        <v>4.4561808879353029E-2</v>
-      </c>
-      <c r="K23" s="20">
+        <v>7.5756068444090732E-2</v>
+      </c>
+      <c r="AC24" s="20">
         <f t="shared" si="55"/>
-        <v>7.2319551506657323E-2</v>
-      </c>
-      <c r="L23" s="20">
+        <v>6.1268682065217392E-2</v>
+      </c>
+      <c r="AD24" s="20">
         <f t="shared" si="55"/>
-        <v>7.8508199100275719E-2</v>
-      </c>
-      <c r="M23" s="20">
+        <v>6.5905552672547996E-2</v>
+      </c>
+      <c r="AE24" s="20">
         <f t="shared" si="55"/>
-        <v>7.5371992768738696E-2</v>
-      </c>
-      <c r="N23" s="20">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AF24" s="23">
         <f t="shared" si="55"/>
-        <v>5.2561321541798767E-2</v>
-      </c>
-      <c r="O23" s="20">
+        <v>6.2086252807902344E-2</v>
+      </c>
+      <c r="AG24" s="20">
         <f t="shared" si="55"/>
-        <v>7.6781933662667612E-2</v>
-      </c>
-      <c r="P23" s="20">
+        <v>6.6490701247696959E-2</v>
+      </c>
+      <c r="AH24" s="20">
         <f t="shared" si="55"/>
-        <v>6.1638761297970072E-2</v>
-      </c>
-      <c r="Q23" s="23">
-        <f t="shared" ref="Q23" si="56">Q13/Q4</f>
-        <v>4.5999400659274797E-2</v>
-      </c>
-      <c r="U23" s="20">
-        <f t="shared" ref="U23:X23" si="57">U13/U4</f>
-        <v>8.5169018373769154E-2</v>
-      </c>
-      <c r="V23" s="20">
-        <f t="shared" si="57"/>
-        <v>8.717253839205058E-2</v>
-      </c>
-      <c r="W23" s="20">
-        <f t="shared" si="57"/>
-        <v>8.1608468952441143E-2</v>
-      </c>
-      <c r="X23" s="20">
-        <f t="shared" si="57"/>
-        <v>8.6082289803220038E-2</v>
-      </c>
-      <c r="Y23" s="20">
-        <f t="shared" ref="Y23:AE23" si="58">Y13/Y4</f>
-        <v>6.452101859337106E-2</v>
-      </c>
-      <c r="Z23" s="20">
-        <f t="shared" si="58"/>
-        <v>7.6667895318835236E-2</v>
-      </c>
-      <c r="AA23" s="20">
-        <f t="shared" si="58"/>
-        <v>7.5756068444090732E-2</v>
-      </c>
-      <c r="AB23" s="20">
-        <f t="shared" si="58"/>
-        <v>6.1268682065217392E-2</v>
-      </c>
-      <c r="AC23" s="20">
-        <f t="shared" si="58"/>
-        <v>6.5905552672547996E-2</v>
-      </c>
-      <c r="AD23" s="20">
-        <f t="shared" si="58"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="AE23" s="23">
-        <f t="shared" si="58"/>
-        <v>6.2086252807902344E-2</v>
-      </c>
-      <c r="AF23" s="20">
-        <f t="shared" ref="AF23:AO23" si="59">AF13/AF4</f>
-        <v>6.6490701247696959E-2</v>
-      </c>
-      <c r="AG23" s="20">
-        <f t="shared" si="59"/>
         <v>6.7068380835124689E-2</v>
       </c>
-      <c r="AH23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AI24" s="20">
+        <f t="shared" si="55"/>
         <v>6.8109204318566846E-2</v>
       </c>
-      <c r="AI23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AJ24" s="20">
+        <f t="shared" si="55"/>
         <v>6.9064769133659915E-2</v>
       </c>
-      <c r="AJ23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AK24" s="20">
+        <f t="shared" si="55"/>
         <v>6.9940729534556309E-2</v>
       </c>
-      <c r="AK23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AL24" s="20">
+        <f t="shared" si="55"/>
         <v>7.0742338454769418E-2</v>
       </c>
-      <c r="AL23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AM24" s="20">
+        <f t="shared" si="55"/>
         <v>7.1474475347269195E-2</v>
       </c>
-      <c r="AM23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AN24" s="20">
+        <f t="shared" si="55"/>
         <v>7.2141672078547728E-2</v>
       </c>
-      <c r="AN23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AO24" s="20">
+        <f t="shared" si="55"/>
         <v>7.274813701233819E-2</v>
       </c>
-      <c r="AO23" s="20">
-        <f t="shared" si="59"/>
+      <c r="AP24" s="20">
+        <f t="shared" si="55"/>
         <v>7.3297777409201972E-2</v>
       </c>
-      <c r="AQ23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="9">
-        <v>113.251741</v>
-      </c>
-    </row>
-    <row r="24" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
+      <c r="AR24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS24" s="30">
+        <f>AS22/AS23</f>
+        <v>239.01913021300453</v>
+      </c>
+    </row>
+    <row r="25" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>0.74299999999999999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>0.75800000000000001</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>0.74099999999999999</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>0.74399999999999999</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H25" s="10">
         <v>0.73299999999999998</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I25" s="10">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J25" s="10">
         <v>0.72899999999999998</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K25" s="10">
         <v>0.73599999999999999</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L25" s="10">
         <v>0.72599999999999998</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M25" s="10">
         <v>0.73399999999999999</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N25" s="10">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O25" s="10">
         <v>0.72299999999999998</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P25" s="10">
         <v>0.71099999999999997</v>
       </c>
-      <c r="Q24" s="43">
+      <c r="Q25" s="10">
         <v>0.72599999999999998</v>
       </c>
-      <c r="U24" s="20">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="V24" s="20">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="W24" s="20">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="X24" s="20">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="Y24" s="20">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="AA24" s="20">
-        <v>0.747</v>
-      </c>
-      <c r="AB24" s="20">
-        <v>0.747</v>
-      </c>
-      <c r="AC24" s="20">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="AD24" s="20">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="20"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AQ24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR24" s="30">
-        <f>AR22/AR23</f>
-        <v>239.01913021300453</v>
-      </c>
-    </row>
-    <row r="25" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="20"/>
+      <c r="R25" s="43">
+        <v>0.72</v>
+      </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
-      <c r="U25" s="20">
-        <v>0.14799999999999999</v>
-      </c>
+      <c r="U25" s="20"/>
       <c r="V25" s="20">
-        <v>0.159</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="W25" s="20">
-        <v>0.154</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="X25" s="20">
-        <v>0.161</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="Y25" s="20">
-        <v>0.106</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="Z25" s="20">
-        <v>9.5000000000000001E-2</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="AA25" s="20">
-        <v>0.108</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="AB25" s="20">
-        <v>8.5000000000000006E-2</v>
+        <v>0.747</v>
       </c>
       <c r="AC25" s="20">
-        <v>8.7999999999999995E-2</v>
+        <v>0.747</v>
       </c>
       <c r="AD25" s="20">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="20"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AE25" s="20">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AF25" s="23"/>
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="20"/>
@@ -4520,2187 +4623,2388 @@
       <c r="AM25" s="20"/>
       <c r="AN25" s="20"/>
       <c r="AO25" s="20"/>
-      <c r="AQ25" s="1" t="s">
+      <c r="AP25" s="20"/>
+      <c r="AR25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AR25" s="21">
-        <f>(AR24-B4)/B4</f>
-        <v>0.59558831917893529</v>
-      </c>
-    </row>
-    <row r="27" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="AS25" s="21">
+        <f>(AS24-B4)/B4</f>
+        <v>0.40599488360590902</v>
+      </c>
+    </row>
+    <row r="26" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="W26" s="20">
+        <v>0.159</v>
+      </c>
+      <c r="X26" s="20">
+        <v>0.154</v>
+      </c>
+      <c r="Y26" s="20">
+        <v>0.161</v>
+      </c>
+      <c r="Z26" s="20">
+        <v>0.106</v>
+      </c>
+      <c r="AA26" s="20">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AB26" s="20">
+        <v>0.108</v>
+      </c>
+      <c r="AC26" s="20">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AD26" s="20">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AE26" s="20">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+    </row>
+    <row r="27" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <v>14852</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E29" s="14">
         <v>15221</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F29" s="14">
         <v>15481</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <v>15590</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <v>15738</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I29" s="14">
         <v>16391</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <v>16153</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K29" s="14">
         <v>15760</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L29" s="14">
         <v>16107</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="14">
         <v>15957</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N29" s="14">
         <v>15827</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O29" s="14">
         <v>15926</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P29" s="14">
         <v>15344</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q29" s="14">
         <v>15344</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C29" s="2" t="s">
+      <c r="R29" s="15">
+        <v>15611</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <v>500</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E30" s="14">
         <v>338</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F30" s="14">
         <v>346</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <v>355</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <v>363</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I30" s="14">
         <v>387</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <v>386</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K30" s="14">
         <v>382</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L30" s="14">
         <v>379</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M30" s="14">
         <v>386</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N30" s="14">
         <v>368</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O30" s="14">
         <v>363</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P30" s="14">
         <v>342</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q30" s="14">
         <v>333</v>
       </c>
-    </row>
-    <row r="30" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C30" s="2" t="s">
+      <c r="R30" s="15">
+        <v>321</v>
+      </c>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+    </row>
+    <row r="31" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="14">
-        <v>0</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="14">
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
+        <v>0</v>
+      </c>
+      <c r="L31" s="14">
         <v>1569</v>
       </c>
-      <c r="M30" s="14">
-        <v>0</v>
-      </c>
-      <c r="N30" s="14">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14">
         <v>1423</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q31" s="14">
         <v>1321</v>
       </c>
-    </row>
-    <row r="31" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
+      <c r="R31" s="15">
+        <v>2100</v>
+      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+    </row>
+    <row r="32" spans="3:122" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <v>2217</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E32" s="14">
         <v>2221</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F32" s="14">
         <v>2258</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>2272</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <v>2258</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I32" s="14">
         <v>2176</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <v>2064</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K32" s="14">
         <v>2020</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L32" s="14">
         <v>345</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <v>1874</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N32" s="14">
         <v>1952</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O32" s="14">
         <v>1768</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P32" s="14">
         <v>362</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q32" s="14">
         <v>404</v>
       </c>
-    </row>
-    <row r="32" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="R32" s="15">
+        <v>398</v>
+      </c>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <v>7290</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <v>7950</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F33" s="14">
         <v>8024</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>8690</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <v>8890</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I33" s="14">
         <v>9472</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <v>8842</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K33" s="14">
         <v>8843</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L33" s="14">
         <v>4974</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="14">
         <v>9472</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N33" s="14">
         <v>9071</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O33" s="14">
         <v>8977</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P33" s="14">
         <v>4116</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q33" s="14">
         <v>4528</v>
       </c>
-    </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
+      <c r="R33" s="15">
+        <v>4023</v>
+      </c>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="14">
-        <v>0</v>
-      </c>
-      <c r="E33" s="14">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
-        <v>0</v>
-      </c>
-      <c r="J33" s="14">
-        <v>0</v>
-      </c>
-      <c r="K33" s="14">
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="14">
+        <v>0</v>
+      </c>
+      <c r="L34" s="14">
         <v>2998</v>
       </c>
-      <c r="M33" s="14">
-        <v>0</v>
-      </c>
-      <c r="N33" s="14">
-        <v>0</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="14">
+      <c r="M34" s="14">
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14">
         <v>3342</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q34" s="14">
         <v>3307</v>
       </c>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
+      <c r="R34" s="15">
+        <v>3607</v>
+      </c>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="14">
-        <v>0</v>
-      </c>
-      <c r="E34" s="14">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14">
         <v>1237</v>
       </c>
-      <c r="M34" s="14">
-        <v>0</v>
-      </c>
-      <c r="N34" s="14">
-        <v>0</v>
-      </c>
-      <c r="O34" s="14">
-        <v>0</v>
-      </c>
-      <c r="P34" s="14">
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14">
         <v>1113</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q35" s="14">
         <v>1196</v>
       </c>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+      <c r="R35" s="15">
+        <v>1137</v>
+      </c>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <v>902</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E36" s="14">
         <v>1187</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F36" s="14">
         <v>862</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>1088</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H36" s="14">
         <v>1162</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I36" s="14">
         <v>827</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <v>853</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K36" s="14">
         <v>1167</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L36" s="14">
         <v>1563</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <v>827</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N36" s="14">
         <v>863</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <v>1270</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <v>884</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q36" s="14">
         <v>761</v>
       </c>
-    </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+      <c r="R36" s="15">
+        <v>756</v>
+      </c>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" ref="D36:N36" si="60">SUM(D28:D35)</f>
+      <c r="D37" s="12">
+        <f t="shared" ref="D37:N37" si="56">SUM(D29:D36)</f>
         <v>25761</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E37" s="12">
+        <f t="shared" si="56"/>
+        <v>26917</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="56"/>
+        <v>26971</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="56"/>
+        <v>27995</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="56"/>
+        <v>28411</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="56"/>
+        <v>29253</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="56"/>
+        <v>28298</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="56"/>
+        <v>28172</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="56"/>
+        <v>29172</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="56"/>
+        <v>28516</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="56"/>
+        <v>28081</v>
+      </c>
+      <c r="O37" s="12">
+        <f>SUM(O29:O36)</f>
+        <v>28304</v>
+      </c>
+      <c r="P37" s="12">
+        <f>SUM(P29:P36)</f>
+        <v>26926</v>
+      </c>
+      <c r="Q37" s="12">
+        <f>SUM(Q29:Q36)</f>
+        <v>27194</v>
+      </c>
+      <c r="R37" s="13">
+        <f>SUM(R29:R36)</f>
+        <v>27953</v>
+      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="14">
+        <v>11419</v>
+      </c>
+      <c r="E38" s="14">
+        <v>11317</v>
+      </c>
+      <c r="F38" s="14">
+        <v>11701</v>
+      </c>
+      <c r="G38" s="14">
+        <v>12176</v>
+      </c>
+      <c r="H38" s="14">
+        <v>12600</v>
+      </c>
+      <c r="I38" s="14">
+        <v>12550</v>
+      </c>
+      <c r="J38" s="14">
+        <v>12535</v>
+      </c>
+      <c r="K38" s="14">
+        <v>12454</v>
+      </c>
+      <c r="L38" s="14">
+        <v>13025</v>
+      </c>
+      <c r="M38" s="14">
+        <v>12678</v>
+      </c>
+      <c r="N38" s="14">
+        <v>12665</v>
+      </c>
+      <c r="O38" s="14">
+        <v>13128</v>
+      </c>
+      <c r="P38" s="14">
+        <v>12884</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>12534</v>
+      </c>
+      <c r="R38" s="15">
+        <v>12600</v>
+      </c>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="14">
+        <v>2</v>
+      </c>
+      <c r="H39" s="14">
+        <v>2</v>
+      </c>
+      <c r="I39" s="14">
+        <v>2</v>
+      </c>
+      <c r="J39" s="14">
+        <v>2</v>
+      </c>
+      <c r="K39" s="14">
+        <v>1</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1</v>
+      </c>
+      <c r="M39" s="14">
+        <v>1</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="14">
+        <v>23</v>
+      </c>
+      <c r="P39" s="14">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>25</v>
+      </c>
+      <c r="R39" s="15">
+        <v>26</v>
+      </c>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" ref="D40:O40" si="57">SUM(D38:D39)</f>
+        <v>11420</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="57"/>
+        <v>11318</v>
+      </c>
+      <c r="F40" s="16">
+        <f t="shared" si="57"/>
+        <v>11702</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" si="57"/>
+        <v>12178</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="57"/>
+        <v>12602</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="57"/>
+        <v>12552</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="57"/>
+        <v>12537</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="57"/>
+        <v>12455</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="57"/>
+        <v>13026</v>
+      </c>
+      <c r="M40" s="16">
+        <f t="shared" si="57"/>
+        <v>12679</v>
+      </c>
+      <c r="N40" s="16">
+        <f t="shared" si="57"/>
+        <v>12665</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="57"/>
+        <v>13151</v>
+      </c>
+      <c r="P40" s="16">
+        <f>SUM(P38:P39)</f>
+        <v>12908</v>
+      </c>
+      <c r="Q40" s="16">
+        <f>SUM(Q38:Q39)</f>
+        <v>12559</v>
+      </c>
+      <c r="R40" s="24">
+        <f>SUM(R38:R39)</f>
+        <v>12626</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="14">
+        <v>5107</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6350</v>
+      </c>
+      <c r="F41" s="14">
+        <v>6199</v>
+      </c>
+      <c r="G41" s="14">
+        <v>6139</v>
+      </c>
+      <c r="H41" s="14">
+        <v>5902</v>
+      </c>
+      <c r="I41" s="14">
+        <v>5964</v>
+      </c>
+      <c r="J41" s="14">
+        <v>5813</v>
+      </c>
+      <c r="K41" s="14">
+        <v>6067</v>
+      </c>
+      <c r="L41" s="14">
+        <v>5328</v>
+      </c>
+      <c r="M41" s="14">
+        <v>6736</v>
+      </c>
+      <c r="N41" s="14">
+        <v>6753</v>
+      </c>
+      <c r="O41" s="14">
+        <v>6120</v>
+      </c>
+      <c r="P41" s="14">
+        <v>5405</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>5223</v>
+      </c>
+      <c r="R41" s="15">
+        <v>5202</v>
+      </c>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
+        <v>0</v>
+      </c>
+      <c r="K42" s="14">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
+        <v>1245</v>
+      </c>
+      <c r="M42" s="14">
+        <v>0</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="14">
+        <v>0</v>
+      </c>
+      <c r="P42" s="14">
+        <v>991</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>904</v>
+      </c>
+      <c r="R42" s="15">
+        <v>802</v>
+      </c>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="14">
+        <v>667</v>
+      </c>
+      <c r="E43" s="14">
+        <v>668</v>
+      </c>
+      <c r="F43" s="14">
+        <v>619</v>
+      </c>
+      <c r="G43" s="14">
+        <v>657</v>
+      </c>
+      <c r="H43" s="14">
+        <v>646</v>
+      </c>
+      <c r="I43" s="14">
+        <v>613</v>
+      </c>
+      <c r="J43" s="14">
+        <v>591</v>
+      </c>
+      <c r="K43" s="14">
+        <v>607</v>
+      </c>
+      <c r="L43" s="14">
+        <v>624</v>
+      </c>
+      <c r="M43" s="14">
+        <v>680</v>
+      </c>
+      <c r="N43" s="14">
+        <v>663</v>
+      </c>
+      <c r="O43" s="14">
+        <v>675</v>
+      </c>
+      <c r="P43" s="14">
+        <v>580</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>599</v>
+      </c>
+      <c r="R43" s="15">
+        <v>602</v>
+      </c>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0</v>
+      </c>
+      <c r="L44" s="14">
+        <v>34</v>
+      </c>
+      <c r="M44" s="14">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0</v>
+      </c>
+      <c r="O44" s="14">
+        <v>0</v>
+      </c>
+      <c r="P44" s="14">
+        <v>13</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>14</v>
+      </c>
+      <c r="R44" s="15">
+        <v>18</v>
+      </c>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="14">
+        <v>8458</v>
+      </c>
+      <c r="E45" s="14">
+        <v>8495</v>
+      </c>
+      <c r="F45" s="14">
+        <v>8384</v>
+      </c>
+      <c r="G45" s="14">
+        <v>8975</v>
+      </c>
+      <c r="H45" s="14">
+        <v>9224</v>
+      </c>
+      <c r="I45" s="14">
+        <v>10334</v>
+      </c>
+      <c r="J45" s="14">
+        <v>9304</v>
+      </c>
+      <c r="K45" s="14">
+        <v>8982</v>
+      </c>
+      <c r="L45" s="14">
+        <v>968</v>
+      </c>
+      <c r="M45" s="14">
+        <v>8380</v>
+      </c>
+      <c r="N45" s="14">
+        <v>7952</v>
+      </c>
+      <c r="O45" s="14">
+        <v>8317</v>
+      </c>
+      <c r="P45" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>525</v>
+      </c>
+      <c r="R45" s="15">
+        <v>500</v>
+      </c>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
+        <v>603</v>
+      </c>
+      <c r="M46" s="14">
+        <v>0</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0</v>
+      </c>
+      <c r="P46" s="14">
+        <v>576</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>556</v>
+      </c>
+      <c r="R46" s="15">
+        <v>527</v>
+      </c>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="14">
+        <v>108</v>
+      </c>
+      <c r="E47" s="14">
+        <v>85</v>
+      </c>
+      <c r="F47" s="14">
+        <v>66</v>
+      </c>
+      <c r="G47" s="14">
+        <v>45</v>
+      </c>
+      <c r="H47" s="14">
+        <v>36</v>
+      </c>
+      <c r="I47" s="14">
+        <v>48</v>
+      </c>
+      <c r="J47" s="14">
+        <v>53</v>
+      </c>
+      <c r="K47" s="14">
+        <v>61</v>
+      </c>
+      <c r="L47" s="14">
+        <v>43</v>
+      </c>
+      <c r="M47" s="14">
+        <v>40</v>
+      </c>
+      <c r="N47" s="14">
+        <v>46</v>
+      </c>
+      <c r="O47" s="14">
+        <v>41</v>
+      </c>
+      <c r="P47" s="14">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>68</v>
+      </c>
+      <c r="R47" s="15">
+        <v>46</v>
+      </c>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2098</v>
+      </c>
+      <c r="M48" s="14">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <v>0</v>
+      </c>
+      <c r="P48" s="14">
+        <v>1859</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>1986</v>
+      </c>
+      <c r="R48" s="15">
+        <v>2253</v>
+      </c>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <v>0</v>
+      </c>
+      <c r="K49" s="14">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="14">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14">
+        <v>0</v>
+      </c>
+      <c r="O49" s="14">
+        <v>0</v>
+      </c>
+      <c r="P49" s="14">
+        <v>654</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>940</v>
+      </c>
+      <c r="R49" s="15">
+        <v>867</v>
+      </c>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>0</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>0</v>
+      </c>
+      <c r="K50" s="14">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <v>4203</v>
+      </c>
+      <c r="M50" s="14">
+        <v>0</v>
+      </c>
+      <c r="N50" s="14">
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <v>0</v>
+      </c>
+      <c r="P50" s="14">
+        <v>3898</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>4020</v>
+      </c>
+      <c r="R50" s="15">
+        <v>3605</v>
+      </c>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="16">
+        <f t="shared" ref="D51:O51" si="58">SUM(D41:D50)</f>
+        <v>14340</v>
+      </c>
+      <c r="E51" s="16">
+        <f t="shared" si="58"/>
+        <v>15598</v>
+      </c>
+      <c r="F51" s="16">
+        <f t="shared" si="58"/>
+        <v>15268</v>
+      </c>
+      <c r="G51" s="16">
+        <f t="shared" si="58"/>
+        <v>15816</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="58"/>
+        <v>15808</v>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" si="58"/>
+        <v>16959</v>
+      </c>
+      <c r="J51" s="16">
+        <f t="shared" si="58"/>
+        <v>15761</v>
+      </c>
+      <c r="K51" s="16">
+        <f t="shared" si="58"/>
+        <v>15717</v>
+      </c>
+      <c r="L51" s="16">
+        <f t="shared" si="58"/>
+        <v>16146</v>
+      </c>
+      <c r="M51" s="16">
+        <f t="shared" si="58"/>
+        <v>15836</v>
+      </c>
+      <c r="N51" s="16">
+        <f t="shared" si="58"/>
+        <v>15414</v>
+      </c>
+      <c r="O51" s="16">
+        <f t="shared" si="58"/>
+        <v>15153</v>
+      </c>
+      <c r="P51" s="16">
+        <f>SUM(P41:P50)</f>
+        <v>14017</v>
+      </c>
+      <c r="Q51" s="16">
+        <f>SUM(Q41:Q50)</f>
+        <v>14835</v>
+      </c>
+      <c r="R51" s="24">
+        <f>SUM(R41:R50)</f>
+        <v>14422</v>
+      </c>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" ref="D52:O52" si="59">D40+D51</f>
+        <v>25760</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="59"/>
+        <v>26916</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="59"/>
+        <v>26970</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="59"/>
+        <v>27994</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="59"/>
+        <v>28410</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="59"/>
+        <v>29511</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="59"/>
+        <v>28298</v>
+      </c>
+      <c r="K52" s="12">
+        <f t="shared" si="59"/>
+        <v>28172</v>
+      </c>
+      <c r="L52" s="12">
+        <f t="shared" si="59"/>
+        <v>29172</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="59"/>
+        <v>28515</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="59"/>
+        <v>28079</v>
+      </c>
+      <c r="O52" s="12">
+        <f t="shared" si="59"/>
+        <v>28304</v>
+      </c>
+      <c r="P52" s="12">
+        <f>P40+P51</f>
+        <v>26925</v>
+      </c>
+      <c r="Q52" s="12">
+        <f>Q40+Q51</f>
+        <v>27394</v>
+      </c>
+      <c r="R52" s="13">
+        <f>R40+R51</f>
+        <v>27048</v>
+      </c>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" ref="D55:R55" si="60">D15</f>
+        <v>289</v>
+      </c>
+      <c r="E55" s="14">
         <f t="shared" si="60"/>
-        <v>26917</v>
-      </c>
-      <c r="F36" s="12">
+        <v>237</v>
+      </c>
+      <c r="F55" s="14">
         <f t="shared" si="60"/>
-        <v>26971</v>
-      </c>
-      <c r="G36" s="12">
+        <v>217</v>
+      </c>
+      <c r="G55" s="14">
         <f t="shared" si="60"/>
-        <v>27995</v>
-      </c>
-      <c r="H36" s="12">
+        <v>475</v>
+      </c>
+      <c r="H55" s="14">
         <f t="shared" si="60"/>
-        <v>28411</v>
-      </c>
-      <c r="I36" s="12">
+        <v>569</v>
+      </c>
+      <c r="I55" s="14">
         <f t="shared" si="60"/>
-        <v>29253</v>
-      </c>
-      <c r="J36" s="12">
+        <v>287</v>
+      </c>
+      <c r="J55" s="14">
         <f t="shared" si="60"/>
-        <v>28298</v>
-      </c>
-      <c r="K36" s="12">
+        <v>196</v>
+      </c>
+      <c r="K55" s="14">
         <f t="shared" si="60"/>
-        <v>28172</v>
-      </c>
-      <c r="L36" s="12">
+        <v>447</v>
+      </c>
+      <c r="L55" s="14">
         <f t="shared" si="60"/>
-        <v>29172</v>
-      </c>
-      <c r="M36" s="12">
+        <v>472</v>
+      </c>
+      <c r="M55" s="14">
         <f t="shared" si="60"/>
-        <v>28516</v>
-      </c>
-      <c r="N36" s="12">
+        <v>474</v>
+      </c>
+      <c r="N55" s="14">
         <f t="shared" si="60"/>
-        <v>28081</v>
-      </c>
-      <c r="O36" s="12">
-        <f>SUM(O28:O35)</f>
-        <v>28304</v>
-      </c>
-      <c r="P36" s="12">
-        <f>SUM(P28:P35)</f>
-        <v>26926</v>
-      </c>
-      <c r="Q36" s="13">
-        <f>SUM(Q28:Q35)</f>
-        <v>27194</v>
-      </c>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="14">
-        <v>11419</v>
-      </c>
-      <c r="E37" s="14">
-        <v>11317</v>
-      </c>
-      <c r="F37" s="14">
-        <v>11701</v>
-      </c>
-      <c r="G37" s="14">
-        <v>12176</v>
-      </c>
-      <c r="H37" s="14">
-        <v>12600</v>
-      </c>
-      <c r="I37" s="14">
-        <v>12550</v>
-      </c>
-      <c r="J37" s="14">
-        <v>12535</v>
-      </c>
-      <c r="K37" s="14">
-        <v>12454</v>
-      </c>
-      <c r="L37" s="14">
-        <v>13025</v>
-      </c>
-      <c r="M37" s="14">
-        <v>12678</v>
-      </c>
-      <c r="N37" s="14">
-        <v>12665</v>
-      </c>
-      <c r="O37" s="14">
-        <v>13128</v>
-      </c>
-      <c r="P37" s="14">
-        <v>12884</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>12534</v>
-      </c>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="14">
-        <v>1</v>
-      </c>
-      <c r="E38" s="14">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14">
-        <v>1</v>
-      </c>
-      <c r="G38" s="14">
-        <v>2</v>
-      </c>
-      <c r="H38" s="14">
-        <v>2</v>
-      </c>
-      <c r="I38" s="14">
-        <v>2</v>
-      </c>
-      <c r="J38" s="14">
-        <v>2</v>
-      </c>
-      <c r="K38" s="14">
-        <v>1</v>
-      </c>
-      <c r="L38" s="14">
-        <v>1</v>
-      </c>
-      <c r="M38" s="14">
-        <v>1</v>
-      </c>
-      <c r="N38" s="14">
-        <v>0</v>
-      </c>
-      <c r="O38" s="14">
-        <v>23</v>
-      </c>
-      <c r="P38" s="14">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="15">
+        <v>204</v>
+      </c>
+      <c r="O55" s="14">
+        <f t="shared" si="60"/>
+        <v>488</v>
+      </c>
+      <c r="P55" s="14">
+        <f t="shared" si="60"/>
+        <v>335</v>
+      </c>
+      <c r="Q55" s="14">
+        <f t="shared" si="60"/>
+        <v>225</v>
+      </c>
+      <c r="R55" s="15">
+        <f t="shared" si="60"/>
+        <v>202</v>
+      </c>
+      <c r="Z55" s="14">
+        <f t="shared" ref="Z55:AE55" si="61">Z15</f>
+        <v>1040</v>
+      </c>
+      <c r="AA55" s="14">
+        <f t="shared" si="61"/>
+        <v>1271</v>
+      </c>
+      <c r="AB55" s="14">
+        <f t="shared" si="61"/>
+        <v>1394</v>
+      </c>
+      <c r="AC55" s="14">
+        <f t="shared" si="61"/>
+        <v>1219</v>
+      </c>
+      <c r="AD55" s="14">
+        <f t="shared" si="61"/>
+        <v>1441</v>
+      </c>
+      <c r="AE55" s="14">
+        <f t="shared" si="61"/>
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="14">
+        <v>290</v>
+      </c>
+      <c r="E56" s="14">
+        <v>237</v>
+      </c>
+      <c r="F56" s="14">
+        <v>218</v>
+      </c>
+      <c r="G56" s="14">
+        <v>475</v>
+      </c>
+      <c r="H56" s="14">
+        <v>568</v>
+      </c>
+      <c r="I56" s="14">
+        <v>287</v>
+      </c>
+      <c r="J56" s="14">
+        <v>196</v>
+      </c>
+      <c r="K56" s="14">
+        <v>391</v>
+      </c>
+      <c r="L56" s="14">
+        <v>471</v>
+      </c>
+      <c r="M56" s="14">
+        <v>474</v>
+      </c>
+      <c r="N56" s="14">
+        <v>204</v>
+      </c>
+      <c r="O56" s="14">
+        <v>487</v>
+      </c>
+      <c r="P56" s="14">
+        <v>335</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>226</v>
+      </c>
+      <c r="R56" s="4">
+        <v>203</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>1039</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>1270</v>
+      </c>
+      <c r="AB56" s="14">
+        <v>1393</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>1220</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>1441</v>
+      </c>
+      <c r="AE56" s="14">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="14">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14">
+        <v>219</v>
+      </c>
+      <c r="M57" s="14">
+        <v>0</v>
+      </c>
+      <c r="N57" s="14">
+        <v>0</v>
+      </c>
+      <c r="O57" s="14">
+        <v>0</v>
+      </c>
+      <c r="P57" s="14">
+        <v>215</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>208</v>
+      </c>
+      <c r="R57" s="4">
+        <v>206</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>958</v>
+      </c>
+      <c r="AE57" s="14">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="14">
+        <v>351</v>
+      </c>
+      <c r="E58" s="14">
+        <v>392</v>
+      </c>
+      <c r="F58" s="14">
+        <v>212</v>
+      </c>
+      <c r="G58" s="14">
+        <v>50</v>
+      </c>
+      <c r="H58" s="14">
+        <v>215</v>
+      </c>
+      <c r="I58" s="14">
+        <v>364</v>
+      </c>
+      <c r="J58" s="14">
+        <v>267</v>
+      </c>
+      <c r="K58" s="14">
+        <v>195</v>
+      </c>
+      <c r="L58" s="14">
+        <v>-20</v>
+      </c>
+      <c r="M58" s="14">
+        <v>103</v>
+      </c>
+      <c r="N58" s="14">
+        <v>273</v>
+      </c>
+      <c r="O58" s="14">
+        <v>363</v>
+      </c>
+      <c r="P58" s="14">
+        <v>14</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>11</v>
+      </c>
+      <c r="R58" s="4">
+        <v>22</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>880</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>460</v>
+      </c>
+      <c r="AB58" s="14">
+        <v>874</v>
+      </c>
+      <c r="AC58" s="14">
+        <v>1005</v>
+      </c>
+      <c r="AD58" s="14">
+        <v>82</v>
+      </c>
+      <c r="AE58" s="14">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="16">
-        <f t="shared" ref="D39:O39" si="61">SUM(D37:D38)</f>
-        <v>11420</v>
-      </c>
-      <c r="E39" s="16">
-        <f t="shared" si="61"/>
-        <v>11318</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="61"/>
-        <v>11702</v>
-      </c>
-      <c r="G39" s="16">
-        <f t="shared" si="61"/>
-        <v>12178</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="61"/>
-        <v>12602</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" si="61"/>
-        <v>12552</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="61"/>
-        <v>12537</v>
-      </c>
-      <c r="K39" s="16">
-        <f t="shared" si="61"/>
-        <v>12455</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="61"/>
-        <v>13026</v>
-      </c>
-      <c r="M39" s="16">
-        <f t="shared" si="61"/>
-        <v>12679</v>
-      </c>
-      <c r="N39" s="16">
-        <f t="shared" si="61"/>
-        <v>12665</v>
-      </c>
-      <c r="O39" s="16">
-        <f t="shared" si="61"/>
-        <v>13151</v>
-      </c>
-      <c r="P39" s="16">
-        <f>SUM(P37:P38)</f>
-        <v>12908</v>
-      </c>
-      <c r="Q39" s="24">
-        <f>SUM(Q37:Q38)</f>
-        <v>12559</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="14">
-        <v>5107</v>
-      </c>
-      <c r="E40" s="14">
-        <v>6350</v>
-      </c>
-      <c r="F40" s="14">
-        <v>6199</v>
-      </c>
-      <c r="G40" s="14">
-        <v>6139</v>
-      </c>
-      <c r="H40" s="14">
-        <v>5902</v>
-      </c>
-      <c r="I40" s="14">
-        <v>5964</v>
-      </c>
-      <c r="J40" s="14">
-        <v>5813</v>
-      </c>
-      <c r="K40" s="14">
-        <v>6067</v>
-      </c>
-      <c r="L40" s="14">
-        <v>5328</v>
-      </c>
-      <c r="M40" s="14">
-        <v>6736</v>
-      </c>
-      <c r="N40" s="14">
-        <v>6753</v>
-      </c>
-      <c r="O40" s="14">
-        <v>6120</v>
-      </c>
-      <c r="P40" s="14">
-        <v>5405</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>5223</v>
-      </c>
-    </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14">
-        <v>0</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0</v>
-      </c>
-      <c r="L41" s="14">
-        <v>1245</v>
-      </c>
-      <c r="M41" s="14">
-        <v>0</v>
-      </c>
-      <c r="N41" s="14">
-        <v>0</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-      <c r="P41" s="14">
-        <v>991</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="14">
-        <v>667</v>
-      </c>
-      <c r="E42" s="14">
-        <v>668</v>
-      </c>
-      <c r="F42" s="14">
-        <v>619</v>
-      </c>
-      <c r="G42" s="14">
-        <v>657</v>
-      </c>
-      <c r="H42" s="14">
-        <v>646</v>
-      </c>
-      <c r="I42" s="14">
-        <v>613</v>
-      </c>
-      <c r="J42" s="14">
-        <v>591</v>
-      </c>
-      <c r="K42" s="14">
-        <v>607</v>
-      </c>
-      <c r="L42" s="14">
-        <v>624</v>
-      </c>
-      <c r="M42" s="14">
-        <v>680</v>
-      </c>
-      <c r="N42" s="14">
-        <v>663</v>
-      </c>
-      <c r="O42" s="14">
-        <v>675</v>
-      </c>
-      <c r="P42" s="14">
-        <v>580</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="14">
-        <v>0</v>
-      </c>
-      <c r="E43" s="14">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14">
-        <v>0</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0</v>
-      </c>
-      <c r="L43" s="14">
-        <v>34</v>
-      </c>
-      <c r="M43" s="14">
-        <v>0</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-      <c r="P43" s="14">
-        <v>13</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="14">
-        <v>8458</v>
-      </c>
-      <c r="E44" s="14">
-        <v>8495</v>
-      </c>
-      <c r="F44" s="14">
-        <v>8384</v>
-      </c>
-      <c r="G44" s="14">
-        <v>8975</v>
-      </c>
-      <c r="H44" s="14">
-        <v>9224</v>
-      </c>
-      <c r="I44" s="14">
-        <v>10334</v>
-      </c>
-      <c r="J44" s="14">
-        <v>9304</v>
-      </c>
-      <c r="K44" s="14">
-        <v>8982</v>
-      </c>
-      <c r="L44" s="14">
-        <v>968</v>
-      </c>
-      <c r="M44" s="14">
-        <v>8380</v>
-      </c>
-      <c r="N44" s="14">
-        <v>7952</v>
-      </c>
-      <c r="O44" s="14">
-        <v>8317</v>
-      </c>
-      <c r="P44" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="14">
-        <v>0</v>
-      </c>
-      <c r="E45" s="14">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14">
-        <v>0</v>
-      </c>
-      <c r="J45" s="14">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14">
-        <v>603</v>
-      </c>
-      <c r="M45" s="14">
-        <v>0</v>
-      </c>
-      <c r="N45" s="14">
-        <v>0</v>
-      </c>
-      <c r="O45" s="14">
-        <v>0</v>
-      </c>
-      <c r="P45" s="14">
-        <v>576</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="14">
-        <v>108</v>
-      </c>
-      <c r="E46" s="14">
-        <v>85</v>
-      </c>
-      <c r="F46" s="14">
-        <v>66</v>
-      </c>
-      <c r="G46" s="14">
-        <v>45</v>
-      </c>
-      <c r="H46" s="14">
-        <v>36</v>
-      </c>
-      <c r="I46" s="14">
-        <v>48</v>
-      </c>
-      <c r="J46" s="14">
-        <v>53</v>
-      </c>
-      <c r="K46" s="14">
-        <v>61</v>
-      </c>
-      <c r="L46" s="14">
-        <v>43</v>
-      </c>
-      <c r="M46" s="14">
-        <v>40</v>
-      </c>
-      <c r="N46" s="14">
-        <v>46</v>
-      </c>
-      <c r="O46" s="14">
-        <v>41</v>
-      </c>
-      <c r="P46" s="14">
-        <v>41</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
-        <v>0</v>
-      </c>
-      <c r="G47" s="14">
-        <v>0</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14">
-        <v>0</v>
-      </c>
-      <c r="J47" s="14">
-        <v>0</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0</v>
-      </c>
-      <c r="L47" s="14">
-        <v>2098</v>
-      </c>
-      <c r="M47" s="14">
-        <v>0</v>
-      </c>
-      <c r="N47" s="14">
-        <v>0</v>
-      </c>
-      <c r="O47" s="14">
-        <v>0</v>
-      </c>
-      <c r="P47" s="14">
-        <v>1859</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" s="14">
-        <v>0</v>
-      </c>
-      <c r="E48" s="14">
-        <v>0</v>
-      </c>
-      <c r="F48" s="14">
-        <v>0</v>
-      </c>
-      <c r="G48" s="14">
-        <v>0</v>
-      </c>
-      <c r="H48" s="14">
-        <v>0</v>
-      </c>
-      <c r="I48" s="14">
-        <v>0</v>
-      </c>
-      <c r="J48" s="14">
-        <v>0</v>
-      </c>
-      <c r="K48" s="14">
-        <v>0</v>
-      </c>
-      <c r="L48" s="14">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="14">
-        <v>0</v>
-      </c>
-      <c r="N48" s="14">
-        <v>0</v>
-      </c>
-      <c r="O48" s="14">
-        <v>0</v>
-      </c>
-      <c r="P48" s="14">
-        <v>654</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="14">
-        <v>0</v>
-      </c>
-      <c r="E49" s="14">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14">
-        <v>0</v>
-      </c>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14">
-        <v>0</v>
-      </c>
-      <c r="I49" s="14">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
-        <v>0</v>
-      </c>
-      <c r="K49" s="14">
-        <v>0</v>
-      </c>
-      <c r="L49" s="14">
-        <v>4203</v>
-      </c>
-      <c r="M49" s="14">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14">
-        <v>0</v>
-      </c>
-      <c r="O49" s="14">
-        <v>0</v>
-      </c>
-      <c r="P49" s="14">
-        <v>3898</v>
-      </c>
-      <c r="Q49" s="15">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="16">
-        <f t="shared" ref="D50:O50" si="62">SUM(D40:D49)</f>
-        <v>14340</v>
-      </c>
-      <c r="E50" s="16">
-        <f t="shared" si="62"/>
-        <v>15598</v>
-      </c>
-      <c r="F50" s="16">
-        <f t="shared" si="62"/>
-        <v>15268</v>
-      </c>
-      <c r="G50" s="16">
-        <f t="shared" si="62"/>
-        <v>15816</v>
-      </c>
-      <c r="H50" s="16">
-        <f t="shared" si="62"/>
-        <v>15808</v>
-      </c>
-      <c r="I50" s="16">
-        <f t="shared" si="62"/>
-        <v>16959</v>
-      </c>
-      <c r="J50" s="16">
-        <f t="shared" si="62"/>
-        <v>15761</v>
-      </c>
-      <c r="K50" s="16">
-        <f t="shared" si="62"/>
-        <v>15717</v>
-      </c>
-      <c r="L50" s="16">
-        <f t="shared" si="62"/>
-        <v>16146</v>
-      </c>
-      <c r="M50" s="16">
-        <f t="shared" si="62"/>
-        <v>15836</v>
-      </c>
-      <c r="N50" s="16">
-        <f t="shared" si="62"/>
-        <v>15414</v>
-      </c>
-      <c r="O50" s="16">
-        <f t="shared" si="62"/>
-        <v>15153</v>
-      </c>
-      <c r="P50" s="16">
-        <f>SUM(P40:P49)</f>
-        <v>14017</v>
-      </c>
-      <c r="Q50" s="24">
-        <f>SUM(Q40:Q49)</f>
-        <v>14835</v>
-      </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:O51" si="63">D39+D50</f>
-        <v>25760</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="63"/>
-        <v>26916</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="63"/>
-        <v>26970</v>
-      </c>
-      <c r="G51" s="12">
-        <f t="shared" si="63"/>
-        <v>27994</v>
-      </c>
-      <c r="H51" s="12">
-        <f t="shared" si="63"/>
-        <v>28410</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="63"/>
-        <v>29511</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="63"/>
-        <v>28298</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="63"/>
-        <v>28172</v>
-      </c>
-      <c r="L51" s="12">
-        <f t="shared" si="63"/>
-        <v>29172</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="63"/>
-        <v>28515</v>
-      </c>
-      <c r="N51" s="12">
-        <f t="shared" si="63"/>
-        <v>28079</v>
-      </c>
-      <c r="O51" s="12">
-        <f t="shared" si="63"/>
-        <v>28304</v>
-      </c>
-      <c r="P51" s="12">
-        <f>P39+P50</f>
-        <v>26925</v>
-      </c>
-      <c r="Q51" s="13">
-        <f>Q39+Q50</f>
-        <v>27394</v>
-      </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" ref="D54:Q54" si="64">D15</f>
-        <v>289</v>
-      </c>
-      <c r="E54" s="14">
-        <f t="shared" si="64"/>
-        <v>237</v>
-      </c>
-      <c r="F54" s="14">
-        <f t="shared" si="64"/>
-        <v>217</v>
-      </c>
-      <c r="G54" s="14">
-        <f t="shared" si="64"/>
-        <v>475</v>
-      </c>
-      <c r="H54" s="14">
-        <f t="shared" si="64"/>
-        <v>569</v>
-      </c>
-      <c r="I54" s="14">
-        <f t="shared" si="64"/>
-        <v>287</v>
-      </c>
-      <c r="J54" s="14">
-        <f t="shared" si="64"/>
-        <v>196</v>
-      </c>
-      <c r="K54" s="14">
-        <f t="shared" si="64"/>
-        <v>447</v>
-      </c>
-      <c r="L54" s="14">
-        <f t="shared" si="64"/>
-        <v>472</v>
-      </c>
-      <c r="M54" s="14">
-        <f t="shared" si="64"/>
-        <v>474</v>
-      </c>
-      <c r="N54" s="14">
-        <f t="shared" si="64"/>
-        <v>204</v>
-      </c>
-      <c r="O54" s="14">
-        <f t="shared" si="64"/>
-        <v>488</v>
-      </c>
-      <c r="P54" s="14">
-        <f t="shared" si="64"/>
-        <v>335</v>
-      </c>
-      <c r="Q54" s="15">
-        <f t="shared" si="64"/>
-        <v>225</v>
-      </c>
-      <c r="Y54" s="14">
-        <f t="shared" ref="Y54:AD54" si="65">Y15</f>
-        <v>1040</v>
-      </c>
-      <c r="Z54" s="14">
-        <f t="shared" si="65"/>
-        <v>1271</v>
-      </c>
-      <c r="AA54" s="14">
-        <f t="shared" si="65"/>
-        <v>1394</v>
-      </c>
-      <c r="AB54" s="14">
-        <f t="shared" si="65"/>
-        <v>1219</v>
-      </c>
-      <c r="AC54" s="14">
-        <f t="shared" si="65"/>
-        <v>1441</v>
-      </c>
-      <c r="AD54" s="14">
-        <f t="shared" si="65"/>
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="14">
-        <v>290</v>
-      </c>
-      <c r="E55" s="14">
-        <v>237</v>
-      </c>
-      <c r="F55" s="14">
-        <v>218</v>
-      </c>
-      <c r="G55" s="14">
-        <v>475</v>
-      </c>
-      <c r="H55" s="14">
-        <v>568</v>
-      </c>
-      <c r="I55" s="14">
-        <v>287</v>
-      </c>
-      <c r="J55" s="14">
-        <v>196</v>
-      </c>
-      <c r="K55" s="14">
-        <v>391</v>
-      </c>
-      <c r="L55" s="14">
-        <v>471</v>
-      </c>
-      <c r="M55" s="14">
-        <v>474</v>
-      </c>
-      <c r="N55" s="14">
-        <v>204</v>
-      </c>
-      <c r="O55" s="14">
-        <v>487</v>
-      </c>
-      <c r="P55" s="14">
-        <v>335</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>226</v>
-      </c>
-      <c r="Y55" s="14">
-        <v>1039</v>
-      </c>
-      <c r="Z55" s="14">
-        <v>1270</v>
-      </c>
-      <c r="AA55" s="14">
-        <v>1393</v>
-      </c>
-      <c r="AB55" s="14">
-        <v>1220</v>
-      </c>
-      <c r="AC55" s="14">
-        <v>1441</v>
-      </c>
-      <c r="AD55" s="14">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="14">
-        <v>0</v>
-      </c>
-      <c r="E56" s="14">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14">
-        <v>0</v>
-      </c>
-      <c r="G56" s="14">
-        <v>0</v>
-      </c>
-      <c r="H56" s="14">
-        <v>0</v>
-      </c>
-      <c r="I56" s="14">
-        <v>0</v>
-      </c>
-      <c r="J56" s="14">
-        <v>0</v>
-      </c>
-      <c r="K56" s="14">
-        <v>0</v>
-      </c>
-      <c r="L56" s="14">
-        <v>219</v>
-      </c>
-      <c r="M56" s="14">
-        <v>0</v>
-      </c>
-      <c r="N56" s="14">
-        <v>0</v>
-      </c>
-      <c r="O56" s="14">
-        <v>0</v>
-      </c>
-      <c r="P56" s="14">
-        <v>215</v>
-      </c>
-      <c r="Q56" s="15">
-        <v>208</v>
-      </c>
-      <c r="Y56" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="14">
-        <v>958</v>
-      </c>
-      <c r="AD56" s="14">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="14">
-        <v>351</v>
-      </c>
-      <c r="E57" s="14">
-        <v>392</v>
-      </c>
-      <c r="F57" s="14">
-        <v>212</v>
-      </c>
-      <c r="G57" s="14">
-        <v>50</v>
-      </c>
-      <c r="H57" s="14">
-        <v>215</v>
-      </c>
-      <c r="I57" s="14">
-        <v>364</v>
-      </c>
-      <c r="J57" s="14">
-        <v>267</v>
-      </c>
-      <c r="K57" s="14">
-        <v>195</v>
-      </c>
-      <c r="L57" s="14">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="14">
+        <v>-142</v>
+      </c>
+      <c r="E59" s="14">
+        <v>-79</v>
+      </c>
+      <c r="F59" s="14">
         <v>-20</v>
       </c>
-      <c r="M57" s="14">
-        <v>103</v>
-      </c>
-      <c r="N57" s="14">
-        <v>273</v>
-      </c>
-      <c r="O57" s="14">
-        <v>363</v>
-      </c>
-      <c r="P57" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q57" s="15">
-        <v>11</v>
-      </c>
-      <c r="Y57" s="14">
-        <v>880</v>
-      </c>
-      <c r="Z57" s="14">
-        <v>460</v>
-      </c>
-      <c r="AA57" s="14">
-        <v>874</v>
-      </c>
-      <c r="AB57" s="14">
-        <v>1005</v>
-      </c>
-      <c r="AC57" s="14">
-        <v>82</v>
-      </c>
-      <c r="AD57" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C58" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="14">
-        <v>-142</v>
-      </c>
-      <c r="E58" s="14">
-        <v>-79</v>
-      </c>
-      <c r="F58" s="14">
-        <v>-20</v>
-      </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>-145</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H59" s="14">
         <v>-120</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I59" s="14">
         <v>-136</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J59" s="14">
         <v>-37</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K59" s="14">
         <v>-140</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L59" s="14">
         <v>-85</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="14">
         <v>-97</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N59" s="14">
         <v>-110</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O59" s="14">
         <v>-87</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P59" s="14">
         <v>-98</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q59" s="14">
         <v>-95</v>
       </c>
-      <c r="Y58" s="14">
+      <c r="R59" s="4">
+        <v>-118</v>
+      </c>
+      <c r="Z59" s="14">
         <v>-284</v>
       </c>
-      <c r="Z58" s="14">
+      <c r="AA59" s="14">
         <v>-163</v>
       </c>
-      <c r="AA58" s="14">
+      <c r="AB59" s="14">
         <v>-229</v>
       </c>
-      <c r="AB58" s="14">
+      <c r="AC59" s="14">
         <v>-385</v>
       </c>
-      <c r="AC58" s="14">
+      <c r="AD59" s="14">
         <v>-433</v>
       </c>
-      <c r="AD58" s="14">
+      <c r="AE59" s="14">
         <v>-379</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C59" s="2" t="s">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <v>-235</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E60" s="14">
         <v>-260</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>-323</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>21</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>-609</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>-11</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J60" s="14">
         <v>-148</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K60" s="14">
         <v>512</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L60" s="14">
         <v>-477</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M60" s="14">
         <v>-59</v>
       </c>
-      <c r="N59" s="14">
+      <c r="N60" s="14">
         <v>-205</v>
       </c>
-      <c r="O59" s="14">
+      <c r="O60" s="14">
         <v>540</v>
       </c>
-      <c r="P59" s="14">
+      <c r="P60" s="14">
         <v>-348</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q60" s="14">
         <v>4</v>
       </c>
-      <c r="Y59" s="14">
+      <c r="R60" s="4">
+        <f>253-148</f>
+        <v>105</v>
+      </c>
+      <c r="Z60" s="14">
         <f>99+259</f>
         <v>358</v>
       </c>
-      <c r="Z59" s="14">
+      <c r="AA60" s="14">
         <f>445+73</f>
         <v>518</v>
       </c>
-      <c r="AA59" s="14">
+      <c r="AB60" s="14">
         <f>-980+440</f>
         <v>-540</v>
       </c>
-      <c r="AB59" s="14">
+      <c r="AC60" s="14">
         <f>-996+198</f>
         <v>-798</v>
       </c>
-      <c r="AC59" s="14">
+      <c r="AD60" s="14">
         <f>-325+70</f>
         <v>-255</v>
       </c>
-      <c r="AD59" s="14">
+      <c r="AE60" s="14">
         <f>-115-86</f>
         <v>-201</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="12">
-        <f t="shared" ref="D60:O60" si="66">SUM(D55:D59)</f>
+      <c r="D61" s="12">
+        <f t="shared" ref="D61:O61" si="62">SUM(D56:D60)</f>
         <v>264</v>
       </c>
-      <c r="E60" s="12">
-        <f t="shared" si="66"/>
+      <c r="E61" s="12">
+        <f t="shared" si="62"/>
         <v>290</v>
       </c>
-      <c r="F60" s="12">
-        <f t="shared" si="66"/>
+      <c r="F61" s="12">
+        <f t="shared" si="62"/>
         <v>87</v>
       </c>
-      <c r="G60" s="12">
-        <f t="shared" si="66"/>
+      <c r="G61" s="12">
+        <f t="shared" si="62"/>
         <v>401</v>
       </c>
-      <c r="H60" s="12">
-        <f t="shared" si="66"/>
+      <c r="H61" s="12">
+        <f t="shared" si="62"/>
         <v>54</v>
       </c>
-      <c r="I60" s="12">
-        <f t="shared" si="66"/>
+      <c r="I61" s="12">
+        <f t="shared" si="62"/>
         <v>504</v>
       </c>
-      <c r="J60" s="12">
-        <f t="shared" si="66"/>
+      <c r="J61" s="12">
+        <f t="shared" si="62"/>
         <v>278</v>
       </c>
-      <c r="K60" s="12">
-        <f t="shared" si="66"/>
+      <c r="K61" s="12">
+        <f t="shared" si="62"/>
         <v>958</v>
       </c>
-      <c r="L60" s="12">
-        <f t="shared" si="66"/>
+      <c r="L61" s="12">
+        <f t="shared" si="62"/>
         <v>108</v>
       </c>
-      <c r="M60" s="12">
-        <f t="shared" si="66"/>
+      <c r="M61" s="12">
+        <f t="shared" si="62"/>
         <v>421</v>
       </c>
-      <c r="N60" s="12">
-        <f t="shared" si="66"/>
+      <c r="N61" s="12">
+        <f t="shared" si="62"/>
         <v>162</v>
       </c>
-      <c r="O60" s="12">
-        <f t="shared" si="66"/>
+      <c r="O61" s="12">
+        <f t="shared" si="62"/>
         <v>1303</v>
       </c>
-      <c r="P60" s="12">
-        <f>SUM(P55:P59)</f>
+      <c r="P61" s="12">
+        <f>SUM(P56:P60)</f>
         <v>118</v>
       </c>
-      <c r="Q60" s="13">
-        <f>SUM(Q55:Q59)</f>
+      <c r="Q61" s="12">
+        <f>SUM(Q56:Q60)</f>
         <v>354</v>
       </c>
-      <c r="Y60" s="12">
-        <f t="shared" ref="Y60:AC60" si="67">SUM(Y55:Y59)</f>
+      <c r="R61" s="13">
+        <f>SUM(R56:R60)</f>
+        <v>418</v>
+      </c>
+      <c r="Z61" s="12">
+        <f t="shared" ref="Z61:AD61" si="63">SUM(Z56:Z60)</f>
         <v>1993</v>
       </c>
-      <c r="Z60" s="12">
-        <f t="shared" si="67"/>
+      <c r="AA61" s="12">
+        <f t="shared" si="63"/>
         <v>2085</v>
       </c>
-      <c r="AA60" s="12">
-        <f t="shared" si="67"/>
+      <c r="AB61" s="12">
+        <f t="shared" si="63"/>
         <v>1498</v>
       </c>
-      <c r="AB60" s="12">
-        <f t="shared" si="67"/>
+      <c r="AC61" s="12">
+        <f t="shared" si="63"/>
         <v>1042</v>
       </c>
-      <c r="AC60" s="12">
-        <f t="shared" si="67"/>
+      <c r="AD61" s="12">
+        <f t="shared" si="63"/>
         <v>1793</v>
       </c>
-      <c r="AD60" s="12">
-        <f>SUM(AD55:AD59)</f>
+      <c r="AE61" s="12">
+        <f>SUM(AE56:AE60)</f>
         <v>1994</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
-      <c r="Y61" s="14"/>
-      <c r="Z61" s="14"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
-      <c r="AD61" s="14"/>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C62" s="2" t="s">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AC62" s="14"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <v>-720</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E63" s="14">
         <v>-28</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F63" s="14">
         <v>-117</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>-8</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H63" s="14">
         <v>-168</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I63" s="14">
         <v>-381</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J63" s="14">
         <v>-68</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K63" s="14">
         <v>-139</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L63" s="14">
         <f>-84-29</f>
         <v>-113</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="14">
         <v>-133</v>
       </c>
-      <c r="N62" s="14">
+      <c r="N63" s="14">
         <v>-46</v>
       </c>
-      <c r="O62" s="14">
+      <c r="O63" s="14">
         <v>-103</v>
       </c>
-      <c r="P62" s="14">
+      <c r="P63" s="14">
         <f>-8-20</f>
         <v>-28</v>
       </c>
-      <c r="Q62" s="15">
+      <c r="Q63" s="14">
         <v>-32</v>
       </c>
-      <c r="Y62" s="14">
+      <c r="R63" s="4">
+        <f>-217-18</f>
+        <v>-235</v>
+      </c>
+      <c r="Z63" s="14">
         <f>-136+7-67-4891+1-310-106</f>
         <v>-5502</v>
       </c>
-      <c r="Z62" s="14">
+      <c r="AA63" s="14">
         <f>-81+8-101-41-5-108-18+1</f>
         <v>-345</v>
       </c>
-      <c r="AA62" s="14">
+      <c r="AB63" s="14">
         <f>-87+44-27+1-955-204+15</f>
         <v>-1213</v>
       </c>
-      <c r="AB62" s="14">
+      <c r="AC63" s="14">
         <f>-112+105-39-813+41-44-11</f>
         <v>-873</v>
       </c>
-      <c r="AC62" s="14">
+      <c r="AD63" s="14">
         <f>-147+3-29-357-107-111-9</f>
         <v>-757</v>
       </c>
-      <c r="AD62" s="14">
+      <c r="AE63" s="14">
         <f>-107+9-26-86-13-101-60</f>
         <v>-384</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C63" s="2" t="s">
+    <row r="64" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="14">
-        <v>0</v>
-      </c>
-      <c r="E63" s="14">
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
-        <v>0</v>
-      </c>
-      <c r="G63" s="14">
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
-        <v>0</v>
-      </c>
-      <c r="I63" s="14">
-        <v>0</v>
-      </c>
-      <c r="J63" s="14">
-        <v>0</v>
-      </c>
-      <c r="K63" s="14">
-        <v>0</v>
-      </c>
-      <c r="L63" s="14">
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="14">
+        <v>0</v>
+      </c>
+      <c r="L64" s="14">
         <v>10</v>
       </c>
-      <c r="M63" s="14">
-        <v>0</v>
-      </c>
-      <c r="N63" s="14">
-        <v>0</v>
-      </c>
-      <c r="O63" s="14">
-        <v>0</v>
-      </c>
-      <c r="P63" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="15">
+      <c r="M64" s="14">
+        <v>0</v>
+      </c>
+      <c r="N64" s="14">
+        <v>0</v>
+      </c>
+      <c r="O64" s="14">
+        <v>0</v>
+      </c>
+      <c r="P64" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="14">
         <v>11</v>
       </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="12">
-        <f t="shared" ref="D64:O64" si="68">SUM(D62:D63)</f>
-        <v>-720</v>
-      </c>
-      <c r="E64" s="12">
-        <f ca="1">SUM(E62:E66)</f>
-        <v>-152</v>
-      </c>
-      <c r="F64" s="12">
-        <f t="shared" si="68"/>
-        <v>-117</v>
-      </c>
-      <c r="G64" s="12">
-        <f t="shared" si="68"/>
-        <v>-8</v>
-      </c>
-      <c r="H64" s="12">
-        <f t="shared" si="68"/>
-        <v>-168</v>
-      </c>
-      <c r="I64" s="12">
-        <f ca="1">SUM(I62:I66)</f>
-        <v>-493</v>
-      </c>
-      <c r="J64" s="12">
-        <f t="shared" si="68"/>
-        <v>-68</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="68"/>
-        <v>-139</v>
-      </c>
-      <c r="L64" s="12">
-        <f t="shared" si="68"/>
-        <v>-103</v>
-      </c>
-      <c r="M64" s="12">
-        <f t="shared" si="68"/>
-        <v>-133</v>
-      </c>
-      <c r="N64" s="12">
-        <f t="shared" si="68"/>
-        <v>-46</v>
-      </c>
-      <c r="O64" s="12">
-        <f t="shared" si="68"/>
-        <v>-103</v>
-      </c>
-      <c r="P64" s="12">
-        <f>SUM(P62:P63)</f>
-        <v>-28</v>
-      </c>
-      <c r="Q64" s="13">
-        <f>SUM(Q62:Q63)</f>
-        <v>-21</v>
-      </c>
-      <c r="R64" s="1"/>
+      <c r="R64" s="4">
+        <v>8</v>
+      </c>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="12">
-        <f t="shared" ref="Y64:AC64" si="69">SUM(Y62:Y63)</f>
-        <v>-5502</v>
-      </c>
-      <c r="Z64" s="12">
-        <f t="shared" si="69"/>
-        <v>-345</v>
-      </c>
-      <c r="AA64" s="12">
-        <f t="shared" si="69"/>
-        <v>-1213</v>
-      </c>
-      <c r="AB64" s="12">
-        <f t="shared" si="69"/>
-        <v>-873</v>
-      </c>
-      <c r="AC64" s="12">
-        <f t="shared" si="69"/>
-        <v>-757</v>
-      </c>
-      <c r="AD64" s="12">
-        <f>SUM(AD62:AD63)</f>
-        <v>-384</v>
-      </c>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="12">
+        <f t="shared" ref="D65:O65" si="64">SUM(D63:D64)</f>
+        <v>-720</v>
+      </c>
+      <c r="E65" s="12">
+        <f ca="1">SUM(E63:E67)</f>
+        <v>-152</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="64"/>
+        <v>-117</v>
+      </c>
+      <c r="G65" s="12">
+        <f t="shared" si="64"/>
+        <v>-8</v>
+      </c>
+      <c r="H65" s="12">
+        <f t="shared" si="64"/>
+        <v>-168</v>
+      </c>
+      <c r="I65" s="12">
+        <f ca="1">SUM(I63:I67)</f>
+        <v>-493</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="64"/>
+        <v>-68</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="64"/>
+        <v>-139</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" si="64"/>
+        <v>-103</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="64"/>
+        <v>-133</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="64"/>
+        <v>-46</v>
+      </c>
+      <c r="O65" s="12">
+        <f t="shared" si="64"/>
+        <v>-103</v>
+      </c>
+      <c r="P65" s="12">
+        <f>SUM(P63:P64)</f>
+        <v>-28</v>
+      </c>
+      <c r="Q65" s="12">
+        <f t="shared" ref="Q65:R65" si="65">SUM(Q63:Q64)</f>
+        <v>-21</v>
+      </c>
+      <c r="R65" s="13">
+        <f t="shared" si="65"/>
+        <v>-227</v>
+      </c>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-    </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="14">
-        <v>-711</v>
-      </c>
-      <c r="E66" s="14">
-        <v>-124</v>
-      </c>
-      <c r="F66" s="14">
-        <v>-230</v>
-      </c>
-      <c r="G66" s="14">
-        <v>-195</v>
-      </c>
-      <c r="H66" s="14">
-        <v>201</v>
-      </c>
-      <c r="I66" s="14">
-        <v>-112</v>
-      </c>
-      <c r="J66" s="14">
-        <v>-478</v>
-      </c>
-      <c r="K66" s="14">
-        <v>-553</v>
-      </c>
-      <c r="L66" s="14">
-        <v>561</v>
-      </c>
-      <c r="M66" s="14">
-        <v>-1049</v>
-      </c>
-      <c r="N66" s="14">
-        <v>-84</v>
-      </c>
-      <c r="O66" s="14">
-        <v>-754</v>
-      </c>
-      <c r="P66" s="14">
-        <v>-212</v>
-      </c>
-      <c r="Q66" s="15">
-        <v>313</v>
-      </c>
-      <c r="R66" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="12">
+        <f t="shared" ref="Z65:AD65" si="66">SUM(Z63:Z64)</f>
+        <v>-5502</v>
+      </c>
+      <c r="AA65" s="12">
+        <f t="shared" si="66"/>
+        <v>-345</v>
+      </c>
+      <c r="AB65" s="12">
+        <f t="shared" si="66"/>
+        <v>-1213</v>
+      </c>
+      <c r="AC65" s="12">
+        <f t="shared" si="66"/>
+        <v>-873</v>
+      </c>
+      <c r="AD65" s="12">
+        <f t="shared" si="66"/>
+        <v>-757</v>
+      </c>
+      <c r="AE65" s="12">
+        <f>SUM(AE63:AE64)</f>
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="66" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="52"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="14">
-        <f>3967+3035-1881</f>
-        <v>5121</v>
-      </c>
-      <c r="Z66" s="14">
-        <f>849-1836</f>
-        <v>-987</v>
-      </c>
-      <c r="AA66" s="14">
-        <f>2139-1373</f>
-        <v>766</v>
-      </c>
-      <c r="AB66" s="14">
-        <f>1785-2117</f>
-        <v>-332</v>
-      </c>
-      <c r="AC66" s="14">
-        <f>4372-3914</f>
-        <v>458</v>
-      </c>
-      <c r="AD66" s="14">
-        <f>2174-2252</f>
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+    </row>
+    <row r="67" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D67" s="14">
-        <v>0</v>
+        <v>-711</v>
       </c>
       <c r="E67" s="14">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="F67" s="14">
-        <v>0</v>
+        <v>-230</v>
       </c>
       <c r="G67" s="14">
-        <v>0</v>
+        <v>-195</v>
       </c>
       <c r="H67" s="14">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I67" s="14">
-        <v>0</v>
+        <v>-112</v>
       </c>
       <c r="J67" s="14">
-        <v>0</v>
+        <v>-478</v>
       </c>
       <c r="K67" s="14">
-        <v>0</v>
+        <v>-553</v>
       </c>
       <c r="L67" s="14">
-        <v>-143</v>
+        <v>561</v>
       </c>
       <c r="M67" s="14">
-        <v>0</v>
+        <v>-1049</v>
       </c>
       <c r="N67" s="14">
-        <v>0</v>
+        <v>-84</v>
       </c>
       <c r="O67" s="14">
-        <v>0</v>
+        <v>-754</v>
       </c>
       <c r="P67" s="14">
-        <v>-148</v>
-      </c>
-      <c r="Q67" s="15">
-        <v>-138</v>
-      </c>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+        <v>-212</v>
+      </c>
+      <c r="Q67" s="14">
+        <v>313</v>
+      </c>
+      <c r="R67" s="4">
+        <v>-37</v>
+      </c>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="14">
-        <v>0</v>
-      </c>
+      <c r="Y67" s="1"/>
       <c r="Z67" s="14">
-        <v>0</v>
+        <f>3967+3035-1881</f>
+        <v>5121</v>
       </c>
       <c r="AA67" s="14">
-        <v>0</v>
+        <f>849-1836</f>
+        <v>-987</v>
       </c>
       <c r="AB67" s="14">
-        <v>0</v>
+        <f>2139-1373</f>
+        <v>766</v>
       </c>
       <c r="AC67" s="14">
-        <v>-606</v>
+        <f>1785-2117</f>
+        <v>-332</v>
       </c>
       <c r="AD67" s="14">
-        <v>-620</v>
-      </c>
-    </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.25">
+        <f>4372-3914</f>
+        <v>458</v>
+      </c>
+      <c r="AE67" s="14">
+        <f>2174-2252</f>
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="68" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D68" s="14">
         <v>0</v>
@@ -6727,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="14">
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="M68" s="14">
         <v>0</v>
@@ -6739,40 +7043,41 @@
         <v>0</v>
       </c>
       <c r="P68" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="15">
-        <v>0</v>
-      </c>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+        <v>-148</v>
+      </c>
+      <c r="Q68" s="14">
+        <v>-138</v>
+      </c>
+      <c r="R68" s="4">
+        <v>-137</v>
+      </c>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="14">
-        <v>-331</v>
-      </c>
+      <c r="Y68" s="1"/>
       <c r="Z68" s="14">
         <v>0</v>
       </c>
       <c r="AA68" s="14">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="14">
-        <v>-58</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="14">
-        <v>-623</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="14">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.25">
+        <v>-606</v>
+      </c>
+      <c r="AE68" s="14">
+        <v>-620</v>
+      </c>
+    </row>
+    <row r="69" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D69" s="14">
         <v>0</v>
@@ -6813,420 +7118,510 @@
       <c r="P69" s="14">
         <v>0</v>
       </c>
-      <c r="Q69" s="15">
-        <v>-680</v>
-      </c>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="Q69" s="14">
+        <v>0</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0</v>
+      </c>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="14">
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="14">
+        <v>-331</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="14">
+        <v>-7</v>
+      </c>
+      <c r="AC69" s="14">
+        <v>-58</v>
+      </c>
+      <c r="AD69" s="14">
+        <v>-623</v>
+      </c>
+      <c r="AE69" s="14">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="70" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <v>0</v>
+      </c>
+      <c r="K70" s="14">
+        <v>0</v>
+      </c>
+      <c r="L70" s="14">
+        <v>0</v>
+      </c>
+      <c r="M70" s="14">
+        <v>0</v>
+      </c>
+      <c r="N70" s="14">
+        <v>0</v>
+      </c>
+      <c r="O70" s="14">
+        <v>0</v>
+      </c>
+      <c r="P70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="14">
+        <v>-680</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="14">
         <f>-560-164</f>
         <v>-724</v>
       </c>
-      <c r="Z69" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="14">
+      <c r="AA70" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="14">
         <f>-566-205</f>
         <v>-771</v>
       </c>
-      <c r="AB69" s="14">
+      <c r="AC70" s="14">
         <v>-623</v>
       </c>
-      <c r="AC69" s="14">
+      <c r="AD70" s="14">
         <v>-171</v>
       </c>
-      <c r="AD69" s="14">
+      <c r="AE70" s="14">
         <v>-623</v>
       </c>
     </row>
-    <row r="70" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C70" s="1" t="s">
+    <row r="71" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="12">
-        <f t="shared" ref="D70:O70" si="70">SUM(D66:D69)</f>
+      <c r="D71" s="12">
+        <f t="shared" ref="D71:O71" si="67">SUM(D67:D70)</f>
         <v>-711</v>
       </c>
-      <c r="E70" s="12">
-        <f>SUM(E66:E69)</f>
+      <c r="E71" s="12">
+        <f>SUM(E67:E70)</f>
         <v>-124</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
+        <f t="shared" si="67"/>
+        <v>-230</v>
+      </c>
+      <c r="G71" s="12">
+        <f t="shared" si="67"/>
+        <v>-195</v>
+      </c>
+      <c r="H71" s="12">
+        <f t="shared" si="67"/>
+        <v>201</v>
+      </c>
+      <c r="I71" s="12">
+        <f>SUM(I67:I70)</f>
+        <v>-112</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="67"/>
+        <v>-478</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="67"/>
+        <v>-553</v>
+      </c>
+      <c r="L71" s="12">
+        <f t="shared" si="67"/>
+        <v>418</v>
+      </c>
+      <c r="M71" s="12">
+        <f t="shared" si="67"/>
+        <v>-1049</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="67"/>
+        <v>-84</v>
+      </c>
+      <c r="O71" s="12">
+        <f t="shared" si="67"/>
+        <v>-754</v>
+      </c>
+      <c r="P71" s="12">
+        <f>SUM(P67:P70)</f>
+        <v>-360</v>
+      </c>
+      <c r="Q71" s="12">
+        <f>SUM(Q67:Q70)</f>
+        <v>-505</v>
+      </c>
+      <c r="R71" s="13">
+        <f>SUM(R67:R70)</f>
+        <v>-174</v>
+      </c>
+      <c r="Z71" s="12">
+        <f>SUM(Z67:Z70)</f>
+        <v>4066</v>
+      </c>
+      <c r="AA71" s="12">
+        <f t="shared" ref="AA71:AD71" si="68">SUM(AA67:AA70)</f>
+        <v>-987</v>
+      </c>
+      <c r="AB71" s="12">
+        <f t="shared" si="68"/>
+        <v>-12</v>
+      </c>
+      <c r="AC71" s="12">
+        <f t="shared" si="68"/>
+        <v>-1013</v>
+      </c>
+      <c r="AD71" s="12">
+        <f t="shared" si="68"/>
+        <v>-942</v>
+      </c>
+      <c r="AE71" s="12">
+        <f>SUM(AE67:AE70)</f>
+        <v>-1470</v>
+      </c>
+    </row>
+    <row r="72" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="Z72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="14"/>
+    </row>
+    <row r="73" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="14">
+        <v>-42</v>
+      </c>
+      <c r="E73" s="14">
+        <v>-101</v>
+      </c>
+      <c r="F73" s="14">
+        <v>-65</v>
+      </c>
+      <c r="G73" s="14">
+        <v>28</v>
+      </c>
+      <c r="H73" s="14">
+        <v>-13</v>
+      </c>
+      <c r="I73" s="14">
+        <v>-94</v>
+      </c>
+      <c r="J73" s="14">
+        <v>42</v>
+      </c>
+      <c r="K73" s="14">
+        <v>49</v>
+      </c>
+      <c r="L73" s="14">
+        <v>-27</v>
+      </c>
+      <c r="M73" s="14">
+        <v>26</v>
+      </c>
+      <c r="N73" s="14">
+        <v>4</v>
+      </c>
+      <c r="O73" s="14">
+        <v>-40</v>
+      </c>
+      <c r="P73" s="14">
+        <v>-114</v>
+      </c>
+      <c r="Q73" s="14">
+        <v>51</v>
+      </c>
+      <c r="R73" s="4">
+        <v>-22</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>-11</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>180</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>-92</v>
+      </c>
+      <c r="AC73" s="14">
+        <v>-180</v>
+      </c>
+      <c r="AD73" s="14">
+        <v>-16</v>
+      </c>
+      <c r="AE73" s="14">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="74" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+    </row>
+    <row r="75" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" s="14">
+        <f t="shared" ref="D75:O75" si="69">D61+D65+D71+D73</f>
+        <v>-1209</v>
+      </c>
+      <c r="E75" s="14">
+        <f ca="1">E61+E65+E71+E73</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="69"/>
+        <v>-325</v>
+      </c>
+      <c r="G75" s="14">
+        <f t="shared" si="69"/>
+        <v>226</v>
+      </c>
+      <c r="H75" s="14">
+        <f t="shared" si="69"/>
+        <v>74</v>
+      </c>
+      <c r="I75" s="14">
+        <f t="shared" ca="1" si="69"/>
+        <v>11</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="69"/>
+        <v>-226</v>
+      </c>
+      <c r="K75" s="14">
+        <f t="shared" si="69"/>
+        <v>315</v>
+      </c>
+      <c r="L75" s="14">
+        <f t="shared" si="69"/>
+        <v>396</v>
+      </c>
+      <c r="M75" s="14">
+        <f t="shared" si="69"/>
+        <v>-735</v>
+      </c>
+      <c r="N75" s="14">
+        <f t="shared" si="69"/>
+        <v>36</v>
+      </c>
+      <c r="O75" s="14">
+        <f t="shared" si="69"/>
+        <v>406</v>
+      </c>
+      <c r="P75" s="14">
+        <f>P61+P65+P71+P73</f>
+        <v>-384</v>
+      </c>
+      <c r="Q75" s="14">
+        <f>Q61+Q65+Q71+Q73</f>
+        <v>-121</v>
+      </c>
+      <c r="R75" s="15">
+        <f>R61+R65+R71+R73</f>
+        <v>-5</v>
+      </c>
+      <c r="Z75" s="14">
+        <f t="shared" ref="Z75:AD75" si="70">Z61+Z65+Z71+Z73</f>
+        <v>546</v>
+      </c>
+      <c r="AA75" s="14">
         <f t="shared" si="70"/>
-        <v>-230</v>
-      </c>
-      <c r="G70" s="12">
+        <v>933</v>
+      </c>
+      <c r="AB75" s="14">
         <f t="shared" si="70"/>
-        <v>-195</v>
-      </c>
-      <c r="H70" s="12">
+        <v>181</v>
+      </c>
+      <c r="AC75" s="14">
         <f t="shared" si="70"/>
-        <v>201</v>
-      </c>
-      <c r="I70" s="12">
-        <f>SUM(I66:I69)</f>
-        <v>-112</v>
-      </c>
-      <c r="J70" s="12">
+        <v>-1024</v>
+      </c>
+      <c r="AD75" s="14">
         <f t="shared" si="70"/>
-        <v>-478</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="70"/>
-        <v>-553</v>
-      </c>
-      <c r="L70" s="12">
-        <f t="shared" si="70"/>
-        <v>418</v>
-      </c>
-      <c r="M70" s="12">
-        <f t="shared" si="70"/>
-        <v>-1049</v>
-      </c>
-      <c r="N70" s="12">
-        <f t="shared" si="70"/>
-        <v>-84</v>
-      </c>
-      <c r="O70" s="12">
-        <f t="shared" si="70"/>
-        <v>-754</v>
-      </c>
-      <c r="P70" s="12">
-        <f>SUM(P66:P69)</f>
-        <v>-360</v>
-      </c>
-      <c r="Q70" s="13">
-        <f>SUM(Q66:Q69)</f>
-        <v>-505</v>
-      </c>
-      <c r="Y70" s="12">
-        <f>SUM(Y66:Y69)</f>
-        <v>4066</v>
-      </c>
-      <c r="Z70" s="12">
-        <f t="shared" ref="Z70:AC70" si="71">SUM(Z66:Z69)</f>
-        <v>-987</v>
-      </c>
-      <c r="AA70" s="12">
+        <v>78</v>
+      </c>
+      <c r="AE75" s="14">
+        <f>AE61+AE65+AE71+AE73</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="15"/>
+      <c r="Z76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AC76" s="14"/>
+      <c r="AD76" s="14"/>
+      <c r="AE76" s="14"/>
+    </row>
+    <row r="77" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="14">
+        <f t="shared" ref="D77:O77" si="71">D61+D63</f>
+        <v>-456</v>
+      </c>
+      <c r="E77" s="14">
         <f t="shared" si="71"/>
-        <v>-12</v>
-      </c>
-      <c r="AB70" s="12">
+        <v>262</v>
+      </c>
+      <c r="F77" s="14">
         <f t="shared" si="71"/>
-        <v>-1013</v>
-      </c>
-      <c r="AC70" s="12">
+        <v>-30</v>
+      </c>
+      <c r="G77" s="14">
         <f t="shared" si="71"/>
-        <v>-942</v>
-      </c>
-      <c r="AD70" s="12">
-        <f>SUM(AD66:AD69)</f>
-        <v>-1470</v>
-      </c>
-    </row>
-    <row r="71" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="15"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-    </row>
-    <row r="72" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="14">
-        <v>-42</v>
-      </c>
-      <c r="E72" s="14">
-        <v>-101</v>
-      </c>
-      <c r="F72" s="14">
-        <v>-65</v>
-      </c>
-      <c r="G72" s="14">
-        <v>28</v>
-      </c>
-      <c r="H72" s="14">
-        <v>-13</v>
-      </c>
-      <c r="I72" s="14">
-        <v>-94</v>
-      </c>
-      <c r="J72" s="14">
-        <v>42</v>
-      </c>
-      <c r="K72" s="14">
-        <v>49</v>
-      </c>
-      <c r="L72" s="14">
-        <v>-27</v>
-      </c>
-      <c r="M72" s="14">
-        <v>26</v>
-      </c>
-      <c r="N72" s="14">
-        <v>4</v>
-      </c>
-      <c r="O72" s="14">
-        <v>-40</v>
-      </c>
-      <c r="P72" s="14">
+        <v>393</v>
+      </c>
+      <c r="H77" s="14">
+        <f t="shared" si="71"/>
         <v>-114</v>
       </c>
-      <c r="Q72" s="15">
-        <v>51</v>
-      </c>
-      <c r="Y72" s="14">
-        <v>-11</v>
-      </c>
-      <c r="Z72" s="14">
-        <v>180</v>
-      </c>
-      <c r="AA72" s="14">
-        <v>-92</v>
-      </c>
-      <c r="AB72" s="14">
-        <v>-180</v>
-      </c>
-      <c r="AC72" s="14">
-        <v>-16</v>
-      </c>
-      <c r="AD72" s="14">
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="73" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="15"/>
-      <c r="Y73" s="14"/>
-      <c r="Z73" s="14"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-    </row>
-    <row r="74" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C74" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="14">
-        <f t="shared" ref="D74:O74" si="72">D60+D64+D70+D72</f>
-        <v>-1209</v>
-      </c>
-      <c r="E74" s="14">
-        <f ca="1">E60+E64+E70+E72</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="14">
+      <c r="I77" s="14">
+        <f t="shared" si="71"/>
+        <v>123</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="71"/>
+        <v>210</v>
+      </c>
+      <c r="K77" s="14">
+        <f t="shared" si="71"/>
+        <v>819</v>
+      </c>
+      <c r="L77" s="14">
+        <f t="shared" si="71"/>
+        <v>-5</v>
+      </c>
+      <c r="M77" s="14">
+        <f t="shared" si="71"/>
+        <v>288</v>
+      </c>
+      <c r="N77" s="14">
+        <f t="shared" si="71"/>
+        <v>116</v>
+      </c>
+      <c r="O77" s="14">
+        <f t="shared" si="71"/>
+        <v>1200</v>
+      </c>
+      <c r="P77" s="14">
+        <f>P61+P63</f>
+        <v>90</v>
+      </c>
+      <c r="Q77" s="14">
+        <f>Q61+Q63</f>
+        <v>322</v>
+      </c>
+      <c r="R77" s="15">
+        <f>R61+R63</f>
+        <v>183</v>
+      </c>
+      <c r="Z77" s="14">
+        <f t="shared" ref="Z77:AD77" si="72">Z61+Z63</f>
+        <v>-3509</v>
+      </c>
+      <c r="AA77" s="14">
         <f t="shared" si="72"/>
-        <v>-325</v>
-      </c>
-      <c r="G74" s="14">
+        <v>1740</v>
+      </c>
+      <c r="AB77" s="14">
         <f t="shared" si="72"/>
-        <v>226</v>
-      </c>
-      <c r="H74" s="14">
+        <v>285</v>
+      </c>
+      <c r="AC77" s="14">
         <f t="shared" si="72"/>
-        <v>74</v>
-      </c>
-      <c r="I74" s="14">
-        <f t="shared" ca="1" si="72"/>
-        <v>11</v>
-      </c>
-      <c r="J74" s="14">
+        <v>169</v>
+      </c>
+      <c r="AD77" s="14">
         <f t="shared" si="72"/>
-        <v>-226</v>
-      </c>
-      <c r="K74" s="14">
-        <f t="shared" si="72"/>
-        <v>315</v>
-      </c>
-      <c r="L74" s="14">
-        <f t="shared" si="72"/>
-        <v>396</v>
-      </c>
-      <c r="M74" s="14">
-        <f t="shared" si="72"/>
-        <v>-735</v>
-      </c>
-      <c r="N74" s="14">
-        <f t="shared" si="72"/>
-        <v>36</v>
-      </c>
-      <c r="O74" s="14">
-        <f t="shared" si="72"/>
-        <v>406</v>
-      </c>
-      <c r="P74" s="14">
-        <f>P60+P64+P70+P72</f>
-        <v>-384</v>
-      </c>
-      <c r="Q74" s="15">
-        <f>Q60+Q64+Q70+Q72</f>
-        <v>-121</v>
-      </c>
-      <c r="Y74" s="14">
-        <f t="shared" ref="Y74:AC74" si="73">Y60+Y64+Y70+Y72</f>
-        <v>546</v>
-      </c>
-      <c r="Z74" s="14">
-        <f t="shared" si="73"/>
-        <v>933</v>
-      </c>
-      <c r="AA74" s="14">
-        <f t="shared" si="73"/>
-        <v>181</v>
-      </c>
-      <c r="AB74" s="14">
-        <f t="shared" si="73"/>
-        <v>-1024</v>
-      </c>
-      <c r="AC74" s="14">
-        <f t="shared" si="73"/>
-        <v>78</v>
-      </c>
-      <c r="AD74" s="14">
-        <f>AD60+AD64+AD70+AD72</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="15"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="14"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="14"/>
-      <c r="AC75" s="14"/>
-      <c r="AD75" s="14"/>
-    </row>
-    <row r="76" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C76" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="14">
-        <f t="shared" ref="D76:O76" si="74">D60+D62</f>
-        <v>-456</v>
-      </c>
-      <c r="E76" s="14">
-        <f t="shared" si="74"/>
-        <v>262</v>
-      </c>
-      <c r="F76" s="14">
-        <f t="shared" si="74"/>
-        <v>-30</v>
-      </c>
-      <c r="G76" s="14">
-        <f t="shared" si="74"/>
-        <v>393</v>
-      </c>
-      <c r="H76" s="14">
-        <f t="shared" si="74"/>
-        <v>-114</v>
-      </c>
-      <c r="I76" s="14">
-        <f t="shared" si="74"/>
-        <v>123</v>
-      </c>
-      <c r="J76" s="14">
-        <f t="shared" si="74"/>
-        <v>210</v>
-      </c>
-      <c r="K76" s="14">
-        <f t="shared" si="74"/>
-        <v>819</v>
-      </c>
-      <c r="L76" s="14">
-        <f t="shared" si="74"/>
-        <v>-5</v>
-      </c>
-      <c r="M76" s="14">
-        <f t="shared" si="74"/>
-        <v>288</v>
-      </c>
-      <c r="N76" s="14">
-        <f t="shared" si="74"/>
-        <v>116</v>
-      </c>
-      <c r="O76" s="14">
-        <f t="shared" si="74"/>
-        <v>1200</v>
-      </c>
-      <c r="P76" s="14">
-        <f>P60+P62</f>
-        <v>90</v>
-      </c>
-      <c r="Q76" s="15">
-        <f>Q60+Q62</f>
-        <v>322</v>
-      </c>
-      <c r="Y76" s="14">
-        <f t="shared" ref="Y76:AC76" si="75">Y60+Y62</f>
-        <v>-3509</v>
-      </c>
-      <c r="Z76" s="14">
-        <f t="shared" si="75"/>
-        <v>1740</v>
-      </c>
-      <c r="AA76" s="14">
-        <f t="shared" si="75"/>
-        <v>285</v>
-      </c>
-      <c r="AB76" s="14">
-        <f t="shared" si="75"/>
-        <v>169</v>
-      </c>
-      <c r="AC76" s="14">
-        <f t="shared" si="75"/>
         <v>1036</v>
       </c>
-      <c r="AD76" s="14">
-        <f>AD60+AD62</f>
+      <c r="AE77" s="14">
+        <f>AE61+AE63</f>
         <v>1610</v>
       </c>
     </row>
@@ -7240,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249058E0-3BA5-6740-BE74-082DF7085DA4}">
   <dimension ref="B4:V59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="X14" sqref="X14"/>
@@ -10226,7 +10621,7 @@
   <dimension ref="C4:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10252,16 +10647,16 @@
         <v>98</v>
       </c>
       <c r="D5" s="26">
-        <f>Modell!$B$9/Modell!AE11</f>
-        <v>11.777020337363957</v>
+        <f>Modell!$B$9/Modell!AF11</f>
+        <v>13.025610624381654</v>
       </c>
       <c r="E5" s="26">
-        <f>Modell!$B$9/Modell!AF11</f>
-        <v>10.53074172456159</v>
+        <f>Modell!$B$9/Modell!AG11</f>
+        <v>11.647202548753615</v>
       </c>
       <c r="F5" s="26">
-        <f>Modell!$B$9/Modell!AG11</f>
-        <v>9.9132764219118901</v>
+        <f>Modell!$B$9/Modell!AH11</f>
+        <v>10.964274068035612</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -10269,16 +10664,16 @@
         <v>31</v>
       </c>
       <c r="D6" s="26">
-        <f>Modell!$B$9/Modell!AE13</f>
-        <v>12.835216725649923</v>
+        <f>Modell!$B$9/Modell!AF13</f>
+        <v>14.195996148316748</v>
       </c>
       <c r="E6" s="26">
-        <f>Modell!$B$9/Modell!AF13</f>
-        <v>11.414277922566326</v>
+        <f>Modell!$B$9/Modell!AG13</f>
+        <v>12.624410548577124</v>
       </c>
       <c r="F6" s="26">
-        <f>Modell!$B$9/Modell!AG13</f>
-        <v>10.777108006816187</v>
+        <f>Modell!$B$9/Modell!AH13</f>
+        <v>11.91968838742061</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -10286,16 +10681,16 @@
         <v>32</v>
       </c>
       <c r="D7" s="26">
-        <f>Modell!$B$4/Modell!AE19</f>
-        <v>13.512417804415687</v>
+        <f>Modell!$B$4/Modell!AF19</f>
+        <v>15.334519537721407</v>
       </c>
       <c r="E7" s="26">
-        <f>Modell!$B$4/Modell!AF19</f>
-        <v>11.966002247040411</v>
+        <f>Modell!$B$4/Modell!AG19</f>
+        <v>13.579575313730773</v>
       </c>
       <c r="F7" s="26">
-        <f>Modell!$B$4/Modell!AG19</f>
-        <v>11.323928316697861</v>
+        <f>Modell!$B$4/Modell!AH19</f>
+        <v>12.85091998557167</v>
       </c>
     </row>
   </sheetData>
@@ -10307,11 +10702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18ECAD9-09F3-AF43-8AC1-08C61255878F}">
   <dimension ref="A3:CZ49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -10566,7 +10961,7 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f>AA25</f>
-        <v>-0.24353522658631221</v>
+        <v>-0.33342104083899743</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -12429,7 +12824,7 @@
       </c>
       <c r="AA25" s="47">
         <f>(AA24-Modell!$B$4)/Modell!$B$4</f>
-        <v>-0.24353522658631221</v>
+        <v>-0.33342104083899743</v>
       </c>
     </row>
     <row r="27" spans="1:104" x14ac:dyDescent="0.25">
@@ -12539,7 +12934,7 @@
       <c r="M28" s="12">
         <v>27160</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="51">
         <f>M28*0.99</f>
         <v>26888.400000000001</v>
       </c>
@@ -12669,7 +13064,7 @@
     <row r="30" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f>AA49</f>
-        <v>-0.41165644885817915</v>
+        <v>-0.4815655061115014</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
@@ -14532,7 +14927,7 @@
       </c>
       <c r="AA49" s="47">
         <f>(AA48-Modell!$B$4)/Modell!$B$4</f>
-        <v>-0.41165644885817915</v>
+        <v>-0.4815655061115014</v>
       </c>
     </row>
   </sheetData>
